--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -35,25 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
+    <t>livelo  Trading</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-03-059</t>
+    <t>2020-03-058</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t>2nd Floor Cyberzone Area, SM Calamba City Laguna</t>
+    <t>National Highway, Dayap Caluan Laguna</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>March 18, 2020</t>
+    <t>March 06, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -79,7 +79,7 @@
     </r>
   </si>
   <si>
-    <t>Small Value Procurement</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t xml:space="preserve"> Gentlemen:</t>
@@ -186,20 +186,20 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S104</t>
+    <t>S135</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Load card (smart 500)
+    <t xml:space="preserve"> Tarpaulin 13 x 7.5ft DRRM/POC 
 </t>
   </si>
   <si>
-    <t>S091</t>
+    <t>S729</t>
   </si>
   <si>
-    <t xml:space="preserve">Load card (globe 500)
+    <t xml:space="preserve">Sintra Board 4 x 8 ft
 </t>
   </si>
   <si>
@@ -17753,13 +17753,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="86">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E16" s="87">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="88">
-        <v>25740</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
@@ -17773,25 +17773,23 @@
         <v>32</v>
       </c>
       <c r="D17" s="92">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="E17" s="93">
-        <v>495</v>
+        <v>6150</v>
       </c>
       <c r="F17" s="94">
-        <v>76725</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="18" spans="1:16136" customHeight="1" ht="30">
-      <c r="A18" s="95">
-        <v>102465</v>
-      </c>
+      <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
       <c r="D18" s="98"/>
       <c r="E18" s="99"/>
       <c r="F18" s="117">
-        <v>102465</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="19" spans="1:16136" customHeight="1" ht="13.9">

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -35,25 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>livelo  Trading</t>
+    <t>JRF s Catering  and Events</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-03-058</t>
+    <t>2020-03-060</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t>National Highway, Dayap Caluan Laguna</t>
+    <t>1045 P. Burgos st. Baranagay Poblacion Uno Cabuayo Laguna</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>March 06, 2020</t>
+    <t>March 25, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -186,57 +186,146 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S135</t>
+    <t>S819</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>Concrete Primer Paint
+.</t>
+  </si>
+  <si>
+    <t>S820</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t>Semi gloo paint (Cyan Blue)
+.</t>
+  </si>
+  <si>
+    <t>S821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Neutralizer
+</t>
+  </si>
+  <si>
+    <t>S822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDE
+</t>
+  </si>
+  <si>
+    <t>S824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint varnish 350 ml
+</t>
+  </si>
+  <si>
+    <t>S825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glazing putty
+</t>
+  </si>
+  <si>
+    <t>S826</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tarpaulin 13 x 7.5ft DRRM/POC 
+    <t xml:space="preserve">Red oxide
 </t>
   </si>
   <si>
-    <t>S729</t>
+    <t>S827</t>
   </si>
   <si>
-    <t xml:space="preserve">Sintra Board 4 x 8 ft
+    <t xml:space="preserve">Tinting color
 </t>
   </si>
   <si>
-    <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
+    <t>S828</t>
   </si>
   <si>
-    <t>every day of delay shall be imposedon the undelivered item/s.</t>
+    <t xml:space="preserve">Putty knife
+</t>
   </si>
   <si>
-    <t>Coforme:</t>
+    <t>S829</t>
   </si>
   <si>
-    <t>Very Truly Yours:</t>
+    <t>can</t>
   </si>
   <si>
-    <t xml:space="preserve">       ______________________________________</t>
+    <t xml:space="preserve">Empty paint can
+</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
+    <t>S830</t>
   </si>
   <si>
-    <t>Signature over Printed Name of Supplier</t>
+    <t xml:space="preserve">Sponge
+</t>
   </si>
   <si>
-    <t>Signature over Printed Name of Authorized Official</t>
+    <t>S831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used rags
+</t>
+  </si>
+  <si>
+    <t>S832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used magazines
+</t>
+  </si>
+  <si>
+    <t>S833</t>
   </si>
   <si>
     <t xml:space="preserve">               __________________________</t>
   </si>
   <si>
+    <t xml:space="preserve">Assorted Paint Brush
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">       Assistant Regional Director</t>
+  </si>
+  <si>
+    <t>S834</t>
   </si>
   <si>
     <t xml:space="preserve">                               Date</t>
   </si>
   <si>
     <t>Designation</t>
+  </si>
+  <si>
+    <t>S835</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assorted sand paper
+</t>
+  </si>
+  <si>
+    <t>S823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint Thinner 350 ml
+</t>
   </si>
   <si>
     <t>Fund Cluster : _____________________________________________</t>
@@ -251,6 +340,9 @@
     <t>Date of the ORS/BURS: ___________________</t>
   </si>
   <si>
+    <t>Coforme:</t>
+  </si>
+  <si>
     <t>RESTITUTO B. NAÑEZ, III</t>
   </si>
   <si>
@@ -260,7 +352,19 @@
     <t>Signature over Printed Name of Chief Accountant/Head of</t>
   </si>
   <si>
+    <t xml:space="preserve">       ______________________________________</t>
+  </si>
+  <si>
     <t>Accounting Division/Unit</t>
+  </si>
+  <si>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
+  </si>
+  <si>
+    <t>Signature over Printed Name of Supplier</t>
+  </si>
+  <si>
+    <t>Signature over Printed Name of Authorized Official</t>
   </si>
 </sst>
 </file>
@@ -347,15 +451,6 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
@@ -431,7 +526,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -450,6 +545,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -735,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="197">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -790,18 +894,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -841,26 +933,11 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -877,10 +954,10 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -892,31 +969,31 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -958,22 +1035,22 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="26" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -985,91 +1062,340 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="19" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1087,25 +1413,13 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1114,7 +1428,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1424,12 +1738,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true" style="24"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true" style="20"/>
     <col min="2" max="2" width="13.85546875" customWidth="true" style="6"/>
     <col min="3" max="3" width="35" customWidth="true" style="6"/>
     <col min="4" max="4" width="8.85546875" customWidth="true" style="6"/>
     <col min="5" max="5" width="11.7109375" customWidth="true" style="6"/>
-    <col min="6" max="6" width="25.7109375" customWidth="true" style="25"/>
+    <col min="6" max="6" width="25.7109375" customWidth="true" style="21"/>
     <col min="7" max="7" width="2.7109375" customWidth="true" style="7"/>
     <col min="8" max="8" width="9.140625" customWidth="true" style="7"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -17563,146 +17877,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16136" customHeight="1" ht="22.5">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="47" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:16136" customHeight="1" ht="15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:16136" customHeight="1" ht="17.45">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:16136" customHeight="1" ht="15.75">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:16136" customHeight="1" ht="15.6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:16136" customHeight="1" ht="13.5">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16136" customHeight="1" ht="28.15" s="13" customFormat="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="77"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:16136" customHeight="1" ht="38.45" s="13" customFormat="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="72"/>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="13" customFormat="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="73" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:16136" customHeight="1" ht="15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="26"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A12" s="31"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:16136" customHeight="1" ht="15">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
       <c r="S13" s="7">
@@ -17711,19 +18025,19 @@
       </c>
     </row>
     <row r="14" spans="1:16136" customHeight="1" ht="21">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="44" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:16136" customHeight="1" ht="31.15" s="11" customFormat="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17738,3267 +18052,3427 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16136" customHeight="1" ht="30">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="77">
+        <v>4</v>
+      </c>
+      <c r="E16" s="78">
         <v>1</v>
       </c>
-      <c r="E16" s="87">
-        <v>1000</v>
+      <c r="F16" s="79">
+        <v>4</v>
       </c>
-      <c r="F16" s="88">
-        <v>1000</v>
-      </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="83">
+        <v>6</v>
+      </c>
+      <c r="E17" s="84">
+        <v>1</v>
+      </c>
+      <c r="F17" s="85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16136" customHeight="1" ht="30">
+      <c r="A18" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="92">
-        <v>8</v>
-      </c>
-      <c r="E17" s="93">
-        <v>6150</v>
-      </c>
-      <c r="F17" s="94">
-        <v>49200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16136" customHeight="1" ht="30">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="117">
-        <v>50200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A19" s="35"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="118"/>
-    </row>
-    <row r="20" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A20" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="118"/>
-    </row>
-    <row r="21" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A21" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="118"/>
-    </row>
-    <row r="22" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A22" s="35"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="118"/>
-    </row>
-    <row r="23" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A23" s="102" t="s">
+      <c r="C18" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20" t="s">
+      <c r="D18" s="89">
+        <v>1</v>
+      </c>
+      <c r="E18" s="90">
+        <v>1</v>
+      </c>
+      <c r="F18" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16136" customHeight="1" ht="30">
+      <c r="A19" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="118"/>
-    </row>
-    <row r="24" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A24" s="35"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="118"/>
-    </row>
-    <row r="25" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A25" s="35"/>
-      <c r="B25" s="19" t="s">
+      <c r="B19" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104" t="s">
+      <c r="D19" s="95">
+        <v>1</v>
+      </c>
+      <c r="E19" s="96">
+        <v>1</v>
+      </c>
+      <c r="F19" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16136" customHeight="1" ht="30">
+      <c r="A20" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="119"/>
-    </row>
-    <row r="26" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A26" s="35"/>
-      <c r="B26" s="19" t="s">
+      <c r="B20" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20" t="s">
+      <c r="D20" s="101">
+        <v>1</v>
+      </c>
+      <c r="E20" s="102">
+        <v>1</v>
+      </c>
+      <c r="F20" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16136" customHeight="1" ht="30">
+      <c r="A21" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="118"/>
-    </row>
-    <row r="27" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="118"/>
-    </row>
-    <row r="28" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="120"/>
-    </row>
-    <row r="29" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37" t="s">
+      <c r="B21" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106" t="s">
+      <c r="D21" s="107">
+        <v>1</v>
+      </c>
+      <c r="E21" s="108">
+        <v>1</v>
+      </c>
+      <c r="F21" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16136" customHeight="1" ht="30">
+      <c r="A22" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="121"/>
-    </row>
-    <row r="30" spans="1:16136" customHeight="1" ht="14.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37" t="s">
+      <c r="B22" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="107" t="s">
+      <c r="C22" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="120"/>
-    </row>
-    <row r="31" spans="1:16136" customHeight="1" ht="15">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="122"/>
-    </row>
-    <row r="32" spans="1:16136" customHeight="1" ht="15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="122"/>
-    </row>
-    <row r="33" spans="1:16136" customHeight="1" ht="15">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="123"/>
-    </row>
-    <row r="34" spans="1:16136" customHeight="1" ht="15">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="122"/>
-    </row>
-    <row r="35" spans="1:16136" customHeight="1" ht="15">
-      <c r="A35" s="39" t="s">
+      <c r="D22" s="113">
+        <v>1</v>
+      </c>
+      <c r="E22" s="114">
+        <v>1</v>
+      </c>
+      <c r="F22" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16136" customHeight="1" ht="30">
+      <c r="A23" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="40" t="s">
+      <c r="B23" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="122"/>
-    </row>
-    <row r="36" spans="1:16136" customHeight="1" ht="15">
-      <c r="A36" s="39" t="s">
+      <c r="D23" s="119">
+        <v>1</v>
+      </c>
+      <c r="E23" s="120">
+        <v>1</v>
+      </c>
+      <c r="F23" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16136" customHeight="1" ht="30">
+      <c r="A24" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="40" t="s">
+      <c r="B24" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="122"/>
-    </row>
-    <row r="37" spans="1:16136" customHeight="1" ht="15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="122"/>
-    </row>
-    <row r="38" spans="1:16136" customHeight="1" ht="15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="126" t="s">
+      <c r="D24" s="125">
+        <v>2</v>
+      </c>
+      <c r="E24" s="126">
+        <v>1</v>
+      </c>
+      <c r="F24" s="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16136" customHeight="1" ht="30">
+      <c r="A25" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="40" t="s">
+      <c r="B25" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="122"/>
-    </row>
-    <row r="39" spans="1:16136" customHeight="1" ht="15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40" t="s">
+      <c r="C25" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="122"/>
-    </row>
-    <row r="40" spans="1:16136" customHeight="1" ht="15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="112" t="s">
+      <c r="D25" s="131">
+        <v>5</v>
+      </c>
+      <c r="E25" s="132">
+        <v>1</v>
+      </c>
+      <c r="F25" s="133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16136" customHeight="1" ht="30">
+      <c r="A26" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="122"/>
+      <c r="B26" s="135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="137">
+        <v>5</v>
+      </c>
+      <c r="E26" s="138">
+        <v>1</v>
+      </c>
+      <c r="F26" s="139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16136" customHeight="1" ht="30">
+      <c r="A27" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="143">
+        <v>1</v>
+      </c>
+      <c r="E27" s="144">
+        <v>1</v>
+      </c>
+      <c r="F27" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16136" customHeight="1" ht="30">
+      <c r="A28" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="149">
+        <v>1</v>
+      </c>
+      <c r="E28" s="150">
+        <v>1</v>
+      </c>
+      <c r="F28" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16136" customHeight="1" ht="30">
+      <c r="A29" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="177">
+        <v>1</v>
+      </c>
+      <c r="E29" s="179" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16136" customHeight="1" ht="30">
+      <c r="A30" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="157"/>
+      <c r="D30" s="180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+    </row>
+    <row r="31" spans="1:16136" customHeight="1" ht="30">
+      <c r="A31" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="163">
+        <v>1</v>
+      </c>
+      <c r="E31" s="164">
+        <v>1</v>
+      </c>
+      <c r="F31" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16136" customHeight="1" ht="30">
+      <c r="A32" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="169">
+        <v>2</v>
+      </c>
+      <c r="E32" s="170">
+        <v>1</v>
+      </c>
+      <c r="F32" s="171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16136" customHeight="1" ht="30">
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="191">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16136" customHeight="1" ht="15">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="192"/>
+    </row>
+    <row r="35" spans="1:16136" customHeight="1" ht="15">
+      <c r="A35" s="172" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="192"/>
+    </row>
+    <row r="36" spans="1:16136" customHeight="1" ht="15">
+      <c r="A36" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="192"/>
+    </row>
+    <row r="37" spans="1:16136" customHeight="1" ht="15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="192"/>
+    </row>
+    <row r="38" spans="1:16136" customHeight="1" ht="15">
+      <c r="A38" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="196" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="195"/>
+      <c r="D38" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="192"/>
+    </row>
+    <row r="39" spans="1:16136" customHeight="1" ht="15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="186"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="192"/>
+    </row>
+    <row r="40" spans="1:16136" customHeight="1" ht="15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="186" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="175"/>
+      <c r="E40" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="193"/>
     </row>
     <row r="41" spans="1:16136" customHeight="1" ht="15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="122"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="186"/>
+      <c r="D41" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="192"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="15">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="124"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="194"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
     </row>
     <row r="77" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
     </row>
     <row r="80" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
     </row>
     <row r="85" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
     </row>
     <row r="86" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
     </row>
     <row r="87" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
     </row>
     <row r="88" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
     </row>
     <row r="89" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
     </row>
     <row r="91" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
     </row>
     <row r="93" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
     </row>
     <row r="94" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
     </row>
     <row r="95" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
     </row>
     <row r="96" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
     </row>
     <row r="97" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
     </row>
     <row r="99" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A101" s="40"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
     </row>
     <row r="102" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
     </row>
     <row r="103" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
     </row>
     <row r="104" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
     </row>
     <row r="105" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
     </row>
     <row r="106" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
     </row>
     <row r="107" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
     </row>
     <row r="109" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
     </row>
     <row r="111" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
     </row>
     <row r="112" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
     </row>
     <row r="113" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A113" s="40"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
     </row>
     <row r="114" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A114" s="40"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
     </row>
     <row r="115" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A115" s="40"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
     </row>
     <row r="116" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
     </row>
     <row r="117" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A117" s="40"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
     </row>
     <row r="118" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A118" s="40"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
     </row>
     <row r="119" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A119" s="40"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
     </row>
     <row r="120" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A120" s="40"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
     </row>
     <row r="121" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A121" s="40"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
     </row>
     <row r="122" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A122" s="40"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
     </row>
     <row r="123" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A123" s="40"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
     </row>
     <row r="124" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A124" s="40"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
     </row>
     <row r="125" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A125" s="40"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
     </row>
     <row r="126" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A126" s="40"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
     </row>
     <row r="127" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A127" s="40"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
     </row>
     <row r="128" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A128" s="40"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
     </row>
     <row r="129" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A129" s="40"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
     </row>
     <row r="130" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
     </row>
     <row r="131" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A131" s="40"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
     </row>
     <row r="132" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A132" s="40"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
     </row>
     <row r="133" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A133" s="40"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
     </row>
     <row r="134" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A134" s="40"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
     </row>
     <row r="135" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A135" s="40"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
     </row>
     <row r="137" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
     </row>
     <row r="138" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
     </row>
     <row r="139" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
     </row>
     <row r="140" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A140" s="40"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
     </row>
     <row r="141" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A141" s="40"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="42"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A142" s="40"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
     </row>
     <row r="143" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A143" s="40"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
     </row>
     <row r="144" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A144" s="40"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
     </row>
     <row r="145" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
     </row>
     <row r="146" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
     </row>
     <row r="147" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A147" s="40"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
     </row>
     <row r="148" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
     </row>
     <row r="149" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A149" s="40"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
     </row>
     <row r="150" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A150" s="40"/>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
     </row>
     <row r="151" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A151" s="40"/>
-      <c r="B151" s="40"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="40"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
     </row>
     <row r="152" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="40"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
     </row>
     <row r="153" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A153" s="40"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="40"/>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
     </row>
     <row r="154" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
     </row>
     <row r="155" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="40"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
     </row>
     <row r="156" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A156" s="40"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
     </row>
     <row r="157" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A157" s="40"/>
-      <c r="B157" s="40"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="40"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
+      <c r="A157" s="32"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
     </row>
     <row r="158" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A158" s="40"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
     </row>
     <row r="159" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A159" s="40"/>
-      <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
     </row>
     <row r="160" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A160" s="40"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
     </row>
     <row r="161" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A161" s="40"/>
-      <c r="B161" s="40"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
     </row>
     <row r="162" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A162" s="40"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
     </row>
     <row r="163" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="40"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
     </row>
     <row r="164" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="40"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
     </row>
     <row r="165" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
-      <c r="C165" s="40"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
     </row>
     <row r="166" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
     </row>
     <row r="167" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
     </row>
     <row r="168" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
     </row>
     <row r="169" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A169" s="40"/>
-      <c r="B169" s="40"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
     </row>
     <row r="170" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A170" s="40"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
+      <c r="A170" s="32"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
     </row>
     <row r="171" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A171" s="40"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
     </row>
     <row r="172" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
+      <c r="A172" s="32"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
     </row>
     <row r="173" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
     </row>
     <row r="174" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="42"/>
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="42"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
     </row>
     <row r="180" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
     </row>
     <row r="181" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="40"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
     </row>
     <row r="182" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
+      <c r="A182" s="32"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
     </row>
     <row r="183" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A183" s="40"/>
-      <c r="B183" s="40"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="40"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
     </row>
     <row r="184" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A184" s="40"/>
-      <c r="B184" s="40"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
     </row>
     <row r="185" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A185" s="40"/>
-      <c r="B185" s="40"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
+      <c r="A185" s="32"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
     </row>
     <row r="186" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="42"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
     </row>
     <row r="187" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
     </row>
     <row r="188" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="42"/>
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
     </row>
     <row r="189" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="42"/>
-      <c r="F189" s="42"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
     </row>
     <row r="190" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="42"/>
+      <c r="A190" s="32"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
     </row>
     <row r="191" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="40"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="42"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
     </row>
     <row r="192" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A192" s="40"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="40"/>
-      <c r="E192" s="42"/>
-      <c r="F192" s="42"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
     </row>
     <row r="193" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A193" s="40"/>
-      <c r="B193" s="40"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40"/>
-      <c r="E193" s="42"/>
-      <c r="F193" s="42"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
     </row>
     <row r="194" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A194" s="40"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
     </row>
     <row r="195" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A195" s="40"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="40"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
     </row>
     <row r="196" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A196" s="40"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
     </row>
     <row r="197" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A197" s="40"/>
-      <c r="B197" s="40"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="40"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
     </row>
     <row r="198" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A198" s="40"/>
-      <c r="B198" s="40"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="40"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
     </row>
     <row r="199" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A199" s="40"/>
-      <c r="B199" s="40"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="40"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="42"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
     </row>
     <row r="200" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A200" s="40"/>
-      <c r="B200" s="40"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="42"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
     </row>
     <row r="201" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A201" s="40"/>
-      <c r="B201" s="40"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
     </row>
     <row r="202" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A202" s="40"/>
-      <c r="B202" s="40"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="42"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
     </row>
     <row r="203" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A203" s="40"/>
-      <c r="B203" s="40"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="40"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="42"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
     </row>
     <row r="204" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A204" s="40"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="42"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
     </row>
     <row r="205" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A205" s="40"/>
-      <c r="B205" s="40"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="40"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
     </row>
     <row r="206" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A206" s="40"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="42"/>
-      <c r="F206" s="42"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
     </row>
     <row r="207" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A207" s="40"/>
-      <c r="B207" s="40"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
     </row>
     <row r="208" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A208" s="40"/>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
     </row>
     <row r="209" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
     </row>
     <row r="210" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A210" s="40"/>
-      <c r="B210" s="40"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
     </row>
     <row r="211" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A211" s="40"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
     </row>
     <row r="212" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A212" s="40"/>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="33"/>
     </row>
     <row r="213" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A213" s="40"/>
-      <c r="B213" s="40"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
+      <c r="A213" s="32"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
     </row>
     <row r="214" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A214" s="40"/>
-      <c r="B214" s="40"/>
-      <c r="C214" s="40"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
+      <c r="A214" s="32"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
     </row>
     <row r="215" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A215" s="40"/>
-      <c r="B215" s="40"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
+      <c r="A215" s="32"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
     </row>
     <row r="216" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A216" s="40"/>
-      <c r="B216" s="40"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="40"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
+      <c r="A216" s="32"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
     </row>
     <row r="217" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A217" s="40"/>
-      <c r="B217" s="40"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43"/>
+      <c r="A217" s="32"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
     </row>
     <row r="218" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A218" s="40"/>
-      <c r="B218" s="40"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="43"/>
+      <c r="A218" s="32"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
     </row>
     <row r="219" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A219" s="40"/>
-      <c r="B219" s="40"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="43"/>
-      <c r="F219" s="43"/>
+      <c r="A219" s="32"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
     </row>
     <row r="220" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A220" s="40"/>
-      <c r="B220" s="40"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="43"/>
+      <c r="A220" s="32"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="34"/>
     </row>
     <row r="221" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A221" s="40"/>
-      <c r="B221" s="40"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="43"/>
+      <c r="A221" s="32"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="34"/>
     </row>
     <row r="222" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A222" s="40"/>
-      <c r="B222" s="40"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="43"/>
+      <c r="A222" s="32"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="34"/>
     </row>
     <row r="223" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A223" s="40"/>
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="43"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
     </row>
     <row r="224" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A224" s="40"/>
-      <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
+      <c r="A224" s="32"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="34"/>
+      <c r="F224" s="34"/>
     </row>
     <row r="225" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A225" s="40"/>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
+      <c r="A225" s="32"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
     </row>
     <row r="226" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
-      <c r="E226" s="43"/>
-      <c r="F226" s="43"/>
+      <c r="A226" s="32"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="34"/>
+      <c r="F226" s="34"/>
     </row>
     <row r="227" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A227" s="40"/>
-      <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="40"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43"/>
+      <c r="A227" s="32"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
     </row>
     <row r="228" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A228" s="40"/>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43"/>
+      <c r="A228" s="32"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="34"/>
+      <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="43"/>
+      <c r="A229" s="32"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
     </row>
     <row r="230" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="40"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="43"/>
+      <c r="A230" s="32"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="34"/>
+      <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="40"/>
-      <c r="E231" s="43"/>
-      <c r="F231" s="43"/>
+      <c r="A231" s="32"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
     </row>
     <row r="232" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="40"/>
-      <c r="E232" s="43"/>
-      <c r="F232" s="43"/>
+      <c r="A232" s="32"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="34"/>
     </row>
     <row r="233" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="40"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="43"/>
+      <c r="A233" s="32"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="40"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="43"/>
+      <c r="A234" s="32"/>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="34"/>
     </row>
     <row r="235" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="43"/>
+      <c r="A235" s="32"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
     </row>
     <row r="236" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
-      <c r="C236" s="40"/>
-      <c r="D236" s="40"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="43"/>
+      <c r="A236" s="32"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="43"/>
-      <c r="F237" s="43"/>
+      <c r="A237" s="32"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="34"/>
     </row>
     <row r="238" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A238" s="40"/>
-      <c r="B238" s="40"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="43"/>
+      <c r="A238" s="32"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="34"/>
     </row>
     <row r="239" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A239" s="40"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
+      <c r="A239" s="32"/>
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="34"/>
     </row>
     <row r="240" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A240" s="40"/>
-      <c r="B240" s="40"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="40"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="43"/>
+      <c r="A240" s="32"/>
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="34"/>
     </row>
     <row r="241" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A241" s="40"/>
-      <c r="B241" s="40"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="43"/>
+      <c r="A241" s="32"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="34"/>
+      <c r="F241" s="34"/>
     </row>
     <row r="242" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A242" s="40"/>
-      <c r="B242" s="40"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="43"/>
+      <c r="A242" s="32"/>
+      <c r="B242" s="32"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A243" s="40"/>
-      <c r="B243" s="40"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="43"/>
-      <c r="F243" s="43"/>
+      <c r="A243" s="32"/>
+      <c r="B243" s="32"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="34"/>
     </row>
     <row r="244" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A244" s="40"/>
-      <c r="B244" s="40"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="40"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="43"/>
+      <c r="A244" s="32"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="34"/>
     </row>
     <row r="245" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A245" s="40"/>
-      <c r="B245" s="40"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="40"/>
-      <c r="E245" s="43"/>
-      <c r="F245" s="43"/>
+      <c r="A245" s="32"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="32"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="34"/>
+      <c r="F245" s="34"/>
     </row>
     <row r="246" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A246" s="40"/>
-      <c r="B246" s="40"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="40"/>
-      <c r="E246" s="43"/>
-      <c r="F246" s="43"/>
+      <c r="A246" s="32"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="32"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="34"/>
     </row>
     <row r="247" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A247" s="40"/>
-      <c r="B247" s="40"/>
-      <c r="C247" s="40"/>
-      <c r="D247" s="40"/>
-      <c r="E247" s="43"/>
-      <c r="F247" s="43"/>
+      <c r="A247" s="32"/>
+      <c r="B247" s="32"/>
+      <c r="C247" s="32"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="34"/>
+      <c r="F247" s="34"/>
     </row>
     <row r="248" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A248" s="40"/>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="43"/>
-      <c r="F248" s="43"/>
+      <c r="A248" s="32"/>
+      <c r="B248" s="32"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="34"/>
+      <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A249" s="40"/>
-      <c r="B249" s="40"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="40"/>
-      <c r="E249" s="43"/>
-      <c r="F249" s="43"/>
+      <c r="A249" s="32"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="34"/>
+      <c r="F249" s="34"/>
     </row>
     <row r="250" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A250" s="40"/>
-      <c r="B250" s="40"/>
-      <c r="C250" s="40"/>
-      <c r="D250" s="40"/>
-      <c r="E250" s="43"/>
-      <c r="F250" s="43"/>
+      <c r="A250" s="32"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A251" s="40"/>
-      <c r="B251" s="40"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="40"/>
-      <c r="E251" s="43"/>
-      <c r="F251" s="43"/>
+      <c r="A251" s="32"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
     </row>
     <row r="252" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A252" s="40"/>
-      <c r="B252" s="40"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="40"/>
-      <c r="E252" s="43"/>
-      <c r="F252" s="43"/>
+      <c r="A252" s="32"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A253" s="40"/>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="43"/>
+      <c r="A253" s="32"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="34"/>
+      <c r="F253" s="34"/>
     </row>
     <row r="254" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A254" s="40"/>
-      <c r="B254" s="40"/>
-      <c r="C254" s="40"/>
-      <c r="D254" s="40"/>
-      <c r="E254" s="43"/>
-      <c r="F254" s="43"/>
+      <c r="A254" s="32"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="34"/>
+      <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A255" s="40"/>
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
+      <c r="A255" s="32"/>
+      <c r="B255" s="32"/>
+      <c r="C255" s="32"/>
+      <c r="D255" s="32"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
     </row>
     <row r="256" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A256" s="40"/>
-      <c r="B256" s="40"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40"/>
-      <c r="E256" s="43"/>
-      <c r="F256" s="43"/>
+      <c r="A256" s="32"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="32"/>
+      <c r="D256" s="32"/>
+      <c r="E256" s="34"/>
+      <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A257" s="40"/>
-      <c r="B257" s="40"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="40"/>
-      <c r="E257" s="43"/>
-      <c r="F257" s="43"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="32"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="34"/>
     </row>
     <row r="258" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A258" s="40"/>
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="40"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
+      <c r="A258" s="32"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
     </row>
     <row r="259" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A259" s="40"/>
-      <c r="B259" s="40"/>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40"/>
-      <c r="E259" s="43"/>
-      <c r="F259" s="43"/>
+      <c r="A259" s="32"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
     </row>
     <row r="260" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A260" s="40"/>
-      <c r="B260" s="40"/>
-      <c r="C260" s="40"/>
-      <c r="D260" s="40"/>
-      <c r="E260" s="43"/>
-      <c r="F260" s="43"/>
+      <c r="A260" s="32"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="34"/>
+      <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A261" s="40"/>
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="40"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
+      <c r="A261" s="32"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="34"/>
+      <c r="F261" s="34"/>
     </row>
     <row r="262" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A262" s="40"/>
-      <c r="B262" s="40"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="40"/>
-      <c r="E262" s="43"/>
-      <c r="F262" s="43"/>
+      <c r="A262" s="32"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="34"/>
+      <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A263" s="40"/>
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="40"/>
-      <c r="E263" s="43"/>
-      <c r="F263" s="43"/>
+      <c r="A263" s="32"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="32"/>
+      <c r="D263" s="32"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="34"/>
     </row>
     <row r="264" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A264" s="40"/>
-      <c r="B264" s="40"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="40"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
+      <c r="A264" s="32"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="32"/>
+      <c r="E264" s="34"/>
+      <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A265" s="40"/>
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
-      <c r="D265" s="40"/>
-      <c r="E265" s="43"/>
-      <c r="F265" s="43"/>
+      <c r="A265" s="32"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="32"/>
+      <c r="D265" s="32"/>
+      <c r="E265" s="34"/>
+      <c r="F265" s="34"/>
     </row>
     <row r="266" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A266" s="40"/>
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="40"/>
-      <c r="E266" s="43"/>
-      <c r="F266" s="43"/>
+      <c r="A266" s="32"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="32"/>
+      <c r="D266" s="32"/>
+      <c r="E266" s="34"/>
+      <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A267" s="40"/>
-      <c r="B267" s="40"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="40"/>
-      <c r="E267" s="43"/>
-      <c r="F267" s="43"/>
+      <c r="A267" s="32"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="32"/>
+      <c r="E267" s="34"/>
+      <c r="F267" s="34"/>
     </row>
     <row r="268" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A268" s="40"/>
-      <c r="B268" s="40"/>
-      <c r="C268" s="40"/>
-      <c r="D268" s="40"/>
-      <c r="E268" s="43"/>
-      <c r="F268" s="43"/>
+      <c r="A268" s="32"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="34"/>
+      <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A269" s="40"/>
-      <c r="B269" s="40"/>
-      <c r="C269" s="40"/>
-      <c r="D269" s="40"/>
-      <c r="E269" s="43"/>
-      <c r="F269" s="43"/>
+      <c r="A269" s="32"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="34"/>
+      <c r="F269" s="34"/>
     </row>
     <row r="270" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A270" s="40"/>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="40"/>
-      <c r="E270" s="43"/>
-      <c r="F270" s="43"/>
+      <c r="A270" s="32"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="32"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A271" s="40"/>
-      <c r="B271" s="40"/>
-      <c r="C271" s="40"/>
-      <c r="D271" s="40"/>
-      <c r="E271" s="43"/>
-      <c r="F271" s="43"/>
+      <c r="A271" s="32"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="34"/>
+      <c r="F271" s="34"/>
     </row>
     <row r="272" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A272" s="40"/>
-      <c r="B272" s="40"/>
-      <c r="C272" s="40"/>
-      <c r="D272" s="40"/>
-      <c r="E272" s="43"/>
-      <c r="F272" s="43"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="32"/>
+      <c r="D272" s="32"/>
+      <c r="E272" s="34"/>
+      <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A273" s="40"/>
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="40"/>
-      <c r="E273" s="43"/>
-      <c r="F273" s="43"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="34"/>
+      <c r="F273" s="34"/>
     </row>
     <row r="274" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A274" s="40"/>
-      <c r="B274" s="40"/>
-      <c r="C274" s="40"/>
-      <c r="D274" s="40"/>
-      <c r="E274" s="43"/>
-      <c r="F274" s="43"/>
+      <c r="A274" s="32"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="32"/>
+      <c r="E274" s="34"/>
+      <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A275" s="40"/>
-      <c r="B275" s="40"/>
-      <c r="C275" s="40"/>
-      <c r="D275" s="40"/>
-      <c r="E275" s="43"/>
-      <c r="F275" s="43"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="32"/>
+      <c r="C275" s="32"/>
+      <c r="D275" s="32"/>
+      <c r="E275" s="34"/>
+      <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A276" s="40"/>
-      <c r="B276" s="40"/>
-      <c r="C276" s="40"/>
-      <c r="D276" s="40"/>
-      <c r="E276" s="43"/>
-      <c r="F276" s="43"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="32"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="34"/>
+      <c r="F276" s="34"/>
     </row>
     <row r="277" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A277" s="40"/>
-      <c r="B277" s="40"/>
-      <c r="C277" s="40"/>
-      <c r="D277" s="40"/>
-      <c r="E277" s="43"/>
-      <c r="F277" s="43"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="32"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="34"/>
+      <c r="F277" s="34"/>
     </row>
     <row r="278" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A278" s="40"/>
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
-      <c r="D278" s="40"/>
-      <c r="E278" s="43"/>
-      <c r="F278" s="43"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="32"/>
+      <c r="C278" s="32"/>
+      <c r="D278" s="32"/>
+      <c r="E278" s="34"/>
+      <c r="F278" s="34"/>
     </row>
     <row r="279" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A279" s="40"/>
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
-      <c r="D279" s="40"/>
-      <c r="E279" s="43"/>
-      <c r="F279" s="43"/>
+      <c r="A279" s="32"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="34"/>
+      <c r="F279" s="34"/>
     </row>
     <row r="280" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A280" s="40"/>
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="40"/>
-      <c r="E280" s="43"/>
-      <c r="F280" s="43"/>
+      <c r="A280" s="32"/>
+      <c r="B280" s="32"/>
+      <c r="C280" s="32"/>
+      <c r="D280" s="32"/>
+      <c r="E280" s="34"/>
+      <c r="F280" s="34"/>
     </row>
     <row r="281" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A281" s="40"/>
-      <c r="B281" s="40"/>
-      <c r="C281" s="40"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="43"/>
-      <c r="F281" s="43"/>
+      <c r="A281" s="32"/>
+      <c r="B281" s="32"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="32"/>
+      <c r="E281" s="34"/>
+      <c r="F281" s="34"/>
     </row>
     <row r="282" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A282" s="40"/>
-      <c r="B282" s="40"/>
-      <c r="C282" s="40"/>
-      <c r="D282" s="40"/>
-      <c r="E282" s="43"/>
-      <c r="F282" s="43"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="32"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="32"/>
+      <c r="E282" s="34"/>
+      <c r="F282" s="34"/>
     </row>
     <row r="283" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A283" s="40"/>
-      <c r="B283" s="40"/>
-      <c r="C283" s="40"/>
-      <c r="D283" s="40"/>
-      <c r="E283" s="43"/>
-      <c r="F283" s="43"/>
+      <c r="A283" s="32"/>
+      <c r="B283" s="32"/>
+      <c r="C283" s="32"/>
+      <c r="D283" s="32"/>
+      <c r="E283" s="34"/>
+      <c r="F283" s="34"/>
     </row>
     <row r="284" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A284" s="40"/>
-      <c r="B284" s="40"/>
-      <c r="C284" s="40"/>
-      <c r="D284" s="40"/>
-      <c r="E284" s="43"/>
-      <c r="F284" s="43"/>
+      <c r="A284" s="32"/>
+      <c r="B284" s="32"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="32"/>
+      <c r="E284" s="34"/>
+      <c r="F284" s="34"/>
     </row>
     <row r="285" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A285" s="40"/>
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
-      <c r="D285" s="40"/>
-      <c r="E285" s="43"/>
-      <c r="F285" s="43"/>
+      <c r="A285" s="32"/>
+      <c r="B285" s="32"/>
+      <c r="C285" s="32"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="34"/>
+      <c r="F285" s="34"/>
     </row>
     <row r="286" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A286" s="40"/>
-      <c r="B286" s="40"/>
-      <c r="C286" s="40"/>
-      <c r="D286" s="40"/>
-      <c r="E286" s="43"/>
-      <c r="F286" s="43"/>
+      <c r="A286" s="32"/>
+      <c r="B286" s="32"/>
+      <c r="C286" s="32"/>
+      <c r="D286" s="32"/>
+      <c r="E286" s="34"/>
+      <c r="F286" s="34"/>
     </row>
     <row r="287" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A287" s="40"/>
-      <c r="B287" s="40"/>
-      <c r="C287" s="40"/>
-      <c r="D287" s="40"/>
-      <c r="E287" s="43"/>
-      <c r="F287" s="43"/>
+      <c r="A287" s="32"/>
+      <c r="B287" s="32"/>
+      <c r="C287" s="32"/>
+      <c r="D287" s="32"/>
+      <c r="E287" s="34"/>
+      <c r="F287" s="34"/>
     </row>
     <row r="288" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A288" s="40"/>
-      <c r="B288" s="40"/>
-      <c r="C288" s="40"/>
-      <c r="D288" s="40"/>
-      <c r="E288" s="43"/>
-      <c r="F288" s="43"/>
+      <c r="A288" s="32"/>
+      <c r="B288" s="32"/>
+      <c r="C288" s="32"/>
+      <c r="D288" s="32"/>
+      <c r="E288" s="34"/>
+      <c r="F288" s="34"/>
     </row>
     <row r="289" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A289" s="40"/>
-      <c r="B289" s="40"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="40"/>
-      <c r="E289" s="43"/>
-      <c r="F289" s="43"/>
+      <c r="A289" s="32"/>
+      <c r="B289" s="32"/>
+      <c r="C289" s="32"/>
+      <c r="D289" s="32"/>
+      <c r="E289" s="34"/>
+      <c r="F289" s="34"/>
     </row>
     <row r="290" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A290" s="40"/>
-      <c r="B290" s="40"/>
-      <c r="C290" s="40"/>
-      <c r="D290" s="40"/>
-      <c r="E290" s="43"/>
-      <c r="F290" s="43"/>
+      <c r="A290" s="32"/>
+      <c r="B290" s="32"/>
+      <c r="C290" s="32"/>
+      <c r="D290" s="32"/>
+      <c r="E290" s="34"/>
+      <c r="F290" s="34"/>
     </row>
     <row r="291" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A291" s="40"/>
-      <c r="B291" s="40"/>
-      <c r="C291" s="40"/>
-      <c r="D291" s="40"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="43"/>
+      <c r="A291" s="32"/>
+      <c r="B291" s="32"/>
+      <c r="C291" s="32"/>
+      <c r="D291" s="32"/>
+      <c r="E291" s="34"/>
+      <c r="F291" s="34"/>
     </row>
     <row r="292" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A292" s="40"/>
-      <c r="B292" s="40"/>
-      <c r="C292" s="40"/>
-      <c r="D292" s="40"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="43"/>
+      <c r="A292" s="32"/>
+      <c r="B292" s="32"/>
+      <c r="C292" s="32"/>
+      <c r="D292" s="32"/>
+      <c r="E292" s="34"/>
+      <c r="F292" s="34"/>
     </row>
     <row r="293" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A293" s="40"/>
-      <c r="B293" s="40"/>
-      <c r="C293" s="40"/>
-      <c r="D293" s="40"/>
-      <c r="E293" s="43"/>
-      <c r="F293" s="43"/>
+      <c r="A293" s="32"/>
+      <c r="B293" s="32"/>
+      <c r="C293" s="32"/>
+      <c r="D293" s="32"/>
+      <c r="E293" s="34"/>
+      <c r="F293" s="34"/>
     </row>
     <row r="294" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A294" s="40"/>
-      <c r="B294" s="40"/>
-      <c r="C294" s="40"/>
-      <c r="D294" s="40"/>
-      <c r="E294" s="43"/>
-      <c r="F294" s="43"/>
+      <c r="A294" s="32"/>
+      <c r="B294" s="32"/>
+      <c r="C294" s="32"/>
+      <c r="D294" s="32"/>
+      <c r="E294" s="34"/>
+      <c r="F294" s="34"/>
     </row>
     <row r="295" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A295" s="40"/>
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
-      <c r="D295" s="40"/>
-      <c r="E295" s="43"/>
-      <c r="F295" s="43"/>
+      <c r="A295" s="32"/>
+      <c r="B295" s="32"/>
+      <c r="C295" s="32"/>
+      <c r="D295" s="32"/>
+      <c r="E295" s="34"/>
+      <c r="F295" s="34"/>
     </row>
     <row r="296" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A296" s="40"/>
-      <c r="B296" s="40"/>
-      <c r="C296" s="40"/>
-      <c r="D296" s="40"/>
-      <c r="E296" s="43"/>
-      <c r="F296" s="43"/>
+      <c r="A296" s="32"/>
+      <c r="B296" s="32"/>
+      <c r="C296" s="32"/>
+      <c r="D296" s="32"/>
+      <c r="E296" s="34"/>
+      <c r="F296" s="34"/>
     </row>
     <row r="297" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A297" s="40"/>
-      <c r="B297" s="40"/>
-      <c r="C297" s="40"/>
-      <c r="D297" s="40"/>
-      <c r="E297" s="43"/>
-      <c r="F297" s="43"/>
+      <c r="A297" s="32"/>
+      <c r="B297" s="32"/>
+      <c r="C297" s="32"/>
+      <c r="D297" s="32"/>
+      <c r="E297" s="34"/>
+      <c r="F297" s="34"/>
     </row>
     <row r="298" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A298" s="40"/>
-      <c r="B298" s="40"/>
-      <c r="C298" s="40"/>
-      <c r="D298" s="40"/>
-      <c r="E298" s="43"/>
-      <c r="F298" s="43"/>
+      <c r="A298" s="32"/>
+      <c r="B298" s="32"/>
+      <c r="C298" s="32"/>
+      <c r="D298" s="32"/>
+      <c r="E298" s="34"/>
+      <c r="F298" s="34"/>
     </row>
     <row r="299" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A299" s="40"/>
-      <c r="B299" s="40"/>
-      <c r="C299" s="40"/>
-      <c r="D299" s="40"/>
-      <c r="E299" s="43"/>
-      <c r="F299" s="43"/>
+      <c r="A299" s="32"/>
+      <c r="B299" s="32"/>
+      <c r="C299" s="32"/>
+      <c r="D299" s="32"/>
+      <c r="E299" s="34"/>
+      <c r="F299" s="34"/>
     </row>
     <row r="300" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A300" s="40"/>
-      <c r="B300" s="40"/>
-      <c r="C300" s="40"/>
-      <c r="D300" s="40"/>
-      <c r="E300" s="43"/>
-      <c r="F300" s="43"/>
+      <c r="A300" s="32"/>
+      <c r="B300" s="32"/>
+      <c r="C300" s="32"/>
+      <c r="D300" s="32"/>
+      <c r="E300" s="34"/>
+      <c r="F300" s="34"/>
     </row>
     <row r="301" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A301" s="40"/>
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
-      <c r="D301" s="40"/>
-      <c r="E301" s="43"/>
-      <c r="F301" s="43"/>
+      <c r="A301" s="32"/>
+      <c r="B301" s="32"/>
+      <c r="C301" s="32"/>
+      <c r="D301" s="32"/>
+      <c r="E301" s="34"/>
+      <c r="F301" s="34"/>
     </row>
     <row r="302" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A302" s="40"/>
-      <c r="B302" s="40"/>
-      <c r="C302" s="40"/>
-      <c r="D302" s="40"/>
-      <c r="E302" s="43"/>
-      <c r="F302" s="43"/>
+      <c r="A302" s="32"/>
+      <c r="B302" s="32"/>
+      <c r="C302" s="32"/>
+      <c r="D302" s="32"/>
+      <c r="E302" s="34"/>
+      <c r="F302" s="34"/>
     </row>
     <row r="303" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A303" s="40"/>
-      <c r="B303" s="40"/>
-      <c r="C303" s="40"/>
-      <c r="D303" s="40"/>
-      <c r="E303" s="43"/>
-      <c r="F303" s="43"/>
+      <c r="A303" s="32"/>
+      <c r="B303" s="32"/>
+      <c r="C303" s="32"/>
+      <c r="D303" s="32"/>
+      <c r="E303" s="34"/>
+      <c r="F303" s="34"/>
     </row>
     <row r="304" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A304" s="40"/>
-      <c r="B304" s="40"/>
-      <c r="C304" s="40"/>
-      <c r="D304" s="40"/>
-      <c r="E304" s="43"/>
-      <c r="F304" s="43"/>
+      <c r="A304" s="32"/>
+      <c r="B304" s="32"/>
+      <c r="C304" s="32"/>
+      <c r="D304" s="32"/>
+      <c r="E304" s="34"/>
+      <c r="F304" s="34"/>
     </row>
     <row r="305" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A305" s="40"/>
-      <c r="B305" s="40"/>
-      <c r="C305" s="40"/>
-      <c r="D305" s="40"/>
-      <c r="E305" s="43"/>
-      <c r="F305" s="43"/>
+      <c r="A305" s="32"/>
+      <c r="B305" s="32"/>
+      <c r="C305" s="32"/>
+      <c r="D305" s="32"/>
+      <c r="E305" s="34"/>
+      <c r="F305" s="34"/>
     </row>
     <row r="306" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A306" s="40"/>
-      <c r="B306" s="40"/>
-      <c r="C306" s="40"/>
-      <c r="D306" s="40"/>
-      <c r="E306" s="43"/>
-      <c r="F306" s="43"/>
+      <c r="A306" s="32"/>
+      <c r="B306" s="32"/>
+      <c r="C306" s="32"/>
+      <c r="D306" s="32"/>
+      <c r="E306" s="34"/>
+      <c r="F306" s="34"/>
     </row>
     <row r="307" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A307" s="40"/>
-      <c r="B307" s="40"/>
-      <c r="C307" s="40"/>
-      <c r="D307" s="40"/>
-      <c r="E307" s="43"/>
-      <c r="F307" s="43"/>
+      <c r="A307" s="32"/>
+      <c r="B307" s="32"/>
+      <c r="C307" s="32"/>
+      <c r="D307" s="32"/>
+      <c r="E307" s="34"/>
+      <c r="F307" s="34"/>
     </row>
     <row r="308" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A308" s="40"/>
-      <c r="B308" s="40"/>
-      <c r="C308" s="40"/>
-      <c r="D308" s="40"/>
-      <c r="E308" s="43"/>
-      <c r="F308" s="43"/>
+      <c r="A308" s="32"/>
+      <c r="B308" s="32"/>
+      <c r="C308" s="32"/>
+      <c r="D308" s="32"/>
+      <c r="E308" s="34"/>
+      <c r="F308" s="34"/>
     </row>
     <row r="309" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A309" s="40"/>
-      <c r="B309" s="40"/>
-      <c r="C309" s="40"/>
-      <c r="D309" s="40"/>
-      <c r="E309" s="43"/>
-      <c r="F309" s="43"/>
+      <c r="A309" s="32"/>
+      <c r="B309" s="32"/>
+      <c r="C309" s="32"/>
+      <c r="D309" s="32"/>
+      <c r="E309" s="34"/>
+      <c r="F309" s="34"/>
     </row>
     <row r="310" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A310" s="40"/>
-      <c r="B310" s="40"/>
-      <c r="C310" s="40"/>
-      <c r="D310" s="40"/>
-      <c r="E310" s="43"/>
-      <c r="F310" s="43"/>
+      <c r="A310" s="32"/>
+      <c r="B310" s="32"/>
+      <c r="C310" s="32"/>
+      <c r="D310" s="32"/>
+      <c r="E310" s="34"/>
+      <c r="F310" s="34"/>
     </row>
     <row r="311" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A311" s="40"/>
-      <c r="B311" s="40"/>
-      <c r="C311" s="40"/>
-      <c r="D311" s="40"/>
-      <c r="E311" s="43"/>
-      <c r="F311" s="43"/>
+      <c r="A311" s="32"/>
+      <c r="B311" s="32"/>
+      <c r="C311" s="32"/>
+      <c r="D311" s="32"/>
+      <c r="E311" s="34"/>
+      <c r="F311" s="34"/>
     </row>
     <row r="312" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A312" s="40"/>
-      <c r="B312" s="40"/>
-      <c r="C312" s="40"/>
-      <c r="D312" s="40"/>
-      <c r="E312" s="43"/>
-      <c r="F312" s="43"/>
+      <c r="A312" s="32"/>
+      <c r="B312" s="32"/>
+      <c r="C312" s="32"/>
+      <c r="D312" s="32"/>
+      <c r="E312" s="34"/>
+      <c r="F312" s="34"/>
     </row>
     <row r="313" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A313" s="40"/>
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
-      <c r="D313" s="40"/>
-      <c r="E313" s="43"/>
-      <c r="F313" s="43"/>
+      <c r="A313" s="32"/>
+      <c r="B313" s="32"/>
+      <c r="C313" s="32"/>
+      <c r="D313" s="32"/>
+      <c r="E313" s="34"/>
+      <c r="F313" s="34"/>
     </row>
     <row r="314" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A314" s="40"/>
-      <c r="B314" s="40"/>
-      <c r="C314" s="40"/>
-      <c r="D314" s="40"/>
-      <c r="E314" s="43"/>
-      <c r="F314" s="43"/>
+      <c r="A314" s="32"/>
+      <c r="B314" s="32"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="32"/>
+      <c r="E314" s="34"/>
+      <c r="F314" s="34"/>
     </row>
     <row r="315" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A315" s="40"/>
-      <c r="B315" s="40"/>
-      <c r="C315" s="40"/>
-      <c r="D315" s="40"/>
-      <c r="E315" s="43"/>
-      <c r="F315" s="43"/>
+      <c r="A315" s="32"/>
+      <c r="B315" s="32"/>
+      <c r="C315" s="32"/>
+      <c r="D315" s="32"/>
+      <c r="E315" s="34"/>
+      <c r="F315" s="34"/>
     </row>
     <row r="316" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A316" s="40"/>
-      <c r="B316" s="40"/>
-      <c r="C316" s="40"/>
-      <c r="D316" s="40"/>
-      <c r="E316" s="43"/>
-      <c r="F316" s="43"/>
+      <c r="A316" s="32"/>
+      <c r="B316" s="32"/>
+      <c r="C316" s="32"/>
+      <c r="D316" s="32"/>
+      <c r="E316" s="34"/>
+      <c r="F316" s="34"/>
     </row>
     <row r="317" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A317" s="40"/>
-      <c r="B317" s="40"/>
-      <c r="C317" s="40"/>
-      <c r="D317" s="40"/>
-      <c r="E317" s="43"/>
-      <c r="F317" s="43"/>
+      <c r="A317" s="32"/>
+      <c r="B317" s="32"/>
+      <c r="C317" s="32"/>
+      <c r="D317" s="32"/>
+      <c r="E317" s="34"/>
+      <c r="F317" s="34"/>
     </row>
     <row r="318" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A318" s="40"/>
-      <c r="B318" s="40"/>
-      <c r="C318" s="40"/>
-      <c r="D318" s="40"/>
-      <c r="E318" s="43"/>
-      <c r="F318" s="43"/>
+      <c r="A318" s="32"/>
+      <c r="B318" s="32"/>
+      <c r="C318" s="32"/>
+      <c r="D318" s="32"/>
+      <c r="E318" s="34"/>
+      <c r="F318" s="34"/>
     </row>
     <row r="319" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A319" s="40"/>
-      <c r="B319" s="40"/>
-      <c r="C319" s="40"/>
-      <c r="D319" s="40"/>
-      <c r="E319" s="43"/>
-      <c r="F319" s="43"/>
+      <c r="A319" s="32"/>
+      <c r="B319" s="32"/>
+      <c r="C319" s="32"/>
+      <c r="D319" s="32"/>
+      <c r="E319" s="34"/>
+      <c r="F319" s="34"/>
     </row>
     <row r="320" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A320" s="40"/>
-      <c r="B320" s="40"/>
-      <c r="C320" s="40"/>
-      <c r="D320" s="40"/>
-      <c r="E320" s="43"/>
-      <c r="F320" s="43"/>
+      <c r="A320" s="32"/>
+      <c r="B320" s="32"/>
+      <c r="C320" s="32"/>
+      <c r="D320" s="32"/>
+      <c r="E320" s="34"/>
+      <c r="F320" s="34"/>
     </row>
     <row r="321" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A321" s="40"/>
-      <c r="B321" s="40"/>
-      <c r="C321" s="40"/>
-      <c r="D321" s="40"/>
-      <c r="E321" s="43"/>
-      <c r="F321" s="43"/>
+      <c r="A321" s="32"/>
+      <c r="B321" s="32"/>
+      <c r="C321" s="32"/>
+      <c r="D321" s="32"/>
+      <c r="E321" s="34"/>
+      <c r="F321" s="34"/>
     </row>
     <row r="322" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A322" s="40"/>
-      <c r="B322" s="40"/>
-      <c r="C322" s="40"/>
-      <c r="D322" s="40"/>
-      <c r="E322" s="43"/>
-      <c r="F322" s="43"/>
+      <c r="A322" s="32"/>
+      <c r="B322" s="32"/>
+      <c r="C322" s="32"/>
+      <c r="D322" s="32"/>
+      <c r="E322" s="34"/>
+      <c r="F322" s="34"/>
     </row>
     <row r="323" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A323" s="40"/>
-      <c r="B323" s="40"/>
-      <c r="C323" s="40"/>
-      <c r="D323" s="40"/>
-      <c r="E323" s="43"/>
-      <c r="F323" s="43"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="32"/>
+      <c r="C323" s="32"/>
+      <c r="D323" s="32"/>
+      <c r="E323" s="34"/>
+      <c r="F323" s="34"/>
     </row>
     <row r="324" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A324" s="40"/>
-      <c r="B324" s="40"/>
-      <c r="C324" s="40"/>
-      <c r="D324" s="40"/>
-      <c r="E324" s="43"/>
-      <c r="F324" s="43"/>
+      <c r="A324" s="32"/>
+      <c r="B324" s="32"/>
+      <c r="C324" s="32"/>
+      <c r="D324" s="32"/>
+      <c r="E324" s="34"/>
+      <c r="F324" s="34"/>
     </row>
     <row r="325" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A325" s="40"/>
-      <c r="B325" s="40"/>
-      <c r="C325" s="40"/>
-      <c r="D325" s="40"/>
-      <c r="E325" s="43"/>
-      <c r="F325" s="43"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="32"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="32"/>
+      <c r="E325" s="34"/>
+      <c r="F325" s="34"/>
     </row>
     <row r="326" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A326" s="40"/>
-      <c r="B326" s="40"/>
-      <c r="C326" s="40"/>
-      <c r="D326" s="40"/>
-      <c r="E326" s="43"/>
-      <c r="F326" s="43"/>
+      <c r="A326" s="32"/>
+      <c r="B326" s="32"/>
+      <c r="C326" s="32"/>
+      <c r="D326" s="32"/>
+      <c r="E326" s="34"/>
+      <c r="F326" s="34"/>
     </row>
     <row r="327" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A327" s="40"/>
-      <c r="B327" s="40"/>
-      <c r="C327" s="40"/>
-      <c r="D327" s="40"/>
-      <c r="E327" s="43"/>
-      <c r="F327" s="43"/>
+      <c r="A327" s="32"/>
+      <c r="B327" s="32"/>
+      <c r="C327" s="32"/>
+      <c r="D327" s="32"/>
+      <c r="E327" s="34"/>
+      <c r="F327" s="34"/>
     </row>
     <row r="328" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A328" s="40"/>
-      <c r="B328" s="40"/>
-      <c r="C328" s="40"/>
-      <c r="D328" s="40"/>
-      <c r="E328" s="43"/>
-      <c r="F328" s="43"/>
+      <c r="A328" s="32"/>
+      <c r="B328" s="32"/>
+      <c r="C328" s="32"/>
+      <c r="D328" s="32"/>
+      <c r="E328" s="34"/>
+      <c r="F328" s="34"/>
     </row>
     <row r="329" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A329" s="40"/>
-      <c r="B329" s="40"/>
-      <c r="C329" s="40"/>
-      <c r="D329" s="40"/>
-      <c r="E329" s="43"/>
-      <c r="F329" s="43"/>
+      <c r="A329" s="32"/>
+      <c r="B329" s="32"/>
+      <c r="C329" s="32"/>
+      <c r="D329" s="32"/>
+      <c r="E329" s="34"/>
+      <c r="F329" s="34"/>
     </row>
     <row r="330" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A330" s="40"/>
-      <c r="B330" s="40"/>
-      <c r="C330" s="40"/>
-      <c r="D330" s="40"/>
-      <c r="E330" s="43"/>
-      <c r="F330" s="43"/>
+      <c r="A330" s="32"/>
+      <c r="B330" s="32"/>
+      <c r="C330" s="32"/>
+      <c r="D330" s="32"/>
+      <c r="E330" s="34"/>
+      <c r="F330" s="34"/>
     </row>
     <row r="331" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A331" s="40"/>
-      <c r="B331" s="40"/>
-      <c r="C331" s="40"/>
-      <c r="D331" s="40"/>
-      <c r="E331" s="43"/>
-      <c r="F331" s="43"/>
+      <c r="A331" s="32"/>
+      <c r="B331" s="32"/>
+      <c r="C331" s="32"/>
+      <c r="D331" s="32"/>
+      <c r="E331" s="34"/>
+      <c r="F331" s="34"/>
     </row>
     <row r="332" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A332" s="40"/>
-      <c r="B332" s="40"/>
-      <c r="C332" s="40"/>
-      <c r="D332" s="40"/>
-      <c r="E332" s="43"/>
-      <c r="F332" s="43"/>
+      <c r="A332" s="32"/>
+      <c r="B332" s="32"/>
+      <c r="C332" s="32"/>
+      <c r="D332" s="32"/>
+      <c r="E332" s="34"/>
+      <c r="F332" s="34"/>
     </row>
     <row r="333" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A333" s="40"/>
-      <c r="B333" s="40"/>
-      <c r="C333" s="40"/>
-      <c r="D333" s="40"/>
-      <c r="E333" s="43"/>
-      <c r="F333" s="43"/>
+      <c r="A333" s="32"/>
+      <c r="B333" s="32"/>
+      <c r="C333" s="32"/>
+      <c r="D333" s="32"/>
+      <c r="E333" s="34"/>
+      <c r="F333" s="34"/>
     </row>
     <row r="334" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A334" s="40"/>
-      <c r="B334" s="40"/>
-      <c r="C334" s="40"/>
-      <c r="D334" s="40"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
+      <c r="A334" s="32"/>
+      <c r="B334" s="32"/>
+      <c r="C334" s="32"/>
+      <c r="D334" s="32"/>
+      <c r="E334" s="34"/>
+      <c r="F334" s="34"/>
     </row>
     <row r="335" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A335" s="40"/>
-      <c r="B335" s="40"/>
-      <c r="C335" s="40"/>
-      <c r="D335" s="40"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
+      <c r="A335" s="32"/>
+      <c r="B335" s="32"/>
+      <c r="C335" s="32"/>
+      <c r="D335" s="32"/>
+      <c r="E335" s="34"/>
+      <c r="F335" s="34"/>
     </row>
     <row r="336" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A336" s="40"/>
-      <c r="B336" s="40"/>
-      <c r="C336" s="40"/>
-      <c r="D336" s="40"/>
-      <c r="E336" s="43"/>
-      <c r="F336" s="43"/>
+      <c r="A336" s="32"/>
+      <c r="B336" s="32"/>
+      <c r="C336" s="32"/>
+      <c r="D336" s="32"/>
+      <c r="E336" s="34"/>
+      <c r="F336" s="34"/>
     </row>
     <row r="337" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A337" s="40"/>
-      <c r="B337" s="40"/>
-      <c r="C337" s="40"/>
-      <c r="D337" s="40"/>
-      <c r="E337" s="43"/>
-      <c r="F337" s="43"/>
+      <c r="A337" s="32"/>
+      <c r="B337" s="32"/>
+      <c r="C337" s="32"/>
+      <c r="D337" s="32"/>
+      <c r="E337" s="34"/>
+      <c r="F337" s="34"/>
     </row>
     <row r="338" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A338" s="40"/>
-      <c r="B338" s="40"/>
-      <c r="C338" s="40"/>
-      <c r="D338" s="40"/>
-      <c r="E338" s="43"/>
-      <c r="F338" s="43"/>
+      <c r="A338" s="32"/>
+      <c r="B338" s="32"/>
+      <c r="C338" s="32"/>
+      <c r="D338" s="32"/>
+      <c r="E338" s="34"/>
+      <c r="F338" s="34"/>
     </row>
     <row r="339" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A339" s="40"/>
-      <c r="B339" s="40"/>
-      <c r="C339" s="40"/>
-      <c r="D339" s="40"/>
-      <c r="E339" s="43"/>
-      <c r="F339" s="43"/>
+      <c r="A339" s="32"/>
+      <c r="B339" s="32"/>
+      <c r="C339" s="32"/>
+      <c r="D339" s="32"/>
+      <c r="E339" s="34"/>
+      <c r="F339" s="34"/>
     </row>
     <row r="340" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A340" s="40"/>
-      <c r="B340" s="40"/>
-      <c r="C340" s="40"/>
-      <c r="D340" s="40"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="43"/>
+      <c r="A340" s="32"/>
+      <c r="B340" s="32"/>
+      <c r="C340" s="32"/>
+      <c r="D340" s="32"/>
+      <c r="E340" s="34"/>
+      <c r="F340" s="34"/>
     </row>
     <row r="341" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A341" s="40"/>
-      <c r="B341" s="40"/>
-      <c r="C341" s="40"/>
-      <c r="D341" s="40"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="43"/>
+      <c r="A341" s="32"/>
+      <c r="B341" s="32"/>
+      <c r="C341" s="32"/>
+      <c r="D341" s="32"/>
+      <c r="E341" s="34"/>
+      <c r="F341" s="34"/>
     </row>
     <row r="342" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A342" s="40"/>
-      <c r="B342" s="40"/>
-      <c r="C342" s="40"/>
-      <c r="D342" s="40"/>
-      <c r="E342" s="43"/>
-      <c r="F342" s="43"/>
+      <c r="A342" s="32"/>
+      <c r="B342" s="32"/>
+      <c r="C342" s="32"/>
+      <c r="D342" s="32"/>
+      <c r="E342" s="34"/>
+      <c r="F342" s="34"/>
     </row>
     <row r="343" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A343" s="40"/>
-      <c r="B343" s="40"/>
-      <c r="C343" s="40"/>
-      <c r="D343" s="40"/>
-      <c r="E343" s="43"/>
-      <c r="F343" s="43"/>
+      <c r="A343" s="32"/>
+      <c r="B343" s="32"/>
+      <c r="C343" s="32"/>
+      <c r="D343" s="32"/>
+      <c r="E343" s="34"/>
+      <c r="F343" s="34"/>
     </row>
     <row r="344" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A344" s="40"/>
-      <c r="B344" s="40"/>
-      <c r="C344" s="40"/>
-      <c r="D344" s="40"/>
-      <c r="E344" s="43"/>
-      <c r="F344" s="43"/>
+      <c r="A344" s="32"/>
+      <c r="B344" s="32"/>
+      <c r="C344" s="32"/>
+      <c r="D344" s="32"/>
+      <c r="E344" s="34"/>
+      <c r="F344" s="34"/>
     </row>
     <row r="345" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A345" s="40"/>
-      <c r="B345" s="40"/>
-      <c r="C345" s="40"/>
-      <c r="D345" s="40"/>
-      <c r="E345" s="43"/>
-      <c r="F345" s="43"/>
+      <c r="A345" s="32"/>
+      <c r="B345" s="32"/>
+      <c r="C345" s="32"/>
+      <c r="D345" s="32"/>
+      <c r="E345" s="34"/>
+      <c r="F345" s="34"/>
     </row>
     <row r="346" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A346" s="40"/>
-      <c r="B346" s="40"/>
-      <c r="C346" s="40"/>
-      <c r="D346" s="40"/>
-      <c r="E346" s="43"/>
-      <c r="F346" s="43"/>
+      <c r="A346" s="32"/>
+      <c r="B346" s="32"/>
+      <c r="C346" s="32"/>
+      <c r="D346" s="32"/>
+      <c r="E346" s="34"/>
+      <c r="F346" s="34"/>
     </row>
     <row r="347" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A347" s="40"/>
-      <c r="B347" s="40"/>
-      <c r="C347" s="40"/>
-      <c r="D347" s="40"/>
-      <c r="E347" s="43"/>
-      <c r="F347" s="43"/>
+      <c r="A347" s="32"/>
+      <c r="B347" s="32"/>
+      <c r="C347" s="32"/>
+      <c r="D347" s="32"/>
+      <c r="E347" s="34"/>
+      <c r="F347" s="34"/>
     </row>
     <row r="348" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A348" s="40"/>
-      <c r="B348" s="40"/>
-      <c r="C348" s="40"/>
-      <c r="D348" s="40"/>
-      <c r="E348" s="40"/>
-      <c r="F348" s="40"/>
+      <c r="A348" s="32"/>
+      <c r="B348" s="32"/>
+      <c r="C348" s="32"/>
+      <c r="D348" s="32"/>
+      <c r="E348" s="32"/>
+      <c r="F348" s="32"/>
     </row>
     <row r="349" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A349" s="40"/>
-      <c r="B349" s="40"/>
-      <c r="C349" s="40"/>
-      <c r="D349" s="40"/>
-      <c r="E349" s="40"/>
-      <c r="F349" s="40"/>
+      <c r="A349" s="32"/>
+      <c r="B349" s="32"/>
+      <c r="C349" s="32"/>
+      <c r="D349" s="32"/>
+      <c r="E349" s="32"/>
+      <c r="F349" s="32"/>
     </row>
     <row r="350" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A350" s="40"/>
-      <c r="B350" s="40"/>
-      <c r="C350" s="40"/>
-      <c r="D350" s="40"/>
-      <c r="E350" s="40"/>
-      <c r="F350" s="40"/>
+      <c r="A350" s="32"/>
+      <c r="B350" s="32"/>
+      <c r="C350" s="32"/>
+      <c r="D350" s="32"/>
+      <c r="E350" s="32"/>
+      <c r="F350" s="32"/>
     </row>
     <row r="351" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A351" s="40"/>
-      <c r="B351" s="40"/>
-      <c r="C351" s="40"/>
-      <c r="D351" s="40"/>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
+      <c r="A351" s="32"/>
+      <c r="B351" s="32"/>
+      <c r="C351" s="32"/>
+      <c r="D351" s="32"/>
+      <c r="E351" s="32"/>
+      <c r="F351" s="32"/>
     </row>
     <row r="352" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A352" s="40"/>
-      <c r="B352" s="40"/>
-      <c r="C352" s="40"/>
-      <c r="D352" s="40"/>
-      <c r="E352" s="40"/>
-      <c r="F352" s="40"/>
+      <c r="A352" s="32"/>
+      <c r="B352" s="32"/>
+      <c r="C352" s="32"/>
+      <c r="D352" s="32"/>
+      <c r="E352" s="32"/>
+      <c r="F352" s="32"/>
     </row>
     <row r="353" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A353" s="40"/>
-      <c r="B353" s="40"/>
-      <c r="C353" s="40"/>
-      <c r="D353" s="40"/>
-      <c r="E353" s="40"/>
-      <c r="F353" s="40"/>
+      <c r="A353" s="32"/>
+      <c r="B353" s="32"/>
+      <c r="C353" s="32"/>
+      <c r="D353" s="32"/>
+      <c r="E353" s="32"/>
+      <c r="F353" s="32"/>
     </row>
     <row r="354" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A354" s="40"/>
-      <c r="B354" s="40"/>
-      <c r="C354" s="40"/>
-      <c r="D354" s="40"/>
-      <c r="E354" s="40"/>
-      <c r="F354" s="40"/>
+      <c r="A354" s="32"/>
+      <c r="B354" s="32"/>
+      <c r="C354" s="32"/>
+      <c r="D354" s="32"/>
+      <c r="E354" s="32"/>
+      <c r="F354" s="32"/>
     </row>
     <row r="355" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A355" s="40"/>
-      <c r="B355" s="40"/>
-      <c r="C355" s="40"/>
-      <c r="D355" s="40"/>
-      <c r="E355" s="40"/>
-      <c r="F355" s="40"/>
+      <c r="A355" s="32"/>
+      <c r="B355" s="32"/>
+      <c r="C355" s="32"/>
+      <c r="D355" s="32"/>
+      <c r="E355" s="32"/>
+      <c r="F355" s="32"/>
     </row>
     <row r="356" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A356" s="40"/>
-      <c r="B356" s="40"/>
-      <c r="C356" s="40"/>
-      <c r="D356" s="40"/>
-      <c r="E356" s="40"/>
-      <c r="F356" s="40"/>
+      <c r="A356" s="32"/>
+      <c r="B356" s="32"/>
+      <c r="C356" s="32"/>
+      <c r="D356" s="32"/>
+      <c r="E356" s="32"/>
+      <c r="F356" s="32"/>
     </row>
     <row r="357" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A357" s="40"/>
-      <c r="B357" s="40"/>
-      <c r="C357" s="40"/>
-      <c r="D357" s="40"/>
-      <c r="E357" s="40"/>
-      <c r="F357" s="40"/>
+      <c r="A357" s="32"/>
+      <c r="B357" s="32"/>
+      <c r="C357" s="32"/>
+      <c r="D357" s="32"/>
+      <c r="E357" s="32"/>
+      <c r="F357" s="32"/>
     </row>
     <row r="358" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A358" s="40"/>
-      <c r="B358" s="40"/>
-      <c r="C358" s="40"/>
-      <c r="D358" s="40"/>
-      <c r="E358" s="40"/>
-      <c r="F358" s="40"/>
+      <c r="A358" s="32"/>
+      <c r="B358" s="32"/>
+      <c r="C358" s="32"/>
+      <c r="D358" s="32"/>
+      <c r="E358" s="32"/>
+      <c r="F358" s="32"/>
     </row>
     <row r="359" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A359" s="40"/>
-      <c r="B359" s="40"/>
-      <c r="C359" s="40"/>
-      <c r="D359" s="40"/>
-      <c r="E359" s="40"/>
-      <c r="F359" s="40"/>
+      <c r="A359" s="32"/>
+      <c r="B359" s="32"/>
+      <c r="C359" s="32"/>
+      <c r="D359" s="32"/>
+      <c r="E359" s="32"/>
+      <c r="F359" s="32"/>
     </row>
     <row r="360" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A360" s="40"/>
-      <c r="B360" s="40"/>
-      <c r="C360" s="40"/>
-      <c r="D360" s="40"/>
-      <c r="E360" s="40"/>
-      <c r="F360" s="40"/>
+      <c r="A360" s="32"/>
+      <c r="B360" s="32"/>
+      <c r="C360" s="32"/>
+      <c r="D360" s="32"/>
+      <c r="E360" s="32"/>
+      <c r="F360" s="32"/>
     </row>
     <row r="361" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A361" s="40"/>
-      <c r="B361" s="40"/>
-      <c r="C361" s="40"/>
-      <c r="D361" s="40"/>
-      <c r="E361" s="40"/>
-      <c r="F361" s="40"/>
+      <c r="A361" s="32"/>
+      <c r="B361" s="32"/>
+      <c r="C361" s="32"/>
+      <c r="D361" s="32"/>
+      <c r="E361" s="32"/>
+      <c r="F361" s="32"/>
     </row>
     <row r="362" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A362" s="40"/>
-      <c r="B362" s="40"/>
-      <c r="C362" s="40"/>
-      <c r="D362" s="40"/>
-      <c r="E362" s="40"/>
-      <c r="F362" s="40"/>
+      <c r="A362" s="32"/>
+      <c r="B362" s="32"/>
+      <c r="C362" s="32"/>
+      <c r="D362" s="32"/>
+      <c r="E362" s="32"/>
+      <c r="F362" s="32"/>
     </row>
     <row r="363" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A363" s="40"/>
-      <c r="B363" s="40"/>
-      <c r="C363" s="40"/>
-      <c r="D363" s="40"/>
-      <c r="E363" s="40"/>
-      <c r="F363" s="40"/>
+      <c r="A363" s="32"/>
+      <c r="B363" s="32"/>
+      <c r="C363" s="32"/>
+      <c r="D363" s="32"/>
+      <c r="E363" s="32"/>
+      <c r="F363" s="32"/>
     </row>
     <row r="364" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A364" s="40"/>
-      <c r="B364" s="40"/>
-      <c r="C364" s="40"/>
-      <c r="D364" s="40"/>
-      <c r="E364" s="40"/>
-      <c r="F364" s="40"/>
+      <c r="A364" s="32"/>
+      <c r="B364" s="32"/>
+      <c r="C364" s="32"/>
+      <c r="D364" s="32"/>
+      <c r="E364" s="32"/>
+      <c r="F364" s="32"/>
     </row>
     <row r="365" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A365" s="40"/>
-      <c r="B365" s="40"/>
-      <c r="C365" s="40"/>
-      <c r="D365" s="40"/>
-      <c r="E365" s="40"/>
-      <c r="F365" s="40"/>
+      <c r="A365" s="32"/>
+      <c r="B365" s="32"/>
+      <c r="C365" s="32"/>
+      <c r="D365" s="32"/>
+      <c r="E365" s="32"/>
+      <c r="F365" s="32"/>
     </row>
     <row r="366" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A366" s="40"/>
-      <c r="B366" s="40"/>
-      <c r="C366" s="40"/>
-      <c r="D366" s="40"/>
-      <c r="E366" s="40"/>
-      <c r="F366" s="40"/>
+      <c r="A366" s="32"/>
+      <c r="B366" s="32"/>
+      <c r="C366" s="32"/>
+      <c r="D366" s="32"/>
+      <c r="E366" s="32"/>
+      <c r="F366" s="32"/>
     </row>
     <row r="367" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A367" s="40"/>
-      <c r="B367" s="40"/>
-      <c r="C367" s="40"/>
-      <c r="D367" s="40"/>
-      <c r="E367" s="40"/>
-      <c r="F367" s="40"/>
+      <c r="A367" s="32"/>
+      <c r="B367" s="32"/>
+      <c r="C367" s="32"/>
+      <c r="D367" s="32"/>
+      <c r="E367" s="32"/>
+      <c r="F367" s="32"/>
     </row>
     <row r="368" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A368" s="40"/>
-      <c r="B368" s="40"/>
-      <c r="C368" s="40"/>
-      <c r="D368" s="40"/>
-      <c r="E368" s="40"/>
-      <c r="F368" s="40"/>
+      <c r="A368" s="32"/>
+      <c r="B368" s="32"/>
+      <c r="C368" s="32"/>
+      <c r="D368" s="32"/>
+      <c r="E368" s="32"/>
+      <c r="F368" s="32"/>
     </row>
     <row r="369" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A369" s="40"/>
-      <c r="B369" s="40"/>
-      <c r="C369" s="40"/>
-      <c r="D369" s="40"/>
-      <c r="E369" s="40"/>
-      <c r="F369" s="40"/>
+      <c r="A369" s="32"/>
+      <c r="B369" s="32"/>
+      <c r="C369" s="32"/>
+      <c r="D369" s="32"/>
+      <c r="E369" s="32"/>
+      <c r="F369" s="32"/>
     </row>
     <row r="370" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A370" s="40"/>
-      <c r="B370" s="40"/>
-      <c r="C370" s="40"/>
-      <c r="D370" s="40"/>
-      <c r="E370" s="40"/>
-      <c r="F370" s="40"/>
+      <c r="A370" s="32"/>
+      <c r="B370" s="32"/>
+      <c r="C370" s="32"/>
+      <c r="D370" s="32"/>
+      <c r="E370" s="32"/>
+      <c r="F370" s="32"/>
     </row>
     <row r="371" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A371" s="40"/>
-      <c r="B371" s="40"/>
-      <c r="C371" s="40"/>
-      <c r="D371" s="40"/>
-      <c r="E371" s="40"/>
-      <c r="F371" s="40"/>
+      <c r="A371" s="32"/>
+      <c r="B371" s="32"/>
+      <c r="C371" s="32"/>
+      <c r="D371" s="32"/>
+      <c r="E371" s="32"/>
+      <c r="F371" s="32"/>
     </row>
     <row r="372" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A372" s="40"/>
-      <c r="B372" s="40"/>
-      <c r="C372" s="40"/>
-      <c r="D372" s="40"/>
-      <c r="E372" s="40"/>
-      <c r="F372" s="40"/>
+      <c r="A372" s="32"/>
+      <c r="B372" s="32"/>
+      <c r="C372" s="32"/>
+      <c r="D372" s="32"/>
+      <c r="E372" s="32"/>
+      <c r="F372" s="32"/>
     </row>
     <row r="373" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A373" s="40"/>
-      <c r="B373" s="40"/>
-      <c r="C373" s="40"/>
-      <c r="D373" s="40"/>
-      <c r="E373" s="40"/>
-      <c r="F373" s="40"/>
+      <c r="A373" s="32"/>
+      <c r="B373" s="32"/>
+      <c r="C373" s="32"/>
+      <c r="D373" s="32"/>
+      <c r="E373" s="32"/>
+      <c r="F373" s="32"/>
     </row>
     <row r="374" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A374" s="40"/>
-      <c r="B374" s="40"/>
-      <c r="C374" s="40"/>
-      <c r="D374" s="40"/>
-      <c r="E374" s="40"/>
-      <c r="F374" s="40"/>
+      <c r="A374" s="32"/>
+      <c r="B374" s="32"/>
+      <c r="C374" s="32"/>
+      <c r="D374" s="32"/>
+      <c r="E374" s="32"/>
+      <c r="F374" s="32"/>
     </row>
     <row r="375" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A375" s="40"/>
-      <c r="B375" s="40"/>
-      <c r="C375" s="40"/>
-      <c r="D375" s="40"/>
-      <c r="E375" s="40"/>
-      <c r="F375" s="40"/>
+      <c r="A375" s="32"/>
+      <c r="B375" s="32"/>
+      <c r="C375" s="32"/>
+      <c r="D375" s="32"/>
+      <c r="E375" s="32"/>
+      <c r="F375" s="32"/>
     </row>
     <row r="376" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A376" s="40"/>
-      <c r="B376" s="40"/>
-      <c r="C376" s="40"/>
-      <c r="D376" s="40"/>
-      <c r="E376" s="40"/>
-      <c r="F376" s="40"/>
+      <c r="A376" s="32"/>
+      <c r="B376" s="32"/>
+      <c r="C376" s="32"/>
+      <c r="D376" s="32"/>
+      <c r="E376" s="32"/>
+      <c r="F376" s="32"/>
     </row>
     <row r="377" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A377" s="40"/>
-      <c r="B377" s="40"/>
-      <c r="C377" s="40"/>
-      <c r="D377" s="40"/>
-      <c r="E377" s="40"/>
-      <c r="F377" s="40"/>
+      <c r="A377" s="32"/>
+      <c r="B377" s="32"/>
+      <c r="C377" s="32"/>
+      <c r="D377" s="32"/>
+      <c r="E377" s="32"/>
+      <c r="F377" s="32"/>
     </row>
     <row r="378" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A378" s="40"/>
-      <c r="B378" s="40"/>
-      <c r="C378" s="40"/>
-      <c r="D378" s="40"/>
-      <c r="E378" s="40"/>
-      <c r="F378" s="40"/>
+      <c r="A378" s="32"/>
+      <c r="B378" s="32"/>
+      <c r="C378" s="32"/>
+      <c r="D378" s="32"/>
+      <c r="E378" s="32"/>
+      <c r="F378" s="32"/>
     </row>
     <row r="379" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A379" s="40"/>
-      <c r="B379" s="40"/>
-      <c r="C379" s="40"/>
-      <c r="D379" s="40"/>
-      <c r="E379" s="40"/>
-      <c r="F379" s="40"/>
+      <c r="A379" s="32"/>
+      <c r="B379" s="32"/>
+      <c r="C379" s="32"/>
+      <c r="D379" s="32"/>
+      <c r="E379" s="32"/>
+      <c r="F379" s="32"/>
     </row>
     <row r="380" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A380" s="40"/>
-      <c r="B380" s="40"/>
-      <c r="C380" s="40"/>
-      <c r="D380" s="40"/>
-      <c r="E380" s="40"/>
-      <c r="F380" s="40"/>
+      <c r="A380" s="32"/>
+      <c r="B380" s="32"/>
+      <c r="C380" s="32"/>
+      <c r="D380" s="32"/>
+      <c r="E380" s="32"/>
+      <c r="F380" s="32"/>
     </row>
     <row r="381" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A381" s="40"/>
-      <c r="B381" s="40"/>
-      <c r="C381" s="40"/>
-      <c r="D381" s="40"/>
-      <c r="E381" s="40"/>
-      <c r="F381" s="40"/>
+      <c r="A381" s="32"/>
+      <c r="B381" s="32"/>
+      <c r="C381" s="32"/>
+      <c r="D381" s="32"/>
+      <c r="E381" s="32"/>
+      <c r="F381" s="32"/>
     </row>
     <row r="382" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A382" s="40"/>
-      <c r="B382" s="40"/>
-      <c r="C382" s="40"/>
-      <c r="D382" s="40"/>
-      <c r="E382" s="40"/>
-      <c r="F382" s="40"/>
+      <c r="A382" s="32"/>
+      <c r="B382" s="32"/>
+      <c r="C382" s="32"/>
+      <c r="D382" s="32"/>
+      <c r="E382" s="32"/>
+      <c r="F382" s="32"/>
     </row>
     <row r="383" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A383" s="40"/>
-      <c r="B383" s="40"/>
-      <c r="C383" s="40"/>
-      <c r="D383" s="40"/>
-      <c r="E383" s="40"/>
-      <c r="F383" s="40"/>
+      <c r="A383" s="32"/>
+      <c r="B383" s="32"/>
+      <c r="C383" s="32"/>
+      <c r="D383" s="32"/>
+      <c r="E383" s="32"/>
+      <c r="F383" s="32"/>
     </row>
     <row r="384" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A384" s="40"/>
-      <c r="B384" s="40"/>
-      <c r="C384" s="40"/>
-      <c r="D384" s="40"/>
-      <c r="E384" s="40"/>
-      <c r="F384" s="40"/>
+      <c r="A384" s="32"/>
+      <c r="B384" s="32"/>
+      <c r="C384" s="32"/>
+      <c r="D384" s="32"/>
+      <c r="E384" s="32"/>
+      <c r="F384" s="32"/>
     </row>
     <row r="385" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A385" s="40"/>
-      <c r="B385" s="40"/>
-      <c r="C385" s="40"/>
-      <c r="D385" s="40"/>
-      <c r="E385" s="40"/>
-      <c r="F385" s="40"/>
+      <c r="A385" s="32"/>
+      <c r="B385" s="32"/>
+      <c r="C385" s="32"/>
+      <c r="D385" s="32"/>
+      <c r="E385" s="32"/>
+      <c r="F385" s="32"/>
     </row>
     <row r="386" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A386" s="40"/>
-      <c r="B386" s="40"/>
-      <c r="C386" s="40"/>
-      <c r="D386" s="40"/>
-      <c r="E386" s="40"/>
-      <c r="F386" s="40"/>
+      <c r="A386" s="32"/>
+      <c r="B386" s="32"/>
+      <c r="C386" s="32"/>
+      <c r="D386" s="32"/>
+      <c r="E386" s="32"/>
+      <c r="F386" s="32"/>
     </row>
     <row r="387" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A387" s="40"/>
-      <c r="B387" s="40"/>
-      <c r="C387" s="40"/>
-      <c r="D387" s="40"/>
-      <c r="E387" s="40"/>
-      <c r="F387" s="40"/>
+      <c r="A387" s="32"/>
+      <c r="B387" s="32"/>
+      <c r="C387" s="32"/>
+      <c r="D387" s="32"/>
+      <c r="E387" s="32"/>
+      <c r="F387" s="32"/>
     </row>
     <row r="388" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A388" s="40"/>
-      <c r="B388" s="40"/>
-      <c r="C388" s="40"/>
-      <c r="D388" s="40"/>
-      <c r="E388" s="40"/>
-      <c r="F388" s="40"/>
+      <c r="A388" s="32"/>
+      <c r="B388" s="32"/>
+      <c r="C388" s="32"/>
+      <c r="D388" s="32"/>
+      <c r="E388" s="32"/>
+      <c r="F388" s="32"/>
     </row>
     <row r="389" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A389" s="40"/>
-      <c r="B389" s="40"/>
-      <c r="C389" s="40"/>
-      <c r="D389" s="40"/>
-      <c r="E389" s="40"/>
-      <c r="F389" s="40"/>
+      <c r="A389" s="32"/>
+      <c r="B389" s="32"/>
+      <c r="C389" s="32"/>
+      <c r="D389" s="32"/>
+      <c r="E389" s="32"/>
+      <c r="F389" s="32"/>
     </row>
     <row r="390" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A390" s="40"/>
-      <c r="B390" s="40"/>
-      <c r="C390" s="40"/>
-      <c r="D390" s="40"/>
-      <c r="E390" s="40"/>
-      <c r="F390" s="40"/>
+      <c r="A390" s="32"/>
+      <c r="B390" s="32"/>
+      <c r="C390" s="32"/>
+      <c r="D390" s="32"/>
+      <c r="E390" s="32"/>
+      <c r="F390" s="32"/>
     </row>
     <row r="391" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A391" s="40"/>
-      <c r="B391" s="40"/>
-      <c r="C391" s="40"/>
-      <c r="D391" s="40"/>
-      <c r="E391" s="40"/>
-      <c r="F391" s="40"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="32"/>
+      <c r="C391" s="32"/>
+      <c r="D391" s="32"/>
+      <c r="E391" s="32"/>
+      <c r="F391" s="32"/>
     </row>
     <row r="392" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A392" s="40"/>
-      <c r="B392" s="40"/>
-      <c r="C392" s="40"/>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="40"/>
+      <c r="A392" s="32"/>
+      <c r="B392" s="32"/>
+      <c r="C392" s="32"/>
+      <c r="D392" s="32"/>
+      <c r="E392" s="32"/>
+      <c r="F392" s="32"/>
     </row>
     <row r="393" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A393" s="40"/>
-      <c r="B393" s="40"/>
-      <c r="C393" s="40"/>
-      <c r="D393" s="40"/>
-      <c r="E393" s="40"/>
-      <c r="F393" s="40"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="32"/>
+      <c r="C393" s="32"/>
+      <c r="D393" s="32"/>
+      <c r="E393" s="32"/>
+      <c r="F393" s="32"/>
     </row>
     <row r="394" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A394" s="40"/>
-      <c r="B394" s="40"/>
-      <c r="C394" s="40"/>
-      <c r="D394" s="40"/>
-      <c r="E394" s="40"/>
-      <c r="F394" s="40"/>
+      <c r="A394" s="32"/>
+      <c r="B394" s="32"/>
+      <c r="C394" s="32"/>
+      <c r="D394" s="32"/>
+      <c r="E394" s="32"/>
+      <c r="F394" s="32"/>
     </row>
     <row r="395" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A395" s="40"/>
-      <c r="B395" s="40"/>
-      <c r="C395" s="40"/>
-      <c r="D395" s="40"/>
-      <c r="E395" s="40"/>
-      <c r="F395" s="40"/>
+      <c r="A395" s="32"/>
+      <c r="B395" s="32"/>
+      <c r="C395" s="32"/>
+      <c r="D395" s="32"/>
+      <c r="E395" s="32"/>
+      <c r="F395" s="32"/>
     </row>
     <row r="396" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A396" s="40"/>
-      <c r="B396" s="40"/>
-      <c r="C396" s="40"/>
-      <c r="D396" s="40"/>
-      <c r="E396" s="40"/>
-      <c r="F396" s="40"/>
+      <c r="A396" s="32"/>
+      <c r="B396" s="32"/>
+      <c r="C396" s="32"/>
+      <c r="D396" s="32"/>
+      <c r="E396" s="32"/>
+      <c r="F396" s="32"/>
     </row>
     <row r="397" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A397" s="40"/>
-      <c r="B397" s="40"/>
-      <c r="C397" s="40"/>
-      <c r="D397" s="40"/>
-      <c r="E397" s="40"/>
-      <c r="F397" s="40"/>
+      <c r="A397" s="32"/>
+      <c r="B397" s="32"/>
+      <c r="C397" s="32"/>
+      <c r="D397" s="32"/>
+      <c r="E397" s="32"/>
+      <c r="F397" s="32"/>
     </row>
     <row r="398" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A398" s="40"/>
-      <c r="B398" s="40"/>
-      <c r="C398" s="40"/>
-      <c r="D398" s="40"/>
-      <c r="E398" s="40"/>
-      <c r="F398" s="40"/>
+      <c r="A398" s="32"/>
+      <c r="B398" s="32"/>
+      <c r="C398" s="32"/>
+      <c r="D398" s="32"/>
+      <c r="E398" s="32"/>
+      <c r="F398" s="32"/>
     </row>
     <row r="399" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A399" s="40"/>
-      <c r="B399" s="40"/>
-      <c r="C399" s="40"/>
-      <c r="D399" s="40"/>
-      <c r="E399" s="40"/>
-      <c r="F399" s="40"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="32"/>
+      <c r="C399" s="32"/>
+      <c r="D399" s="32"/>
+      <c r="E399" s="32"/>
+      <c r="F399" s="32"/>
     </row>
     <row r="400" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A400" s="40"/>
-      <c r="B400" s="40"/>
-      <c r="C400" s="40"/>
-      <c r="D400" s="40"/>
-      <c r="E400" s="40"/>
-      <c r="F400" s="40"/>
+      <c r="A400" s="32"/>
+      <c r="B400" s="32"/>
+      <c r="C400" s="32"/>
+      <c r="D400" s="32"/>
+      <c r="E400" s="32"/>
+      <c r="F400" s="32"/>
     </row>
     <row r="401" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A401" s="40"/>
-      <c r="B401" s="40"/>
-      <c r="C401" s="40"/>
-      <c r="D401" s="40"/>
-      <c r="E401" s="40"/>
-      <c r="F401" s="40"/>
+      <c r="A401" s="32"/>
+      <c r="B401" s="32"/>
+      <c r="C401" s="32"/>
+      <c r="D401" s="32"/>
+      <c r="E401" s="32"/>
+      <c r="F401" s="32"/>
     </row>
     <row r="402" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A402" s="40"/>
-      <c r="B402" s="40"/>
-      <c r="C402" s="40"/>
-      <c r="D402" s="40"/>
-      <c r="E402" s="40"/>
-      <c r="F402" s="40"/>
+      <c r="A402" s="32"/>
+      <c r="B402" s="32"/>
+      <c r="C402" s="32"/>
+      <c r="D402" s="32"/>
+      <c r="E402" s="32"/>
+      <c r="F402" s="32"/>
     </row>
     <row r="403" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A403" s="40"/>
-      <c r="B403" s="40"/>
-      <c r="C403" s="40"/>
-      <c r="D403" s="40"/>
-      <c r="E403" s="40"/>
-      <c r="F403" s="40"/>
+      <c r="A403" s="32"/>
+      <c r="B403" s="32"/>
+      <c r="C403" s="32"/>
+      <c r="D403" s="32"/>
+      <c r="E403" s="32"/>
+      <c r="F403" s="32"/>
     </row>
     <row r="404" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A404" s="40"/>
-      <c r="B404" s="40"/>
-      <c r="C404" s="40"/>
-      <c r="D404" s="40"/>
-      <c r="E404" s="40"/>
-      <c r="F404" s="40"/>
+      <c r="A404" s="32"/>
+      <c r="B404" s="32"/>
+      <c r="C404" s="32"/>
+      <c r="D404" s="32"/>
+      <c r="E404" s="32"/>
+      <c r="F404" s="32"/>
     </row>
     <row r="405" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A405" s="40"/>
-      <c r="B405" s="40"/>
-      <c r="C405" s="40"/>
-      <c r="D405" s="40"/>
-      <c r="E405" s="40"/>
-      <c r="F405" s="40"/>
+      <c r="A405" s="32"/>
+      <c r="B405" s="32"/>
+      <c r="C405" s="32"/>
+      <c r="D405" s="32"/>
+      <c r="E405" s="32"/>
+      <c r="F405" s="32"/>
     </row>
     <row r="406" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A406" s="40"/>
-      <c r="B406" s="40"/>
-      <c r="C406" s="40"/>
-      <c r="D406" s="40"/>
-      <c r="E406" s="40"/>
-      <c r="F406" s="40"/>
+      <c r="A406" s="32"/>
+      <c r="B406" s="32"/>
+      <c r="C406" s="32"/>
+      <c r="D406" s="32"/>
+      <c r="E406" s="32"/>
+      <c r="F406" s="32"/>
     </row>
     <row r="407" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A407" s="40"/>
-      <c r="B407" s="40"/>
-      <c r="C407" s="40"/>
-      <c r="D407" s="40"/>
-      <c r="E407" s="40"/>
-      <c r="F407" s="40"/>
+      <c r="A407" s="32"/>
+      <c r="B407" s="32"/>
+      <c r="C407" s="32"/>
+      <c r="D407" s="32"/>
+      <c r="E407" s="32"/>
+      <c r="F407" s="32"/>
     </row>
     <row r="408" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A408" s="40"/>
-      <c r="B408" s="40"/>
-      <c r="C408" s="40"/>
-      <c r="D408" s="40"/>
-      <c r="E408" s="40"/>
-      <c r="F408" s="40"/>
+      <c r="A408" s="32"/>
+      <c r="B408" s="32"/>
+      <c r="C408" s="32"/>
+      <c r="D408" s="32"/>
+      <c r="E408" s="32"/>
+      <c r="F408" s="32"/>
     </row>
     <row r="409" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A409" s="40"/>
-      <c r="B409" s="40"/>
-      <c r="C409" s="40"/>
-      <c r="D409" s="40"/>
-      <c r="E409" s="40"/>
-      <c r="F409" s="40"/>
+      <c r="A409" s="32"/>
+      <c r="B409" s="32"/>
+      <c r="C409" s="32"/>
+      <c r="D409" s="32"/>
+      <c r="E409" s="32"/>
+      <c r="F409" s="32"/>
     </row>
     <row r="410" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A410" s="40"/>
-      <c r="B410" s="40"/>
-      <c r="C410" s="40"/>
-      <c r="D410" s="40"/>
-      <c r="E410" s="40"/>
-      <c r="F410" s="40"/>
+      <c r="A410" s="32"/>
+      <c r="B410" s="32"/>
+      <c r="C410" s="32"/>
+      <c r="D410" s="32"/>
+      <c r="E410" s="32"/>
+      <c r="F410" s="32"/>
     </row>
     <row r="411" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A411" s="40"/>
-      <c r="B411" s="40"/>
-      <c r="C411" s="40"/>
-      <c r="D411" s="40"/>
-      <c r="E411" s="40"/>
-      <c r="F411" s="40"/>
+      <c r="A411" s="32"/>
+      <c r="B411" s="32"/>
+      <c r="C411" s="32"/>
+      <c r="D411" s="32"/>
+      <c r="E411" s="32"/>
+      <c r="F411" s="32"/>
     </row>
     <row r="412" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A412" s="40"/>
-      <c r="B412" s="40"/>
-      <c r="C412" s="40"/>
-      <c r="D412" s="40"/>
-      <c r="E412" s="40"/>
-      <c r="F412" s="40"/>
+      <c r="A412" s="32"/>
+      <c r="B412" s="32"/>
+      <c r="C412" s="32"/>
+      <c r="D412" s="32"/>
+      <c r="E412" s="32"/>
+      <c r="F412" s="32"/>
     </row>
     <row r="413" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A413" s="40"/>
-      <c r="B413" s="40"/>
-      <c r="C413" s="40"/>
-      <c r="D413" s="40"/>
-      <c r="E413" s="40"/>
-      <c r="F413" s="40"/>
+      <c r="A413" s="32"/>
+      <c r="B413" s="32"/>
+      <c r="C413" s="32"/>
+      <c r="D413" s="32"/>
+      <c r="E413" s="32"/>
+      <c r="F413" s="32"/>
     </row>
     <row r="414" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A414" s="40"/>
-      <c r="B414" s="40"/>
-      <c r="C414" s="40"/>
-      <c r="D414" s="40"/>
-      <c r="E414" s="40"/>
-      <c r="F414" s="40"/>
+      <c r="A414" s="32"/>
+      <c r="B414" s="32"/>
+      <c r="C414" s="32"/>
+      <c r="D414" s="32"/>
+      <c r="E414" s="32"/>
+      <c r="F414" s="32"/>
     </row>
     <row r="415" spans="1:16136" s="6" customFormat="1"/>
     <row r="416" spans="1:16136" s="6" customFormat="1"/>
@@ -21232,9 +21706,9 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="B38:C38"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Purchase Order'!$A$1:$F$46</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -35,25 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>JRF s Catering  and Events</t>
+    <t>Wattsavers Energy Services Company</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-03-060</t>
+    <t>2020-002</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t>1045 P. Burgos st. Baranagay Poblacion Uno Cabuayo Laguna</t>
+    <t>B15 L4 Baht St. Lores Country Homes Antipolo City</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>March 25, 2020</t>
+    <t>January 08, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -79,7 +79,7 @@
     </r>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t xml:space="preserve"> Gentlemen:</t>
@@ -186,146 +186,50 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S819</t>
+    <t>S162</t>
   </si>
   <si>
-    <t>bottle</t>
+    <t>lot</t>
   </si>
   <si>
-    <t>Concrete Primer Paint
-.</t>
+    <t>Maintenance of Airconditioner
+27 Aircondition units (26 split type and 1 window type) on a quarterly basis for 1 year (January to December 2020)</t>
   </si>
   <si>
-    <t>S820</t>
+    <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
   </si>
   <si>
-    <t>gallon</t>
+    <t>every day of delay shall be imposedon the undelivered item/s.</t>
   </si>
   <si>
-    <t>Semi gloo paint (Cyan Blue)
-.</t>
+    <t>Coforme:</t>
   </si>
   <si>
-    <t>S821</t>
+    <t>Very Truly Yours:</t>
   </si>
   <si>
-    <t xml:space="preserve">Concrete Neutralizer
-</t>
+    <t xml:space="preserve">       ______________________________________</t>
   </si>
   <si>
-    <t>S822</t>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t xml:space="preserve">QDE
-</t>
+    <t>Signature over Printed Name of Supplier</t>
   </si>
   <si>
-    <t>S824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint varnish 350 ml
-</t>
-  </si>
-  <si>
-    <t>S825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing putty
-</t>
-  </si>
-  <si>
-    <t>S826</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red oxide
-</t>
-  </si>
-  <si>
-    <t>S827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinting color
-</t>
-  </si>
-  <si>
-    <t>S828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putty knife
-</t>
-  </si>
-  <si>
-    <t>S829</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty paint can
-</t>
-  </si>
-  <si>
-    <t>S830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sponge
-</t>
-  </si>
-  <si>
-    <t>S831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used rags
-</t>
-  </si>
-  <si>
-    <t>S832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used magazines
-</t>
-  </si>
-  <si>
-    <t>S833</t>
+    <t>Signature over Printed Name of Authorized Official</t>
   </si>
   <si>
     <t xml:space="preserve">               __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">Assorted Paint Brush
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Assistant Regional Director</t>
-  </si>
-  <si>
-    <t>S834</t>
   </si>
   <si>
     <t xml:space="preserve">                               Date</t>
   </si>
   <si>
     <t>Designation</t>
-  </si>
-  <si>
-    <t>S835</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assorted sand paper
-</t>
-  </si>
-  <si>
-    <t>S823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint Thinner 350 ml
-</t>
   </si>
   <si>
     <t>Fund Cluster : _____________________________________________</t>
@@ -340,9 +244,6 @@
     <t>Date of the ORS/BURS: ___________________</t>
   </si>
   <si>
-    <t>Coforme:</t>
-  </si>
-  <si>
     <t>RESTITUTO B. NAÑEZ, III</t>
   </si>
   <si>
@@ -352,19 +253,7 @@
     <t>Signature over Printed Name of Chief Accountant/Head of</t>
   </si>
   <si>
-    <t xml:space="preserve">       ______________________________________</t>
-  </si>
-  <si>
     <t>Accounting Division/Unit</t>
-  </si>
-  <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
-    <t>Signature over Printed Name of Supplier</t>
-  </si>
-  <si>
-    <t>Signature over Printed Name of Authorized Official</t>
   </si>
 </sst>
 </file>
@@ -451,6 +340,15 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
@@ -526,7 +424,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -545,15 +443,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -839,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="110">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -894,6 +783,18 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -933,11 +834,26 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -954,10 +870,10 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -969,31 +885,31 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1035,25 +951,25 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="26" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="166" fillId="2" borderId="26" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1062,340 +978,46 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="19" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="19" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1413,22 +1035,28 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1738,12 +1366,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true" style="20"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true" style="24"/>
     <col min="2" max="2" width="13.85546875" customWidth="true" style="6"/>
     <col min="3" max="3" width="35" customWidth="true" style="6"/>
     <col min="4" max="4" width="8.85546875" customWidth="true" style="6"/>
     <col min="5" max="5" width="11.7109375" customWidth="true" style="6"/>
-    <col min="6" max="6" width="25.7109375" customWidth="true" style="21"/>
+    <col min="6" max="6" width="25.7109375" customWidth="true" style="25"/>
     <col min="7" max="7" width="2.7109375" customWidth="true" style="7"/>
     <col min="8" max="8" width="9.140625" customWidth="true" style="7"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -17877,167 +17505,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16136" customHeight="1" ht="22.5">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="38" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="39"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:16136" customHeight="1" ht="15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:16136" customHeight="1" ht="17.45">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:16136" customHeight="1" ht="15.75">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:16136" customHeight="1" ht="15.6">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:16136" customHeight="1" ht="13.5">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16136" customHeight="1" ht="28.15" s="13" customFormat="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:16136" customHeight="1" ht="38.45" s="13" customFormat="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="81"/>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="13" customFormat="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="82" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:16136" customHeight="1" ht="15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="30"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:16136" customHeight="1" ht="13.9">
-      <c r="A12" s="27"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:16136" customHeight="1" ht="15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="55" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
-      <c r="S13" s="7">
+      <c r="S13" s="7" t="str">
         <f>'Purchase Order'!B880</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16136" customHeight="1" ht="21">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:16136" customHeight="1" ht="31.15" s="11" customFormat="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -18052,3427 +17680,3255 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16136" customHeight="1" ht="30">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="83">
         <v>4</v>
       </c>
-      <c r="E16" s="78">
-        <v>1</v>
+      <c r="E16" s="86">
+        <v>44325</v>
       </c>
-      <c r="F16" s="79">
-        <v>4</v>
+      <c r="F16" s="86">
+        <v>177300</v>
       </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86">
+        <v>177300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A18" s="35"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="102"/>
+    </row>
+    <row r="19" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="102"/>
+    </row>
+    <row r="20" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A20" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="102"/>
+    </row>
+    <row r="21" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A21" s="35"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="102"/>
+    </row>
+    <row r="22" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A22" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="83">
-        <v>6</v>
-      </c>
-      <c r="E17" s="84">
-        <v>1</v>
-      </c>
-      <c r="F17" s="85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16136" customHeight="1" ht="30">
-      <c r="A18" s="86" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="88" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="102"/>
+    </row>
+    <row r="23" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A23" s="35"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="102"/>
+    </row>
+    <row r="24" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A24" s="35"/>
+      <c r="B24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="89">
-        <v>1</v>
-      </c>
-      <c r="E18" s="90">
-        <v>1</v>
-      </c>
-      <c r="F18" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16136" customHeight="1" ht="30">
-      <c r="A19" s="92" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="94" t="s">
+      <c r="F24" s="103"/>
+    </row>
+    <row r="25" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A25" s="35"/>
+      <c r="B25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="95">
-        <v>1</v>
-      </c>
-      <c r="E19" s="96">
-        <v>1</v>
-      </c>
-      <c r="F19" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16136" customHeight="1" ht="30">
-      <c r="A20" s="98" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="100" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="102"/>
+    </row>
+    <row r="26" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="102"/>
+    </row>
+    <row r="27" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A27" s="36"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="102"/>
+    </row>
+    <row r="28" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="104"/>
+    </row>
+    <row r="29" spans="1:16136" customHeight="1" ht="13.9">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="101">
-        <v>1</v>
-      </c>
-      <c r="E20" s="102">
-        <v>1</v>
-      </c>
-      <c r="F20" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16136" customHeight="1" ht="30">
-      <c r="A21" s="104" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="106" t="s">
+      <c r="F29" s="105"/>
+    </row>
+    <row r="30" spans="1:16136" customHeight="1" ht="14.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="107">
-        <v>1</v>
-      </c>
-      <c r="E21" s="108">
-        <v>1</v>
-      </c>
-      <c r="F21" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16136" customHeight="1" ht="30">
-      <c r="A22" s="110" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="104"/>
+    </row>
+    <row r="31" spans="1:16136" customHeight="1" ht="15">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:16136" customHeight="1" ht="15">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="106"/>
+    </row>
+    <row r="33" spans="1:16136" customHeight="1" ht="15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="107"/>
+    </row>
+    <row r="34" spans="1:16136" customHeight="1" ht="15">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="106"/>
+    </row>
+    <row r="35" spans="1:16136" customHeight="1" ht="15">
+      <c r="A35" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="113">
-        <v>1</v>
-      </c>
-      <c r="E22" s="114">
-        <v>1</v>
-      </c>
-      <c r="F22" s="115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16136" customHeight="1" ht="30">
-      <c r="A23" s="116" t="s">
+      <c r="E35" s="42"/>
+      <c r="F35" s="106"/>
+    </row>
+    <row r="36" spans="1:16136" customHeight="1" ht="15">
+      <c r="A36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="118" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="119">
-        <v>1</v>
-      </c>
-      <c r="E23" s="120">
-        <v>1</v>
-      </c>
-      <c r="F23" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16136" customHeight="1" ht="30">
-      <c r="A24" s="122" t="s">
+      <c r="E36" s="42"/>
+      <c r="F36" s="106"/>
+    </row>
+    <row r="37" spans="1:16136" customHeight="1" ht="15">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="106"/>
+    </row>
+    <row r="38" spans="1:16136" customHeight="1" ht="15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="124" t="s">
+      <c r="C38" s="100"/>
+      <c r="D38" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="125">
-        <v>2</v>
-      </c>
-      <c r="E24" s="126">
-        <v>1</v>
-      </c>
-      <c r="F24" s="127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16136" customHeight="1" ht="30">
-      <c r="A25" s="128" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="106"/>
+    </row>
+    <row r="39" spans="1:16136" customHeight="1" ht="15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="106"/>
+    </row>
+    <row r="40" spans="1:16136" customHeight="1" ht="15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="131">
-        <v>5</v>
-      </c>
-      <c r="E25" s="132">
-        <v>1</v>
-      </c>
-      <c r="F25" s="133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16136" customHeight="1" ht="30">
-      <c r="A26" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="137">
-        <v>5</v>
-      </c>
-      <c r="E26" s="138">
-        <v>1</v>
-      </c>
-      <c r="F26" s="139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16136" customHeight="1" ht="30">
-      <c r="A27" s="140" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="143">
-        <v>1</v>
-      </c>
-      <c r="E27" s="144">
-        <v>1</v>
-      </c>
-      <c r="F27" s="145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16136" customHeight="1" ht="30">
-      <c r="A28" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="149">
-        <v>1</v>
-      </c>
-      <c r="E28" s="150">
-        <v>1</v>
-      </c>
-      <c r="F28" s="151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16136" customHeight="1" ht="30">
-      <c r="A29" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="153" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="154" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="177">
-        <v>1</v>
-      </c>
-      <c r="E29" s="179" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16136" customHeight="1" ht="30">
-      <c r="A30" s="155" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="180" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="159"/>
-    </row>
-    <row r="31" spans="1:16136" customHeight="1" ht="30">
-      <c r="A31" s="160" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="163">
-        <v>1</v>
-      </c>
-      <c r="E31" s="164">
-        <v>1</v>
-      </c>
-      <c r="F31" s="165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16136" customHeight="1" ht="30">
-      <c r="A32" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="168" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="169">
-        <v>2</v>
-      </c>
-      <c r="E32" s="170">
-        <v>1</v>
-      </c>
-      <c r="F32" s="171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16136" customHeight="1" ht="30">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="191">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16136" customHeight="1" ht="15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="192"/>
-    </row>
-    <row r="35" spans="1:16136" customHeight="1" ht="15">
-      <c r="A35" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="192"/>
-    </row>
-    <row r="36" spans="1:16136" customHeight="1" ht="15">
-      <c r="A36" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="192"/>
-    </row>
-    <row r="37" spans="1:16136" customHeight="1" ht="15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="192"/>
-    </row>
-    <row r="38" spans="1:16136" customHeight="1" ht="15">
-      <c r="A38" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="196" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="195"/>
-      <c r="D38" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="192"/>
-    </row>
-    <row r="39" spans="1:16136" customHeight="1" ht="15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="186"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="192"/>
-    </row>
-    <row r="40" spans="1:16136" customHeight="1" ht="15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="186" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="175"/>
-      <c r="E40" s="176" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="193"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="106"/>
     </row>
     <row r="41" spans="1:16136" customHeight="1" ht="15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="186"/>
-      <c r="D41" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="192"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="106"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="15">
-      <c r="A42" s="187"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="194"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="108"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
     </row>
     <row r="62" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
     </row>
     <row r="63" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
     </row>
     <row r="65" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
     </row>
     <row r="66" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
     </row>
     <row r="68" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
     </row>
     <row r="70" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
     </row>
     <row r="71" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
     </row>
     <row r="73" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
     </row>
     <row r="74" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
     </row>
     <row r="77" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
     </row>
     <row r="79" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
     </row>
     <row r="80" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
     </row>
     <row r="81" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
     </row>
     <row r="82" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
     </row>
     <row r="83" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
     </row>
     <row r="86" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
     </row>
     <row r="87" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
     </row>
     <row r="97" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
     </row>
     <row r="98" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
     </row>
     <row r="99" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
     </row>
     <row r="100" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
     </row>
     <row r="101" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
     </row>
     <row r="103" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
     </row>
     <row r="104" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
     </row>
     <row r="105" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
     </row>
     <row r="106" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
     </row>
     <row r="107" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
     </row>
     <row r="108" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
     </row>
     <row r="109" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
     </row>
     <row r="110" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
     </row>
     <row r="111" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
     </row>
     <row r="112" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
     </row>
     <row r="113" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
     </row>
     <row r="114" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
     </row>
     <row r="115" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A115" s="32"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
     </row>
     <row r="116" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
     </row>
     <row r="118" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
     </row>
     <row r="119" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
     </row>
     <row r="120" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
     </row>
     <row r="122" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
     </row>
     <row r="124" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
     </row>
     <row r="125" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
     </row>
     <row r="126" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
     </row>
     <row r="129" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
     </row>
     <row r="130" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
     </row>
     <row r="131" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
     </row>
     <row r="132" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
     </row>
     <row r="133" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
     </row>
     <row r="134" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
     </row>
     <row r="135" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
     </row>
     <row r="136" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
     </row>
     <row r="137" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
     </row>
     <row r="138" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
     </row>
     <row r="139" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
     </row>
     <row r="140" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="42"/>
     </row>
     <row r="143" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
     </row>
     <row r="145" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
     </row>
     <row r="146" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
     </row>
     <row r="147" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
     </row>
     <row r="151" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
     </row>
     <row r="152" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
     </row>
     <row r="153" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
     </row>
     <row r="154" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
     </row>
     <row r="156" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A156" s="32"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A157" s="32"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A158" s="32"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A159" s="32"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
+      <c r="A162" s="40"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
+      <c r="A165" s="40"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A170" s="32"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
+      <c r="A170" s="40"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A171" s="32"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A172" s="32"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
+      <c r="A172" s="40"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
     </row>
     <row r="173" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
     </row>
     <row r="174" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
+      <c r="A174" s="40"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
     </row>
     <row r="175" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
     </row>
     <row r="176" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
     </row>
     <row r="177" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
+      <c r="A177" s="40"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="42"/>
+      <c r="F177" s="42"/>
     </row>
     <row r="178" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
     </row>
     <row r="179" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
+      <c r="A179" s="40"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="42"/>
+      <c r="F179" s="42"/>
     </row>
     <row r="180" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
     </row>
     <row r="181" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
+      <c r="A181" s="40"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="42"/>
     </row>
     <row r="182" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
     </row>
     <row r="183" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A183" s="32"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
+      <c r="A183" s="40"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
     </row>
     <row r="184" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
+      <c r="A184" s="40"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
     </row>
     <row r="185" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A185" s="32"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
     </row>
     <row r="186" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A186" s="32"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
     </row>
     <row r="187" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A187" s="32"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
     </row>
     <row r="188" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A188" s="32"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
     </row>
     <row r="189" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A189" s="32"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
+      <c r="A189" s="40"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="42"/>
+      <c r="F189" s="42"/>
     </row>
     <row r="190" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A190" s="32"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="42"/>
     </row>
     <row r="191" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A191" s="32"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
     </row>
     <row r="192" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A192" s="32"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
+      <c r="A192" s="40"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
     </row>
     <row r="193" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A193" s="32"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
+      <c r="A193" s="40"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="42"/>
+      <c r="F193" s="42"/>
     </row>
     <row r="194" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
     </row>
     <row r="195" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A195" s="32"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
+      <c r="A195" s="40"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
     </row>
     <row r="196" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
+      <c r="A196" s="40"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
     </row>
     <row r="197" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
     </row>
     <row r="198" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A198" s="32"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
+      <c r="A198" s="40"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
     </row>
     <row r="199" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
+      <c r="A199" s="40"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
     </row>
     <row r="200" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
+      <c r="A200" s="40"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
     </row>
     <row r="201" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
+      <c r="A201" s="40"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
     </row>
     <row r="202" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
+      <c r="A202" s="40"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
     </row>
     <row r="203" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
+      <c r="A203" s="40"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
     </row>
     <row r="204" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A204" s="32"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
+      <c r="A204" s="40"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
     </row>
     <row r="205" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A205" s="32"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
+      <c r="A205" s="40"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
     </row>
     <row r="206" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A206" s="32"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
+      <c r="A206" s="40"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
     </row>
     <row r="207" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A207" s="32"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
+      <c r="A207" s="40"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
     </row>
     <row r="208" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A208" s="32"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
+      <c r="A208" s="40"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
     </row>
     <row r="209" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
     </row>
     <row r="210" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A210" s="32"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="32"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
+      <c r="A210" s="40"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
     </row>
     <row r="211" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A211" s="32"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
+      <c r="A211" s="40"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
     </row>
     <row r="212" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
     </row>
     <row r="213" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A213" s="32"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
+      <c r="A213" s="40"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
     </row>
     <row r="214" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="40"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
     </row>
     <row r="215" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A215" s="32"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
+      <c r="A215" s="40"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
     </row>
     <row r="216" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A216" s="32"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
+      <c r="A216" s="40"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
     </row>
     <row r="217" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A217" s="32"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
     </row>
     <row r="218" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A218" s="32"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="34"/>
+      <c r="A218" s="40"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
     </row>
     <row r="219" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
     </row>
     <row r="220" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
+      <c r="A220" s="40"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
     </row>
     <row r="221" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A221" s="32"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="34"/>
+      <c r="A221" s="40"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="43"/>
     </row>
     <row r="222" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A222" s="32"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="32"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="34"/>
+      <c r="A222" s="40"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="43"/>
+      <c r="F222" s="43"/>
     </row>
     <row r="223" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="34"/>
+      <c r="A223" s="40"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
     </row>
     <row r="224" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A224" s="32"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="34"/>
-      <c r="F224" s="34"/>
+      <c r="A224" s="40"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43"/>
     </row>
     <row r="225" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A225" s="32"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="34"/>
+      <c r="A225" s="40"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
     </row>
     <row r="226" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A226" s="32"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="34"/>
-      <c r="F226" s="34"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
     </row>
     <row r="227" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A227" s="32"/>
-      <c r="B227" s="32"/>
-      <c r="C227" s="32"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
+      <c r="A227" s="40"/>
+      <c r="B227" s="40"/>
+      <c r="C227" s="40"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
     </row>
     <row r="228" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A228" s="32"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="32"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
+      <c r="A228" s="40"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
     </row>
     <row r="229" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A229" s="32"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="32"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
+      <c r="A229" s="40"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
     </row>
     <row r="230" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A230" s="32"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="32"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="34"/>
-      <c r="F230" s="34"/>
+      <c r="A230" s="40"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="40"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
     </row>
     <row r="231" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A231" s="32"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="32"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="34"/>
-      <c r="F231" s="34"/>
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="40"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
     </row>
     <row r="232" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A232" s="32"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="32"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="34"/>
-      <c r="F232" s="34"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="43"/>
     </row>
     <row r="233" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A233" s="32"/>
-      <c r="B233" s="32"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="34"/>
-      <c r="F233" s="34"/>
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="40"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="43"/>
     </row>
     <row r="234" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A234" s="32"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="32"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="34"/>
-      <c r="F234" s="34"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="43"/>
     </row>
     <row r="235" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A235" s="32"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="32"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
+      <c r="A235" s="40"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
     </row>
     <row r="236" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A236" s="32"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="34"/>
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
     </row>
     <row r="237" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A237" s="32"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
     </row>
     <row r="238" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A238" s="32"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="34"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="40"/>
+      <c r="C238" s="40"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
     </row>
     <row r="239" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A239" s="32"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
+      <c r="A239" s="40"/>
+      <c r="B239" s="40"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
     </row>
     <row r="240" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A240" s="32"/>
-      <c r="B240" s="32"/>
-      <c r="C240" s="32"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
+      <c r="A240" s="40"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
     </row>
     <row r="241" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A241" s="32"/>
-      <c r="B241" s="32"/>
-      <c r="C241" s="32"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
+      <c r="A241" s="40"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
     </row>
     <row r="242" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A242" s="32"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="32"/>
-      <c r="D242" s="32"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="34"/>
+      <c r="A242" s="40"/>
+      <c r="B242" s="40"/>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
     </row>
     <row r="243" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A243" s="32"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="32"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
+      <c r="A243" s="40"/>
+      <c r="B243" s="40"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
     </row>
     <row r="244" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A244" s="32"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="34"/>
-      <c r="F244" s="34"/>
+      <c r="A244" s="40"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="43"/>
+      <c r="F244" s="43"/>
     </row>
     <row r="245" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A245" s="32"/>
-      <c r="B245" s="32"/>
-      <c r="C245" s="32"/>
-      <c r="D245" s="32"/>
-      <c r="E245" s="34"/>
-      <c r="F245" s="34"/>
+      <c r="A245" s="40"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
     </row>
     <row r="246" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A246" s="32"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="32"/>
-      <c r="D246" s="32"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="34"/>
+      <c r="A246" s="40"/>
+      <c r="B246" s="40"/>
+      <c r="C246" s="40"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
     </row>
     <row r="247" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A247" s="32"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="34"/>
-      <c r="F247" s="34"/>
+      <c r="A247" s="40"/>
+      <c r="B247" s="40"/>
+      <c r="C247" s="40"/>
+      <c r="D247" s="40"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="43"/>
     </row>
     <row r="248" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A248" s="32"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="34"/>
-      <c r="F248" s="34"/>
+      <c r="A248" s="40"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="40"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="43"/>
     </row>
     <row r="249" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A249" s="32"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="34"/>
-      <c r="F249" s="34"/>
+      <c r="A249" s="40"/>
+      <c r="B249" s="40"/>
+      <c r="C249" s="40"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="43"/>
     </row>
     <row r="250" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A250" s="32"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="34"/>
-      <c r="F250" s="34"/>
+      <c r="A250" s="40"/>
+      <c r="B250" s="40"/>
+      <c r="C250" s="40"/>
+      <c r="D250" s="40"/>
+      <c r="E250" s="43"/>
+      <c r="F250" s="43"/>
     </row>
     <row r="251" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A251" s="32"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="34"/>
+      <c r="A251" s="40"/>
+      <c r="B251" s="40"/>
+      <c r="C251" s="40"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
     </row>
     <row r="252" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A252" s="32"/>
-      <c r="B252" s="32"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="34"/>
-      <c r="F252" s="34"/>
+      <c r="A252" s="40"/>
+      <c r="B252" s="40"/>
+      <c r="C252" s="40"/>
+      <c r="D252" s="40"/>
+      <c r="E252" s="43"/>
+      <c r="F252" s="43"/>
     </row>
     <row r="253" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A253" s="32"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="34"/>
+      <c r="A253" s="40"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
     </row>
     <row r="254" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A254" s="32"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
+      <c r="A254" s="40"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="40"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
     </row>
     <row r="255" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A255" s="32"/>
-      <c r="B255" s="32"/>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
+      <c r="A255" s="40"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
     </row>
     <row r="256" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A256" s="32"/>
-      <c r="B256" s="32"/>
-      <c r="C256" s="32"/>
-      <c r="D256" s="32"/>
-      <c r="E256" s="34"/>
-      <c r="F256" s="34"/>
+      <c r="A256" s="40"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
     </row>
     <row r="257" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A257" s="32"/>
-      <c r="B257" s="32"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="32"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="34"/>
+      <c r="A257" s="40"/>
+      <c r="B257" s="40"/>
+      <c r="C257" s="40"/>
+      <c r="D257" s="40"/>
+      <c r="E257" s="43"/>
+      <c r="F257" s="43"/>
     </row>
     <row r="258" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A258" s="32"/>
-      <c r="B258" s="32"/>
-      <c r="C258" s="32"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="34"/>
-      <c r="F258" s="34"/>
+      <c r="A258" s="40"/>
+      <c r="B258" s="40"/>
+      <c r="C258" s="40"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
     </row>
     <row r="259" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A259" s="32"/>
-      <c r="B259" s="32"/>
-      <c r="C259" s="32"/>
-      <c r="D259" s="32"/>
-      <c r="E259" s="34"/>
-      <c r="F259" s="34"/>
+      <c r="A259" s="40"/>
+      <c r="B259" s="40"/>
+      <c r="C259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
     </row>
     <row r="260" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A260" s="32"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="34"/>
-      <c r="F260" s="34"/>
+      <c r="A260" s="40"/>
+      <c r="B260" s="40"/>
+      <c r="C260" s="40"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
     </row>
     <row r="261" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A261" s="32"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="32"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="34"/>
-      <c r="F261" s="34"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="40"/>
+      <c r="C261" s="40"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
     </row>
     <row r="262" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A262" s="32"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
-      <c r="D262" s="32"/>
-      <c r="E262" s="34"/>
-      <c r="F262" s="34"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="40"/>
+      <c r="C262" s="40"/>
+      <c r="D262" s="40"/>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
     </row>
     <row r="263" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A263" s="32"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="34"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="40"/>
+      <c r="C263" s="40"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
     </row>
     <row r="264" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A264" s="32"/>
-      <c r="B264" s="32"/>
-      <c r="C264" s="32"/>
-      <c r="D264" s="32"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="34"/>
+      <c r="A264" s="40"/>
+      <c r="B264" s="40"/>
+      <c r="C264" s="40"/>
+      <c r="D264" s="40"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
     </row>
     <row r="265" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A265" s="32"/>
-      <c r="B265" s="32"/>
-      <c r="C265" s="32"/>
-      <c r="D265" s="32"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="34"/>
+      <c r="A265" s="40"/>
+      <c r="B265" s="40"/>
+      <c r="C265" s="40"/>
+      <c r="D265" s="40"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
     </row>
     <row r="266" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A266" s="32"/>
-      <c r="B266" s="32"/>
-      <c r="C266" s="32"/>
-      <c r="D266" s="32"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="34"/>
+      <c r="A266" s="40"/>
+      <c r="B266" s="40"/>
+      <c r="C266" s="40"/>
+      <c r="D266" s="40"/>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
     </row>
     <row r="267" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A267" s="32"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="34"/>
-      <c r="F267" s="34"/>
+      <c r="A267" s="40"/>
+      <c r="B267" s="40"/>
+      <c r="C267" s="40"/>
+      <c r="D267" s="40"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
     </row>
     <row r="268" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A268" s="32"/>
-      <c r="B268" s="32"/>
-      <c r="C268" s="32"/>
-      <c r="D268" s="32"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="34"/>
+      <c r="A268" s="40"/>
+      <c r="B268" s="40"/>
+      <c r="C268" s="40"/>
+      <c r="D268" s="40"/>
+      <c r="E268" s="43"/>
+      <c r="F268" s="43"/>
     </row>
     <row r="269" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A269" s="32"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="32"/>
-      <c r="D269" s="32"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="34"/>
+      <c r="A269" s="40"/>
+      <c r="B269" s="40"/>
+      <c r="C269" s="40"/>
+      <c r="D269" s="40"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
     </row>
     <row r="270" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A270" s="32"/>
-      <c r="B270" s="32"/>
-      <c r="C270" s="32"/>
-      <c r="D270" s="32"/>
-      <c r="E270" s="34"/>
-      <c r="F270" s="34"/>
+      <c r="A270" s="40"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="40"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="43"/>
+      <c r="F270" s="43"/>
     </row>
     <row r="271" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A271" s="32"/>
-      <c r="B271" s="32"/>
-      <c r="C271" s="32"/>
-      <c r="D271" s="32"/>
-      <c r="E271" s="34"/>
-      <c r="F271" s="34"/>
+      <c r="A271" s="40"/>
+      <c r="B271" s="40"/>
+      <c r="C271" s="40"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="43"/>
     </row>
     <row r="272" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A272" s="32"/>
-      <c r="B272" s="32"/>
-      <c r="C272" s="32"/>
-      <c r="D272" s="32"/>
-      <c r="E272" s="34"/>
-      <c r="F272" s="34"/>
+      <c r="A272" s="40"/>
+      <c r="B272" s="40"/>
+      <c r="C272" s="40"/>
+      <c r="D272" s="40"/>
+      <c r="E272" s="43"/>
+      <c r="F272" s="43"/>
     </row>
     <row r="273" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A273" s="32"/>
-      <c r="B273" s="32"/>
-      <c r="C273" s="32"/>
-      <c r="D273" s="32"/>
-      <c r="E273" s="34"/>
-      <c r="F273" s="34"/>
+      <c r="A273" s="40"/>
+      <c r="B273" s="40"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="43"/>
+      <c r="F273" s="43"/>
     </row>
     <row r="274" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A274" s="32"/>
-      <c r="B274" s="32"/>
-      <c r="C274" s="32"/>
-      <c r="D274" s="32"/>
-      <c r="E274" s="34"/>
-      <c r="F274" s="34"/>
+      <c r="A274" s="40"/>
+      <c r="B274" s="40"/>
+      <c r="C274" s="40"/>
+      <c r="D274" s="40"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
     </row>
     <row r="275" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A275" s="32"/>
-      <c r="B275" s="32"/>
-      <c r="C275" s="32"/>
-      <c r="D275" s="32"/>
-      <c r="E275" s="34"/>
-      <c r="F275" s="34"/>
+      <c r="A275" s="40"/>
+      <c r="B275" s="40"/>
+      <c r="C275" s="40"/>
+      <c r="D275" s="40"/>
+      <c r="E275" s="43"/>
+      <c r="F275" s="43"/>
     </row>
     <row r="276" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A276" s="32"/>
-      <c r="B276" s="32"/>
-      <c r="C276" s="32"/>
-      <c r="D276" s="32"/>
-      <c r="E276" s="34"/>
-      <c r="F276" s="34"/>
+      <c r="A276" s="40"/>
+      <c r="B276" s="40"/>
+      <c r="C276" s="40"/>
+      <c r="D276" s="40"/>
+      <c r="E276" s="43"/>
+      <c r="F276" s="43"/>
     </row>
     <row r="277" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A277" s="32"/>
-      <c r="B277" s="32"/>
-      <c r="C277" s="32"/>
-      <c r="D277" s="32"/>
-      <c r="E277" s="34"/>
-      <c r="F277" s="34"/>
+      <c r="A277" s="40"/>
+      <c r="B277" s="40"/>
+      <c r="C277" s="40"/>
+      <c r="D277" s="40"/>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
     </row>
     <row r="278" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A278" s="32"/>
-      <c r="B278" s="32"/>
-      <c r="C278" s="32"/>
-      <c r="D278" s="32"/>
-      <c r="E278" s="34"/>
-      <c r="F278" s="34"/>
+      <c r="A278" s="40"/>
+      <c r="B278" s="40"/>
+      <c r="C278" s="40"/>
+      <c r="D278" s="40"/>
+      <c r="E278" s="43"/>
+      <c r="F278" s="43"/>
     </row>
     <row r="279" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A279" s="32"/>
-      <c r="B279" s="32"/>
-      <c r="C279" s="32"/>
-      <c r="D279" s="32"/>
-      <c r="E279" s="34"/>
-      <c r="F279" s="34"/>
+      <c r="A279" s="40"/>
+      <c r="B279" s="40"/>
+      <c r="C279" s="40"/>
+      <c r="D279" s="40"/>
+      <c r="E279" s="43"/>
+      <c r="F279" s="43"/>
     </row>
     <row r="280" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A280" s="32"/>
-      <c r="B280" s="32"/>
-      <c r="C280" s="32"/>
-      <c r="D280" s="32"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="34"/>
+      <c r="A280" s="40"/>
+      <c r="B280" s="40"/>
+      <c r="C280" s="40"/>
+      <c r="D280" s="40"/>
+      <c r="E280" s="43"/>
+      <c r="F280" s="43"/>
     </row>
     <row r="281" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A281" s="32"/>
-      <c r="B281" s="32"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="32"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="34"/>
+      <c r="A281" s="40"/>
+      <c r="B281" s="40"/>
+      <c r="C281" s="40"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="43"/>
     </row>
     <row r="282" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A282" s="32"/>
-      <c r="B282" s="32"/>
-      <c r="C282" s="32"/>
-      <c r="D282" s="32"/>
-      <c r="E282" s="34"/>
-      <c r="F282" s="34"/>
+      <c r="A282" s="40"/>
+      <c r="B282" s="40"/>
+      <c r="C282" s="40"/>
+      <c r="D282" s="40"/>
+      <c r="E282" s="43"/>
+      <c r="F282" s="43"/>
     </row>
     <row r="283" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A283" s="32"/>
-      <c r="B283" s="32"/>
-      <c r="C283" s="32"/>
-      <c r="D283" s="32"/>
-      <c r="E283" s="34"/>
-      <c r="F283" s="34"/>
+      <c r="A283" s="40"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="40"/>
+      <c r="D283" s="40"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
     </row>
     <row r="284" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A284" s="32"/>
-      <c r="B284" s="32"/>
-      <c r="C284" s="32"/>
-      <c r="D284" s="32"/>
-      <c r="E284" s="34"/>
-      <c r="F284" s="34"/>
+      <c r="A284" s="40"/>
+      <c r="B284" s="40"/>
+      <c r="C284" s="40"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
     </row>
     <row r="285" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A285" s="32"/>
-      <c r="B285" s="32"/>
-      <c r="C285" s="32"/>
-      <c r="D285" s="32"/>
-      <c r="E285" s="34"/>
-      <c r="F285" s="34"/>
+      <c r="A285" s="40"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="40"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="43"/>
+      <c r="F285" s="43"/>
     </row>
     <row r="286" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A286" s="32"/>
-      <c r="B286" s="32"/>
-      <c r="C286" s="32"/>
-      <c r="D286" s="32"/>
-      <c r="E286" s="34"/>
-      <c r="F286" s="34"/>
+      <c r="A286" s="40"/>
+      <c r="B286" s="40"/>
+      <c r="C286" s="40"/>
+      <c r="D286" s="40"/>
+      <c r="E286" s="43"/>
+      <c r="F286" s="43"/>
     </row>
     <row r="287" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A287" s="32"/>
-      <c r="B287" s="32"/>
-      <c r="C287" s="32"/>
-      <c r="D287" s="32"/>
-      <c r="E287" s="34"/>
-      <c r="F287" s="34"/>
+      <c r="A287" s="40"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="40"/>
+      <c r="D287" s="40"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="43"/>
     </row>
     <row r="288" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A288" s="32"/>
-      <c r="B288" s="32"/>
-      <c r="C288" s="32"/>
-      <c r="D288" s="32"/>
-      <c r="E288" s="34"/>
-      <c r="F288" s="34"/>
+      <c r="A288" s="40"/>
+      <c r="B288" s="40"/>
+      <c r="C288" s="40"/>
+      <c r="D288" s="40"/>
+      <c r="E288" s="43"/>
+      <c r="F288" s="43"/>
     </row>
     <row r="289" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A289" s="32"/>
-      <c r="B289" s="32"/>
-      <c r="C289" s="32"/>
-      <c r="D289" s="32"/>
-      <c r="E289" s="34"/>
-      <c r="F289" s="34"/>
+      <c r="A289" s="40"/>
+      <c r="B289" s="40"/>
+      <c r="C289" s="40"/>
+      <c r="D289" s="40"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="43"/>
     </row>
     <row r="290" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A290" s="32"/>
-      <c r="B290" s="32"/>
-      <c r="C290" s="32"/>
-      <c r="D290" s="32"/>
-      <c r="E290" s="34"/>
-      <c r="F290" s="34"/>
+      <c r="A290" s="40"/>
+      <c r="B290" s="40"/>
+      <c r="C290" s="40"/>
+      <c r="D290" s="40"/>
+      <c r="E290" s="43"/>
+      <c r="F290" s="43"/>
     </row>
     <row r="291" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A291" s="32"/>
-      <c r="B291" s="32"/>
-      <c r="C291" s="32"/>
-      <c r="D291" s="32"/>
-      <c r="E291" s="34"/>
-      <c r="F291" s="34"/>
+      <c r="A291" s="40"/>
+      <c r="B291" s="40"/>
+      <c r="C291" s="40"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="43"/>
     </row>
     <row r="292" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A292" s="32"/>
-      <c r="B292" s="32"/>
-      <c r="C292" s="32"/>
-      <c r="D292" s="32"/>
-      <c r="E292" s="34"/>
-      <c r="F292" s="34"/>
+      <c r="A292" s="40"/>
+      <c r="B292" s="40"/>
+      <c r="C292" s="40"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="43"/>
+      <c r="F292" s="43"/>
     </row>
     <row r="293" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A293" s="32"/>
-      <c r="B293" s="32"/>
-      <c r="C293" s="32"/>
-      <c r="D293" s="32"/>
-      <c r="E293" s="34"/>
-      <c r="F293" s="34"/>
+      <c r="A293" s="40"/>
+      <c r="B293" s="40"/>
+      <c r="C293" s="40"/>
+      <c r="D293" s="40"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="43"/>
     </row>
     <row r="294" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A294" s="32"/>
-      <c r="B294" s="32"/>
-      <c r="C294" s="32"/>
-      <c r="D294" s="32"/>
-      <c r="E294" s="34"/>
-      <c r="F294" s="34"/>
+      <c r="A294" s="40"/>
+      <c r="B294" s="40"/>
+      <c r="C294" s="40"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="43"/>
     </row>
     <row r="295" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A295" s="32"/>
-      <c r="B295" s="32"/>
-      <c r="C295" s="32"/>
-      <c r="D295" s="32"/>
-      <c r="E295" s="34"/>
-      <c r="F295" s="34"/>
+      <c r="A295" s="40"/>
+      <c r="B295" s="40"/>
+      <c r="C295" s="40"/>
+      <c r="D295" s="40"/>
+      <c r="E295" s="43"/>
+      <c r="F295" s="43"/>
     </row>
     <row r="296" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A296" s="32"/>
-      <c r="B296" s="32"/>
-      <c r="C296" s="32"/>
-      <c r="D296" s="32"/>
-      <c r="E296" s="34"/>
-      <c r="F296" s="34"/>
+      <c r="A296" s="40"/>
+      <c r="B296" s="40"/>
+      <c r="C296" s="40"/>
+      <c r="D296" s="40"/>
+      <c r="E296" s="43"/>
+      <c r="F296" s="43"/>
     </row>
     <row r="297" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A297" s="32"/>
-      <c r="B297" s="32"/>
-      <c r="C297" s="32"/>
-      <c r="D297" s="32"/>
-      <c r="E297" s="34"/>
-      <c r="F297" s="34"/>
+      <c r="A297" s="40"/>
+      <c r="B297" s="40"/>
+      <c r="C297" s="40"/>
+      <c r="D297" s="40"/>
+      <c r="E297" s="43"/>
+      <c r="F297" s="43"/>
     </row>
     <row r="298" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A298" s="32"/>
-      <c r="B298" s="32"/>
-      <c r="C298" s="32"/>
-      <c r="D298" s="32"/>
-      <c r="E298" s="34"/>
-      <c r="F298" s="34"/>
+      <c r="A298" s="40"/>
+      <c r="B298" s="40"/>
+      <c r="C298" s="40"/>
+      <c r="D298" s="40"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="43"/>
     </row>
     <row r="299" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A299" s="32"/>
-      <c r="B299" s="32"/>
-      <c r="C299" s="32"/>
-      <c r="D299" s="32"/>
-      <c r="E299" s="34"/>
-      <c r="F299" s="34"/>
+      <c r="A299" s="40"/>
+      <c r="B299" s="40"/>
+      <c r="C299" s="40"/>
+      <c r="D299" s="40"/>
+      <c r="E299" s="43"/>
+      <c r="F299" s="43"/>
     </row>
     <row r="300" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A300" s="32"/>
-      <c r="B300" s="32"/>
-      <c r="C300" s="32"/>
-      <c r="D300" s="32"/>
-      <c r="E300" s="34"/>
-      <c r="F300" s="34"/>
+      <c r="A300" s="40"/>
+      <c r="B300" s="40"/>
+      <c r="C300" s="40"/>
+      <c r="D300" s="40"/>
+      <c r="E300" s="43"/>
+      <c r="F300" s="43"/>
     </row>
     <row r="301" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A301" s="32"/>
-      <c r="B301" s="32"/>
-      <c r="C301" s="32"/>
-      <c r="D301" s="32"/>
-      <c r="E301" s="34"/>
-      <c r="F301" s="34"/>
+      <c r="A301" s="40"/>
+      <c r="B301" s="40"/>
+      <c r="C301" s="40"/>
+      <c r="D301" s="40"/>
+      <c r="E301" s="43"/>
+      <c r="F301" s="43"/>
     </row>
     <row r="302" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A302" s="32"/>
-      <c r="B302" s="32"/>
-      <c r="C302" s="32"/>
-      <c r="D302" s="32"/>
-      <c r="E302" s="34"/>
-      <c r="F302" s="34"/>
+      <c r="A302" s="40"/>
+      <c r="B302" s="40"/>
+      <c r="C302" s="40"/>
+      <c r="D302" s="40"/>
+      <c r="E302" s="43"/>
+      <c r="F302" s="43"/>
     </row>
     <row r="303" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A303" s="32"/>
-      <c r="B303" s="32"/>
-      <c r="C303" s="32"/>
-      <c r="D303" s="32"/>
-      <c r="E303" s="34"/>
-      <c r="F303" s="34"/>
+      <c r="A303" s="40"/>
+      <c r="B303" s="40"/>
+      <c r="C303" s="40"/>
+      <c r="D303" s="40"/>
+      <c r="E303" s="43"/>
+      <c r="F303" s="43"/>
     </row>
     <row r="304" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A304" s="32"/>
-      <c r="B304" s="32"/>
-      <c r="C304" s="32"/>
-      <c r="D304" s="32"/>
-      <c r="E304" s="34"/>
-      <c r="F304" s="34"/>
+      <c r="A304" s="40"/>
+      <c r="B304" s="40"/>
+      <c r="C304" s="40"/>
+      <c r="D304" s="40"/>
+      <c r="E304" s="43"/>
+      <c r="F304" s="43"/>
     </row>
     <row r="305" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A305" s="32"/>
-      <c r="B305" s="32"/>
-      <c r="C305" s="32"/>
-      <c r="D305" s="32"/>
-      <c r="E305" s="34"/>
-      <c r="F305" s="34"/>
+      <c r="A305" s="40"/>
+      <c r="B305" s="40"/>
+      <c r="C305" s="40"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="43"/>
+      <c r="F305" s="43"/>
     </row>
     <row r="306" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A306" s="32"/>
-      <c r="B306" s="32"/>
-      <c r="C306" s="32"/>
-      <c r="D306" s="32"/>
-      <c r="E306" s="34"/>
-      <c r="F306" s="34"/>
+      <c r="A306" s="40"/>
+      <c r="B306" s="40"/>
+      <c r="C306" s="40"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="43"/>
+      <c r="F306" s="43"/>
     </row>
     <row r="307" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A307" s="32"/>
-      <c r="B307" s="32"/>
-      <c r="C307" s="32"/>
-      <c r="D307" s="32"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="34"/>
+      <c r="A307" s="40"/>
+      <c r="B307" s="40"/>
+      <c r="C307" s="40"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="43"/>
+      <c r="F307" s="43"/>
     </row>
     <row r="308" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A308" s="32"/>
-      <c r="B308" s="32"/>
-      <c r="C308" s="32"/>
-      <c r="D308" s="32"/>
-      <c r="E308" s="34"/>
-      <c r="F308" s="34"/>
+      <c r="A308" s="40"/>
+      <c r="B308" s="40"/>
+      <c r="C308" s="40"/>
+      <c r="D308" s="40"/>
+      <c r="E308" s="43"/>
+      <c r="F308" s="43"/>
     </row>
     <row r="309" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A309" s="32"/>
-      <c r="B309" s="32"/>
-      <c r="C309" s="32"/>
-      <c r="D309" s="32"/>
-      <c r="E309" s="34"/>
-      <c r="F309" s="34"/>
+      <c r="A309" s="40"/>
+      <c r="B309" s="40"/>
+      <c r="C309" s="40"/>
+      <c r="D309" s="40"/>
+      <c r="E309" s="43"/>
+      <c r="F309" s="43"/>
     </row>
     <row r="310" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A310" s="32"/>
-      <c r="B310" s="32"/>
-      <c r="C310" s="32"/>
-      <c r="D310" s="32"/>
-      <c r="E310" s="34"/>
-      <c r="F310" s="34"/>
+      <c r="A310" s="40"/>
+      <c r="B310" s="40"/>
+      <c r="C310" s="40"/>
+      <c r="D310" s="40"/>
+      <c r="E310" s="43"/>
+      <c r="F310" s="43"/>
     </row>
     <row r="311" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A311" s="32"/>
-      <c r="B311" s="32"/>
-      <c r="C311" s="32"/>
-      <c r="D311" s="32"/>
-      <c r="E311" s="34"/>
-      <c r="F311" s="34"/>
+      <c r="A311" s="40"/>
+      <c r="B311" s="40"/>
+      <c r="C311" s="40"/>
+      <c r="D311" s="40"/>
+      <c r="E311" s="43"/>
+      <c r="F311" s="43"/>
     </row>
     <row r="312" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A312" s="32"/>
-      <c r="B312" s="32"/>
-      <c r="C312" s="32"/>
-      <c r="D312" s="32"/>
-      <c r="E312" s="34"/>
-      <c r="F312" s="34"/>
+      <c r="A312" s="40"/>
+      <c r="B312" s="40"/>
+      <c r="C312" s="40"/>
+      <c r="D312" s="40"/>
+      <c r="E312" s="43"/>
+      <c r="F312" s="43"/>
     </row>
     <row r="313" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A313" s="32"/>
-      <c r="B313" s="32"/>
-      <c r="C313" s="32"/>
-      <c r="D313" s="32"/>
-      <c r="E313" s="34"/>
-      <c r="F313" s="34"/>
+      <c r="A313" s="40"/>
+      <c r="B313" s="40"/>
+      <c r="C313" s="40"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="43"/>
+      <c r="F313" s="43"/>
     </row>
     <row r="314" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A314" s="32"/>
-      <c r="B314" s="32"/>
-      <c r="C314" s="32"/>
-      <c r="D314" s="32"/>
-      <c r="E314" s="34"/>
-      <c r="F314" s="34"/>
+      <c r="A314" s="40"/>
+      <c r="B314" s="40"/>
+      <c r="C314" s="40"/>
+      <c r="D314" s="40"/>
+      <c r="E314" s="43"/>
+      <c r="F314" s="43"/>
     </row>
     <row r="315" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A315" s="32"/>
-      <c r="B315" s="32"/>
-      <c r="C315" s="32"/>
-      <c r="D315" s="32"/>
-      <c r="E315" s="34"/>
-      <c r="F315" s="34"/>
+      <c r="A315" s="40"/>
+      <c r="B315" s="40"/>
+      <c r="C315" s="40"/>
+      <c r="D315" s="40"/>
+      <c r="E315" s="43"/>
+      <c r="F315" s="43"/>
     </row>
     <row r="316" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A316" s="32"/>
-      <c r="B316" s="32"/>
-      <c r="C316" s="32"/>
-      <c r="D316" s="32"/>
-      <c r="E316" s="34"/>
-      <c r="F316" s="34"/>
+      <c r="A316" s="40"/>
+      <c r="B316" s="40"/>
+      <c r="C316" s="40"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="43"/>
+      <c r="F316" s="43"/>
     </row>
     <row r="317" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A317" s="32"/>
-      <c r="B317" s="32"/>
-      <c r="C317" s="32"/>
-      <c r="D317" s="32"/>
-      <c r="E317" s="34"/>
-      <c r="F317" s="34"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="40"/>
+      <c r="C317" s="40"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="43"/>
+      <c r="F317" s="43"/>
     </row>
     <row r="318" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A318" s="32"/>
-      <c r="B318" s="32"/>
-      <c r="C318" s="32"/>
-      <c r="D318" s="32"/>
-      <c r="E318" s="34"/>
-      <c r="F318" s="34"/>
+      <c r="A318" s="40"/>
+      <c r="B318" s="40"/>
+      <c r="C318" s="40"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="43"/>
+      <c r="F318" s="43"/>
     </row>
     <row r="319" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A319" s="32"/>
-      <c r="B319" s="32"/>
-      <c r="C319" s="32"/>
-      <c r="D319" s="32"/>
-      <c r="E319" s="34"/>
-      <c r="F319" s="34"/>
+      <c r="A319" s="40"/>
+      <c r="B319" s="40"/>
+      <c r="C319" s="40"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="43"/>
+      <c r="F319" s="43"/>
     </row>
     <row r="320" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A320" s="32"/>
-      <c r="B320" s="32"/>
-      <c r="C320" s="32"/>
-      <c r="D320" s="32"/>
-      <c r="E320" s="34"/>
-      <c r="F320" s="34"/>
+      <c r="A320" s="40"/>
+      <c r="B320" s="40"/>
+      <c r="C320" s="40"/>
+      <c r="D320" s="40"/>
+      <c r="E320" s="43"/>
+      <c r="F320" s="43"/>
     </row>
     <row r="321" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A321" s="32"/>
-      <c r="B321" s="32"/>
-      <c r="C321" s="32"/>
-      <c r="D321" s="32"/>
-      <c r="E321" s="34"/>
-      <c r="F321" s="34"/>
+      <c r="A321" s="40"/>
+      <c r="B321" s="40"/>
+      <c r="C321" s="40"/>
+      <c r="D321" s="40"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="43"/>
     </row>
     <row r="322" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A322" s="32"/>
-      <c r="B322" s="32"/>
-      <c r="C322" s="32"/>
-      <c r="D322" s="32"/>
-      <c r="E322" s="34"/>
-      <c r="F322" s="34"/>
+      <c r="A322" s="40"/>
+      <c r="B322" s="40"/>
+      <c r="C322" s="40"/>
+      <c r="D322" s="40"/>
+      <c r="E322" s="43"/>
+      <c r="F322" s="43"/>
     </row>
     <row r="323" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A323" s="32"/>
-      <c r="B323" s="32"/>
-      <c r="C323" s="32"/>
-      <c r="D323" s="32"/>
-      <c r="E323" s="34"/>
-      <c r="F323" s="34"/>
+      <c r="A323" s="40"/>
+      <c r="B323" s="40"/>
+      <c r="C323" s="40"/>
+      <c r="D323" s="40"/>
+      <c r="E323" s="43"/>
+      <c r="F323" s="43"/>
     </row>
     <row r="324" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A324" s="32"/>
-      <c r="B324" s="32"/>
-      <c r="C324" s="32"/>
-      <c r="D324" s="32"/>
-      <c r="E324" s="34"/>
-      <c r="F324" s="34"/>
+      <c r="A324" s="40"/>
+      <c r="B324" s="40"/>
+      <c r="C324" s="40"/>
+      <c r="D324" s="40"/>
+      <c r="E324" s="43"/>
+      <c r="F324" s="43"/>
     </row>
     <row r="325" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A325" s="32"/>
-      <c r="B325" s="32"/>
-      <c r="C325" s="32"/>
-      <c r="D325" s="32"/>
-      <c r="E325" s="34"/>
-      <c r="F325" s="34"/>
+      <c r="A325" s="40"/>
+      <c r="B325" s="40"/>
+      <c r="C325" s="40"/>
+      <c r="D325" s="40"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
     </row>
     <row r="326" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A326" s="32"/>
-      <c r="B326" s="32"/>
-      <c r="C326" s="32"/>
-      <c r="D326" s="32"/>
-      <c r="E326" s="34"/>
-      <c r="F326" s="34"/>
+      <c r="A326" s="40"/>
+      <c r="B326" s="40"/>
+      <c r="C326" s="40"/>
+      <c r="D326" s="40"/>
+      <c r="E326" s="43"/>
+      <c r="F326" s="43"/>
     </row>
     <row r="327" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A327" s="32"/>
-      <c r="B327" s="32"/>
-      <c r="C327" s="32"/>
-      <c r="D327" s="32"/>
-      <c r="E327" s="34"/>
-      <c r="F327" s="34"/>
+      <c r="A327" s="40"/>
+      <c r="B327" s="40"/>
+      <c r="C327" s="40"/>
+      <c r="D327" s="40"/>
+      <c r="E327" s="43"/>
+      <c r="F327" s="43"/>
     </row>
     <row r="328" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A328" s="32"/>
-      <c r="B328" s="32"/>
-      <c r="C328" s="32"/>
-      <c r="D328" s="32"/>
-      <c r="E328" s="34"/>
-      <c r="F328" s="34"/>
+      <c r="A328" s="40"/>
+      <c r="B328" s="40"/>
+      <c r="C328" s="40"/>
+      <c r="D328" s="40"/>
+      <c r="E328" s="43"/>
+      <c r="F328" s="43"/>
     </row>
     <row r="329" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A329" s="32"/>
-      <c r="B329" s="32"/>
-      <c r="C329" s="32"/>
-      <c r="D329" s="32"/>
-      <c r="E329" s="34"/>
-      <c r="F329" s="34"/>
+      <c r="A329" s="40"/>
+      <c r="B329" s="40"/>
+      <c r="C329" s="40"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="43"/>
+      <c r="F329" s="43"/>
     </row>
     <row r="330" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A330" s="32"/>
-      <c r="B330" s="32"/>
-      <c r="C330" s="32"/>
-      <c r="D330" s="32"/>
-      <c r="E330" s="34"/>
-      <c r="F330" s="34"/>
+      <c r="A330" s="40"/>
+      <c r="B330" s="40"/>
+      <c r="C330" s="40"/>
+      <c r="D330" s="40"/>
+      <c r="E330" s="43"/>
+      <c r="F330" s="43"/>
     </row>
     <row r="331" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A331" s="32"/>
-      <c r="B331" s="32"/>
-      <c r="C331" s="32"/>
-      <c r="D331" s="32"/>
-      <c r="E331" s="34"/>
-      <c r="F331" s="34"/>
+      <c r="A331" s="40"/>
+      <c r="B331" s="40"/>
+      <c r="C331" s="40"/>
+      <c r="D331" s="40"/>
+      <c r="E331" s="43"/>
+      <c r="F331" s="43"/>
     </row>
     <row r="332" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A332" s="32"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="32"/>
-      <c r="D332" s="32"/>
-      <c r="E332" s="34"/>
-      <c r="F332" s="34"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="40"/>
+      <c r="C332" s="40"/>
+      <c r="D332" s="40"/>
+      <c r="E332" s="43"/>
+      <c r="F332" s="43"/>
     </row>
     <row r="333" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A333" s="32"/>
-      <c r="B333" s="32"/>
-      <c r="C333" s="32"/>
-      <c r="D333" s="32"/>
-      <c r="E333" s="34"/>
-      <c r="F333" s="34"/>
+      <c r="A333" s="40"/>
+      <c r="B333" s="40"/>
+      <c r="C333" s="40"/>
+      <c r="D333" s="40"/>
+      <c r="E333" s="43"/>
+      <c r="F333" s="43"/>
     </row>
     <row r="334" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A334" s="32"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="32"/>
-      <c r="D334" s="32"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="34"/>
+      <c r="A334" s="40"/>
+      <c r="B334" s="40"/>
+      <c r="C334" s="40"/>
+      <c r="D334" s="40"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
     </row>
     <row r="335" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A335" s="32"/>
-      <c r="B335" s="32"/>
-      <c r="C335" s="32"/>
-      <c r="D335" s="32"/>
-      <c r="E335" s="34"/>
-      <c r="F335" s="34"/>
+      <c r="A335" s="40"/>
+      <c r="B335" s="40"/>
+      <c r="C335" s="40"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="43"/>
+      <c r="F335" s="43"/>
     </row>
     <row r="336" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A336" s="32"/>
-      <c r="B336" s="32"/>
-      <c r="C336" s="32"/>
-      <c r="D336" s="32"/>
-      <c r="E336" s="34"/>
-      <c r="F336" s="34"/>
+      <c r="A336" s="40"/>
+      <c r="B336" s="40"/>
+      <c r="C336" s="40"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="43"/>
+      <c r="F336" s="43"/>
     </row>
     <row r="337" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A337" s="32"/>
-      <c r="B337" s="32"/>
-      <c r="C337" s="32"/>
-      <c r="D337" s="32"/>
-      <c r="E337" s="34"/>
-      <c r="F337" s="34"/>
+      <c r="A337" s="40"/>
+      <c r="B337" s="40"/>
+      <c r="C337" s="40"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="43"/>
+      <c r="F337" s="43"/>
     </row>
     <row r="338" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A338" s="32"/>
-      <c r="B338" s="32"/>
-      <c r="C338" s="32"/>
-      <c r="D338" s="32"/>
-      <c r="E338" s="34"/>
-      <c r="F338" s="34"/>
+      <c r="A338" s="40"/>
+      <c r="B338" s="40"/>
+      <c r="C338" s="40"/>
+      <c r="D338" s="40"/>
+      <c r="E338" s="43"/>
+      <c r="F338" s="43"/>
     </row>
     <row r="339" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A339" s="32"/>
-      <c r="B339" s="32"/>
-      <c r="C339" s="32"/>
-      <c r="D339" s="32"/>
-      <c r="E339" s="34"/>
-      <c r="F339" s="34"/>
+      <c r="A339" s="40"/>
+      <c r="B339" s="40"/>
+      <c r="C339" s="40"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="43"/>
+      <c r="F339" s="43"/>
     </row>
     <row r="340" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A340" s="32"/>
-      <c r="B340" s="32"/>
-      <c r="C340" s="32"/>
-      <c r="D340" s="32"/>
-      <c r="E340" s="34"/>
-      <c r="F340" s="34"/>
+      <c r="A340" s="40"/>
+      <c r="B340" s="40"/>
+      <c r="C340" s="40"/>
+      <c r="D340" s="40"/>
+      <c r="E340" s="43"/>
+      <c r="F340" s="43"/>
     </row>
     <row r="341" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A341" s="32"/>
-      <c r="B341" s="32"/>
-      <c r="C341" s="32"/>
-      <c r="D341" s="32"/>
-      <c r="E341" s="34"/>
-      <c r="F341" s="34"/>
+      <c r="A341" s="40"/>
+      <c r="B341" s="40"/>
+      <c r="C341" s="40"/>
+      <c r="D341" s="40"/>
+      <c r="E341" s="43"/>
+      <c r="F341" s="43"/>
     </row>
     <row r="342" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A342" s="32"/>
-      <c r="B342" s="32"/>
-      <c r="C342" s="32"/>
-      <c r="D342" s="32"/>
-      <c r="E342" s="34"/>
-      <c r="F342" s="34"/>
+      <c r="A342" s="40"/>
+      <c r="B342" s="40"/>
+      <c r="C342" s="40"/>
+      <c r="D342" s="40"/>
+      <c r="E342" s="43"/>
+      <c r="F342" s="43"/>
     </row>
     <row r="343" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A343" s="32"/>
-      <c r="B343" s="32"/>
-      <c r="C343" s="32"/>
-      <c r="D343" s="32"/>
-      <c r="E343" s="34"/>
-      <c r="F343" s="34"/>
+      <c r="A343" s="40"/>
+      <c r="B343" s="40"/>
+      <c r="C343" s="40"/>
+      <c r="D343" s="40"/>
+      <c r="E343" s="43"/>
+      <c r="F343" s="43"/>
     </row>
     <row r="344" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A344" s="32"/>
-      <c r="B344" s="32"/>
-      <c r="C344" s="32"/>
-      <c r="D344" s="32"/>
-      <c r="E344" s="34"/>
-      <c r="F344" s="34"/>
+      <c r="A344" s="40"/>
+      <c r="B344" s="40"/>
+      <c r="C344" s="40"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
     </row>
     <row r="345" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A345" s="32"/>
-      <c r="B345" s="32"/>
-      <c r="C345" s="32"/>
-      <c r="D345" s="32"/>
-      <c r="E345" s="34"/>
-      <c r="F345" s="34"/>
+      <c r="A345" s="40"/>
+      <c r="B345" s="40"/>
+      <c r="C345" s="40"/>
+      <c r="D345" s="40"/>
+      <c r="E345" s="43"/>
+      <c r="F345" s="43"/>
     </row>
     <row r="346" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A346" s="32"/>
-      <c r="B346" s="32"/>
-      <c r="C346" s="32"/>
-      <c r="D346" s="32"/>
-      <c r="E346" s="34"/>
-      <c r="F346" s="34"/>
+      <c r="A346" s="40"/>
+      <c r="B346" s="40"/>
+      <c r="C346" s="40"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="43"/>
+      <c r="F346" s="43"/>
     </row>
     <row r="347" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A347" s="32"/>
-      <c r="B347" s="32"/>
-      <c r="C347" s="32"/>
-      <c r="D347" s="32"/>
-      <c r="E347" s="34"/>
-      <c r="F347" s="34"/>
+      <c r="A347" s="40"/>
+      <c r="B347" s="40"/>
+      <c r="C347" s="40"/>
+      <c r="D347" s="40"/>
+      <c r="E347" s="43"/>
+      <c r="F347" s="43"/>
     </row>
     <row r="348" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A348" s="32"/>
-      <c r="B348" s="32"/>
-      <c r="C348" s="32"/>
-      <c r="D348" s="32"/>
-      <c r="E348" s="32"/>
-      <c r="F348" s="32"/>
+      <c r="A348" s="40"/>
+      <c r="B348" s="40"/>
+      <c r="C348" s="40"/>
+      <c r="D348" s="40"/>
+      <c r="E348" s="40"/>
+      <c r="F348" s="40"/>
     </row>
     <row r="349" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A349" s="32"/>
-      <c r="B349" s="32"/>
-      <c r="C349" s="32"/>
-      <c r="D349" s="32"/>
-      <c r="E349" s="32"/>
-      <c r="F349" s="32"/>
+      <c r="A349" s="40"/>
+      <c r="B349" s="40"/>
+      <c r="C349" s="40"/>
+      <c r="D349" s="40"/>
+      <c r="E349" s="40"/>
+      <c r="F349" s="40"/>
     </row>
     <row r="350" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A350" s="32"/>
-      <c r="B350" s="32"/>
-      <c r="C350" s="32"/>
-      <c r="D350" s="32"/>
-      <c r="E350" s="32"/>
-      <c r="F350" s="32"/>
+      <c r="A350" s="40"/>
+      <c r="B350" s="40"/>
+      <c r="C350" s="40"/>
+      <c r="D350" s="40"/>
+      <c r="E350" s="40"/>
+      <c r="F350" s="40"/>
     </row>
     <row r="351" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A351" s="32"/>
-      <c r="B351" s="32"/>
-      <c r="C351" s="32"/>
-      <c r="D351" s="32"/>
-      <c r="E351" s="32"/>
-      <c r="F351" s="32"/>
+      <c r="A351" s="40"/>
+      <c r="B351" s="40"/>
+      <c r="C351" s="40"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="40"/>
     </row>
     <row r="352" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A352" s="32"/>
-      <c r="B352" s="32"/>
-      <c r="C352" s="32"/>
-      <c r="D352" s="32"/>
-      <c r="E352" s="32"/>
-      <c r="F352" s="32"/>
+      <c r="A352" s="40"/>
+      <c r="B352" s="40"/>
+      <c r="C352" s="40"/>
+      <c r="D352" s="40"/>
+      <c r="E352" s="40"/>
+      <c r="F352" s="40"/>
     </row>
     <row r="353" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A353" s="32"/>
-      <c r="B353" s="32"/>
-      <c r="C353" s="32"/>
-      <c r="D353" s="32"/>
-      <c r="E353" s="32"/>
-      <c r="F353" s="32"/>
+      <c r="A353" s="40"/>
+      <c r="B353" s="40"/>
+      <c r="C353" s="40"/>
+      <c r="D353" s="40"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="40"/>
     </row>
     <row r="354" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A354" s="32"/>
-      <c r="B354" s="32"/>
-      <c r="C354" s="32"/>
-      <c r="D354" s="32"/>
-      <c r="E354" s="32"/>
-      <c r="F354" s="32"/>
+      <c r="A354" s="40"/>
+      <c r="B354" s="40"/>
+      <c r="C354" s="40"/>
+      <c r="D354" s="40"/>
+      <c r="E354" s="40"/>
+      <c r="F354" s="40"/>
     </row>
     <row r="355" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A355" s="32"/>
-      <c r="B355" s="32"/>
-      <c r="C355" s="32"/>
-      <c r="D355" s="32"/>
-      <c r="E355" s="32"/>
-      <c r="F355" s="32"/>
+      <c r="A355" s="40"/>
+      <c r="B355" s="40"/>
+      <c r="C355" s="40"/>
+      <c r="D355" s="40"/>
+      <c r="E355" s="40"/>
+      <c r="F355" s="40"/>
     </row>
     <row r="356" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A356" s="32"/>
-      <c r="B356" s="32"/>
-      <c r="C356" s="32"/>
-      <c r="D356" s="32"/>
-      <c r="E356" s="32"/>
-      <c r="F356" s="32"/>
+      <c r="A356" s="40"/>
+      <c r="B356" s="40"/>
+      <c r="C356" s="40"/>
+      <c r="D356" s="40"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="40"/>
     </row>
     <row r="357" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A357" s="32"/>
-      <c r="B357" s="32"/>
-      <c r="C357" s="32"/>
-      <c r="D357" s="32"/>
-      <c r="E357" s="32"/>
-      <c r="F357" s="32"/>
+      <c r="A357" s="40"/>
+      <c r="B357" s="40"/>
+      <c r="C357" s="40"/>
+      <c r="D357" s="40"/>
+      <c r="E357" s="40"/>
+      <c r="F357" s="40"/>
     </row>
     <row r="358" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A358" s="32"/>
-      <c r="B358" s="32"/>
-      <c r="C358" s="32"/>
-      <c r="D358" s="32"/>
-      <c r="E358" s="32"/>
-      <c r="F358" s="32"/>
+      <c r="A358" s="40"/>
+      <c r="B358" s="40"/>
+      <c r="C358" s="40"/>
+      <c r="D358" s="40"/>
+      <c r="E358" s="40"/>
+      <c r="F358" s="40"/>
     </row>
     <row r="359" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A359" s="32"/>
-      <c r="B359" s="32"/>
-      <c r="C359" s="32"/>
-      <c r="D359" s="32"/>
-      <c r="E359" s="32"/>
-      <c r="F359" s="32"/>
+      <c r="A359" s="40"/>
+      <c r="B359" s="40"/>
+      <c r="C359" s="40"/>
+      <c r="D359" s="40"/>
+      <c r="E359" s="40"/>
+      <c r="F359" s="40"/>
     </row>
     <row r="360" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A360" s="32"/>
-      <c r="B360" s="32"/>
-      <c r="C360" s="32"/>
-      <c r="D360" s="32"/>
-      <c r="E360" s="32"/>
-      <c r="F360" s="32"/>
+      <c r="A360" s="40"/>
+      <c r="B360" s="40"/>
+      <c r="C360" s="40"/>
+      <c r="D360" s="40"/>
+      <c r="E360" s="40"/>
+      <c r="F360" s="40"/>
     </row>
     <row r="361" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A361" s="32"/>
-      <c r="B361" s="32"/>
-      <c r="C361" s="32"/>
-      <c r="D361" s="32"/>
-      <c r="E361" s="32"/>
-      <c r="F361" s="32"/>
+      <c r="A361" s="40"/>
+      <c r="B361" s="40"/>
+      <c r="C361" s="40"/>
+      <c r="D361" s="40"/>
+      <c r="E361" s="40"/>
+      <c r="F361" s="40"/>
     </row>
     <row r="362" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A362" s="32"/>
-      <c r="B362" s="32"/>
-      <c r="C362" s="32"/>
-      <c r="D362" s="32"/>
-      <c r="E362" s="32"/>
-      <c r="F362" s="32"/>
+      <c r="A362" s="40"/>
+      <c r="B362" s="40"/>
+      <c r="C362" s="40"/>
+      <c r="D362" s="40"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="40"/>
     </row>
     <row r="363" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A363" s="32"/>
-      <c r="B363" s="32"/>
-      <c r="C363" s="32"/>
-      <c r="D363" s="32"/>
-      <c r="E363" s="32"/>
-      <c r="F363" s="32"/>
+      <c r="A363" s="40"/>
+      <c r="B363" s="40"/>
+      <c r="C363" s="40"/>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="40"/>
     </row>
     <row r="364" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A364" s="32"/>
-      <c r="B364" s="32"/>
-      <c r="C364" s="32"/>
-      <c r="D364" s="32"/>
-      <c r="E364" s="32"/>
-      <c r="F364" s="32"/>
+      <c r="A364" s="40"/>
+      <c r="B364" s="40"/>
+      <c r="C364" s="40"/>
+      <c r="D364" s="40"/>
+      <c r="E364" s="40"/>
+      <c r="F364" s="40"/>
     </row>
     <row r="365" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A365" s="32"/>
-      <c r="B365" s="32"/>
-      <c r="C365" s="32"/>
-      <c r="D365" s="32"/>
-      <c r="E365" s="32"/>
-      <c r="F365" s="32"/>
+      <c r="A365" s="40"/>
+      <c r="B365" s="40"/>
+      <c r="C365" s="40"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="40"/>
     </row>
     <row r="366" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A366" s="32"/>
-      <c r="B366" s="32"/>
-      <c r="C366" s="32"/>
-      <c r="D366" s="32"/>
-      <c r="E366" s="32"/>
-      <c r="F366" s="32"/>
+      <c r="A366" s="40"/>
+      <c r="B366" s="40"/>
+      <c r="C366" s="40"/>
+      <c r="D366" s="40"/>
+      <c r="E366" s="40"/>
+      <c r="F366" s="40"/>
     </row>
     <row r="367" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A367" s="32"/>
-      <c r="B367" s="32"/>
-      <c r="C367" s="32"/>
-      <c r="D367" s="32"/>
-      <c r="E367" s="32"/>
-      <c r="F367" s="32"/>
+      <c r="A367" s="40"/>
+      <c r="B367" s="40"/>
+      <c r="C367" s="40"/>
+      <c r="D367" s="40"/>
+      <c r="E367" s="40"/>
+      <c r="F367" s="40"/>
     </row>
     <row r="368" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A368" s="32"/>
-      <c r="B368" s="32"/>
-      <c r="C368" s="32"/>
-      <c r="D368" s="32"/>
-      <c r="E368" s="32"/>
-      <c r="F368" s="32"/>
+      <c r="A368" s="40"/>
+      <c r="B368" s="40"/>
+      <c r="C368" s="40"/>
+      <c r="D368" s="40"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="40"/>
     </row>
     <row r="369" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A369" s="32"/>
-      <c r="B369" s="32"/>
-      <c r="C369" s="32"/>
-      <c r="D369" s="32"/>
-      <c r="E369" s="32"/>
-      <c r="F369" s="32"/>
+      <c r="A369" s="40"/>
+      <c r="B369" s="40"/>
+      <c r="C369" s="40"/>
+      <c r="D369" s="40"/>
+      <c r="E369" s="40"/>
+      <c r="F369" s="40"/>
     </row>
     <row r="370" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A370" s="32"/>
-      <c r="B370" s="32"/>
-      <c r="C370" s="32"/>
-      <c r="D370" s="32"/>
-      <c r="E370" s="32"/>
-      <c r="F370" s="32"/>
+      <c r="A370" s="40"/>
+      <c r="B370" s="40"/>
+      <c r="C370" s="40"/>
+      <c r="D370" s="40"/>
+      <c r="E370" s="40"/>
+      <c r="F370" s="40"/>
     </row>
     <row r="371" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A371" s="32"/>
-      <c r="B371" s="32"/>
-      <c r="C371" s="32"/>
-      <c r="D371" s="32"/>
-      <c r="E371" s="32"/>
-      <c r="F371" s="32"/>
+      <c r="A371" s="40"/>
+      <c r="B371" s="40"/>
+      <c r="C371" s="40"/>
+      <c r="D371" s="40"/>
+      <c r="E371" s="40"/>
+      <c r="F371" s="40"/>
     </row>
     <row r="372" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A372" s="32"/>
-      <c r="B372" s="32"/>
-      <c r="C372" s="32"/>
-      <c r="D372" s="32"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="32"/>
+      <c r="A372" s="40"/>
+      <c r="B372" s="40"/>
+      <c r="C372" s="40"/>
+      <c r="D372" s="40"/>
+      <c r="E372" s="40"/>
+      <c r="F372" s="40"/>
     </row>
     <row r="373" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A373" s="32"/>
-      <c r="B373" s="32"/>
-      <c r="C373" s="32"/>
-      <c r="D373" s="32"/>
-      <c r="E373" s="32"/>
-      <c r="F373" s="32"/>
+      <c r="A373" s="40"/>
+      <c r="B373" s="40"/>
+      <c r="C373" s="40"/>
+      <c r="D373" s="40"/>
+      <c r="E373" s="40"/>
+      <c r="F373" s="40"/>
     </row>
     <row r="374" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A374" s="32"/>
-      <c r="B374" s="32"/>
-      <c r="C374" s="32"/>
-      <c r="D374" s="32"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="32"/>
+      <c r="A374" s="40"/>
+      <c r="B374" s="40"/>
+      <c r="C374" s="40"/>
+      <c r="D374" s="40"/>
+      <c r="E374" s="40"/>
+      <c r="F374" s="40"/>
     </row>
     <row r="375" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A375" s="32"/>
-      <c r="B375" s="32"/>
-      <c r="C375" s="32"/>
-      <c r="D375" s="32"/>
-      <c r="E375" s="32"/>
-      <c r="F375" s="32"/>
+      <c r="A375" s="40"/>
+      <c r="B375" s="40"/>
+      <c r="C375" s="40"/>
+      <c r="D375" s="40"/>
+      <c r="E375" s="40"/>
+      <c r="F375" s="40"/>
     </row>
     <row r="376" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A376" s="32"/>
-      <c r="B376" s="32"/>
-      <c r="C376" s="32"/>
-      <c r="D376" s="32"/>
-      <c r="E376" s="32"/>
-      <c r="F376" s="32"/>
+      <c r="A376" s="40"/>
+      <c r="B376" s="40"/>
+      <c r="C376" s="40"/>
+      <c r="D376" s="40"/>
+      <c r="E376" s="40"/>
+      <c r="F376" s="40"/>
     </row>
     <row r="377" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A377" s="32"/>
-      <c r="B377" s="32"/>
-      <c r="C377" s="32"/>
-      <c r="D377" s="32"/>
-      <c r="E377" s="32"/>
-      <c r="F377" s="32"/>
+      <c r="A377" s="40"/>
+      <c r="B377" s="40"/>
+      <c r="C377" s="40"/>
+      <c r="D377" s="40"/>
+      <c r="E377" s="40"/>
+      <c r="F377" s="40"/>
     </row>
     <row r="378" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A378" s="32"/>
-      <c r="B378" s="32"/>
-      <c r="C378" s="32"/>
-      <c r="D378" s="32"/>
-      <c r="E378" s="32"/>
-      <c r="F378" s="32"/>
+      <c r="A378" s="40"/>
+      <c r="B378" s="40"/>
+      <c r="C378" s="40"/>
+      <c r="D378" s="40"/>
+      <c r="E378" s="40"/>
+      <c r="F378" s="40"/>
     </row>
     <row r="379" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A379" s="32"/>
-      <c r="B379" s="32"/>
-      <c r="C379" s="32"/>
-      <c r="D379" s="32"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="32"/>
+      <c r="A379" s="40"/>
+      <c r="B379" s="40"/>
+      <c r="C379" s="40"/>
+      <c r="D379" s="40"/>
+      <c r="E379" s="40"/>
+      <c r="F379" s="40"/>
     </row>
     <row r="380" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A380" s="32"/>
-      <c r="B380" s="32"/>
-      <c r="C380" s="32"/>
-      <c r="D380" s="32"/>
-      <c r="E380" s="32"/>
-      <c r="F380" s="32"/>
+      <c r="A380" s="40"/>
+      <c r="B380" s="40"/>
+      <c r="C380" s="40"/>
+      <c r="D380" s="40"/>
+      <c r="E380" s="40"/>
+      <c r="F380" s="40"/>
     </row>
     <row r="381" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A381" s="32"/>
-      <c r="B381" s="32"/>
-      <c r="C381" s="32"/>
-      <c r="D381" s="32"/>
-      <c r="E381" s="32"/>
-      <c r="F381" s="32"/>
+      <c r="A381" s="40"/>
+      <c r="B381" s="40"/>
+      <c r="C381" s="40"/>
+      <c r="D381" s="40"/>
+      <c r="E381" s="40"/>
+      <c r="F381" s="40"/>
     </row>
     <row r="382" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A382" s="32"/>
-      <c r="B382" s="32"/>
-      <c r="C382" s="32"/>
-      <c r="D382" s="32"/>
-      <c r="E382" s="32"/>
-      <c r="F382" s="32"/>
+      <c r="A382" s="40"/>
+      <c r="B382" s="40"/>
+      <c r="C382" s="40"/>
+      <c r="D382" s="40"/>
+      <c r="E382" s="40"/>
+      <c r="F382" s="40"/>
     </row>
     <row r="383" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A383" s="32"/>
-      <c r="B383" s="32"/>
-      <c r="C383" s="32"/>
-      <c r="D383" s="32"/>
-      <c r="E383" s="32"/>
-      <c r="F383" s="32"/>
+      <c r="A383" s="40"/>
+      <c r="B383" s="40"/>
+      <c r="C383" s="40"/>
+      <c r="D383" s="40"/>
+      <c r="E383" s="40"/>
+      <c r="F383" s="40"/>
     </row>
     <row r="384" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A384" s="32"/>
-      <c r="B384" s="32"/>
-      <c r="C384" s="32"/>
-      <c r="D384" s="32"/>
-      <c r="E384" s="32"/>
-      <c r="F384" s="32"/>
+      <c r="A384" s="40"/>
+      <c r="B384" s="40"/>
+      <c r="C384" s="40"/>
+      <c r="D384" s="40"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="40"/>
     </row>
     <row r="385" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A385" s="32"/>
-      <c r="B385" s="32"/>
-      <c r="C385" s="32"/>
-      <c r="D385" s="32"/>
-      <c r="E385" s="32"/>
-      <c r="F385" s="32"/>
+      <c r="A385" s="40"/>
+      <c r="B385" s="40"/>
+      <c r="C385" s="40"/>
+      <c r="D385" s="40"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="40"/>
     </row>
     <row r="386" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A386" s="32"/>
-      <c r="B386" s="32"/>
-      <c r="C386" s="32"/>
-      <c r="D386" s="32"/>
-      <c r="E386" s="32"/>
-      <c r="F386" s="32"/>
+      <c r="A386" s="40"/>
+      <c r="B386" s="40"/>
+      <c r="C386" s="40"/>
+      <c r="D386" s="40"/>
+      <c r="E386" s="40"/>
+      <c r="F386" s="40"/>
     </row>
     <row r="387" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A387" s="32"/>
-      <c r="B387" s="32"/>
-      <c r="C387" s="32"/>
-      <c r="D387" s="32"/>
-      <c r="E387" s="32"/>
-      <c r="F387" s="32"/>
+      <c r="A387" s="40"/>
+      <c r="B387" s="40"/>
+      <c r="C387" s="40"/>
+      <c r="D387" s="40"/>
+      <c r="E387" s="40"/>
+      <c r="F387" s="40"/>
     </row>
     <row r="388" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A388" s="32"/>
-      <c r="B388" s="32"/>
-      <c r="C388" s="32"/>
-      <c r="D388" s="32"/>
-      <c r="E388" s="32"/>
-      <c r="F388" s="32"/>
+      <c r="A388" s="40"/>
+      <c r="B388" s="40"/>
+      <c r="C388" s="40"/>
+      <c r="D388" s="40"/>
+      <c r="E388" s="40"/>
+      <c r="F388" s="40"/>
     </row>
     <row r="389" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A389" s="32"/>
-      <c r="B389" s="32"/>
-      <c r="C389" s="32"/>
-      <c r="D389" s="32"/>
-      <c r="E389" s="32"/>
-      <c r="F389" s="32"/>
+      <c r="A389" s="40"/>
+      <c r="B389" s="40"/>
+      <c r="C389" s="40"/>
+      <c r="D389" s="40"/>
+      <c r="E389" s="40"/>
+      <c r="F389" s="40"/>
     </row>
     <row r="390" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A390" s="32"/>
-      <c r="B390" s="32"/>
-      <c r="C390" s="32"/>
-      <c r="D390" s="32"/>
-      <c r="E390" s="32"/>
-      <c r="F390" s="32"/>
+      <c r="A390" s="40"/>
+      <c r="B390" s="40"/>
+      <c r="C390" s="40"/>
+      <c r="D390" s="40"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="40"/>
     </row>
     <row r="391" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A391" s="32"/>
-      <c r="B391" s="32"/>
-      <c r="C391" s="32"/>
-      <c r="D391" s="32"/>
-      <c r="E391" s="32"/>
-      <c r="F391" s="32"/>
+      <c r="A391" s="40"/>
+      <c r="B391" s="40"/>
+      <c r="C391" s="40"/>
+      <c r="D391" s="40"/>
+      <c r="E391" s="40"/>
+      <c r="F391" s="40"/>
     </row>
     <row r="392" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A392" s="32"/>
-      <c r="B392" s="32"/>
-      <c r="C392" s="32"/>
-      <c r="D392" s="32"/>
-      <c r="E392" s="32"/>
-      <c r="F392" s="32"/>
+      <c r="A392" s="40"/>
+      <c r="B392" s="40"/>
+      <c r="C392" s="40"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="40"/>
     </row>
     <row r="393" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A393" s="32"/>
-      <c r="B393" s="32"/>
-      <c r="C393" s="32"/>
-      <c r="D393" s="32"/>
-      <c r="E393" s="32"/>
-      <c r="F393" s="32"/>
+      <c r="A393" s="40"/>
+      <c r="B393" s="40"/>
+      <c r="C393" s="40"/>
+      <c r="D393" s="40"/>
+      <c r="E393" s="40"/>
+      <c r="F393" s="40"/>
     </row>
     <row r="394" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A394" s="32"/>
-      <c r="B394" s="32"/>
-      <c r="C394" s="32"/>
-      <c r="D394" s="32"/>
-      <c r="E394" s="32"/>
-      <c r="F394" s="32"/>
+      <c r="A394" s="40"/>
+      <c r="B394" s="40"/>
+      <c r="C394" s="40"/>
+      <c r="D394" s="40"/>
+      <c r="E394" s="40"/>
+      <c r="F394" s="40"/>
     </row>
     <row r="395" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A395" s="32"/>
-      <c r="B395" s="32"/>
-      <c r="C395" s="32"/>
-      <c r="D395" s="32"/>
-      <c r="E395" s="32"/>
-      <c r="F395" s="32"/>
+      <c r="A395" s="40"/>
+      <c r="B395" s="40"/>
+      <c r="C395" s="40"/>
+      <c r="D395" s="40"/>
+      <c r="E395" s="40"/>
+      <c r="F395" s="40"/>
     </row>
     <row r="396" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A396" s="32"/>
-      <c r="B396" s="32"/>
-      <c r="C396" s="32"/>
-      <c r="D396" s="32"/>
-      <c r="E396" s="32"/>
-      <c r="F396" s="32"/>
+      <c r="A396" s="40"/>
+      <c r="B396" s="40"/>
+      <c r="C396" s="40"/>
+      <c r="D396" s="40"/>
+      <c r="E396" s="40"/>
+      <c r="F396" s="40"/>
     </row>
     <row r="397" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A397" s="32"/>
-      <c r="B397" s="32"/>
-      <c r="C397" s="32"/>
-      <c r="D397" s="32"/>
-      <c r="E397" s="32"/>
-      <c r="F397" s="32"/>
+      <c r="A397" s="40"/>
+      <c r="B397" s="40"/>
+      <c r="C397" s="40"/>
+      <c r="D397" s="40"/>
+      <c r="E397" s="40"/>
+      <c r="F397" s="40"/>
     </row>
     <row r="398" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A398" s="32"/>
-      <c r="B398" s="32"/>
-      <c r="C398" s="32"/>
-      <c r="D398" s="32"/>
-      <c r="E398" s="32"/>
-      <c r="F398" s="32"/>
+      <c r="A398" s="40"/>
+      <c r="B398" s="40"/>
+      <c r="C398" s="40"/>
+      <c r="D398" s="40"/>
+      <c r="E398" s="40"/>
+      <c r="F398" s="40"/>
     </row>
     <row r="399" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A399" s="32"/>
-      <c r="B399" s="32"/>
-      <c r="C399" s="32"/>
-      <c r="D399" s="32"/>
-      <c r="E399" s="32"/>
-      <c r="F399" s="32"/>
+      <c r="A399" s="40"/>
+      <c r="B399" s="40"/>
+      <c r="C399" s="40"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="40"/>
+      <c r="F399" s="40"/>
     </row>
     <row r="400" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A400" s="32"/>
-      <c r="B400" s="32"/>
-      <c r="C400" s="32"/>
-      <c r="D400" s="32"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="32"/>
+      <c r="A400" s="40"/>
+      <c r="B400" s="40"/>
+      <c r="C400" s="40"/>
+      <c r="D400" s="40"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="40"/>
     </row>
     <row r="401" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A401" s="32"/>
-      <c r="B401" s="32"/>
-      <c r="C401" s="32"/>
-      <c r="D401" s="32"/>
-      <c r="E401" s="32"/>
-      <c r="F401" s="32"/>
+      <c r="A401" s="40"/>
+      <c r="B401" s="40"/>
+      <c r="C401" s="40"/>
+      <c r="D401" s="40"/>
+      <c r="E401" s="40"/>
+      <c r="F401" s="40"/>
     </row>
     <row r="402" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A402" s="32"/>
-      <c r="B402" s="32"/>
-      <c r="C402" s="32"/>
-      <c r="D402" s="32"/>
-      <c r="E402" s="32"/>
-      <c r="F402" s="32"/>
+      <c r="A402" s="40"/>
+      <c r="B402" s="40"/>
+      <c r="C402" s="40"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="40"/>
+      <c r="F402" s="40"/>
     </row>
     <row r="403" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A403" s="32"/>
-      <c r="B403" s="32"/>
-      <c r="C403" s="32"/>
-      <c r="D403" s="32"/>
-      <c r="E403" s="32"/>
-      <c r="F403" s="32"/>
+      <c r="A403" s="40"/>
+      <c r="B403" s="40"/>
+      <c r="C403" s="40"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="40"/>
+      <c r="F403" s="40"/>
     </row>
     <row r="404" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A404" s="32"/>
-      <c r="B404" s="32"/>
-      <c r="C404" s="32"/>
-      <c r="D404" s="32"/>
-      <c r="E404" s="32"/>
-      <c r="F404" s="32"/>
+      <c r="A404" s="40"/>
+      <c r="B404" s="40"/>
+      <c r="C404" s="40"/>
+      <c r="D404" s="40"/>
+      <c r="E404" s="40"/>
+      <c r="F404" s="40"/>
     </row>
     <row r="405" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A405" s="32"/>
-      <c r="B405" s="32"/>
-      <c r="C405" s="32"/>
-      <c r="D405" s="32"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="32"/>
+      <c r="A405" s="40"/>
+      <c r="B405" s="40"/>
+      <c r="C405" s="40"/>
+      <c r="D405" s="40"/>
+      <c r="E405" s="40"/>
+      <c r="F405" s="40"/>
     </row>
     <row r="406" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A406" s="32"/>
-      <c r="B406" s="32"/>
-      <c r="C406" s="32"/>
-      <c r="D406" s="32"/>
-      <c r="E406" s="32"/>
-      <c r="F406" s="32"/>
+      <c r="A406" s="40"/>
+      <c r="B406" s="40"/>
+      <c r="C406" s="40"/>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
     </row>
     <row r="407" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A407" s="32"/>
-      <c r="B407" s="32"/>
-      <c r="C407" s="32"/>
-      <c r="D407" s="32"/>
-      <c r="E407" s="32"/>
-      <c r="F407" s="32"/>
+      <c r="A407" s="40"/>
+      <c r="B407" s="40"/>
+      <c r="C407" s="40"/>
+      <c r="D407" s="40"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="40"/>
     </row>
     <row r="408" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A408" s="32"/>
-      <c r="B408" s="32"/>
-      <c r="C408" s="32"/>
-      <c r="D408" s="32"/>
-      <c r="E408" s="32"/>
-      <c r="F408" s="32"/>
+      <c r="A408" s="40"/>
+      <c r="B408" s="40"/>
+      <c r="C408" s="40"/>
+      <c r="D408" s="40"/>
+      <c r="E408" s="40"/>
+      <c r="F408" s="40"/>
     </row>
     <row r="409" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A409" s="32"/>
-      <c r="B409" s="32"/>
-      <c r="C409" s="32"/>
-      <c r="D409" s="32"/>
-      <c r="E409" s="32"/>
-      <c r="F409" s="32"/>
+      <c r="A409" s="40"/>
+      <c r="B409" s="40"/>
+      <c r="C409" s="40"/>
+      <c r="D409" s="40"/>
+      <c r="E409" s="40"/>
+      <c r="F409" s="40"/>
     </row>
     <row r="410" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A410" s="32"/>
-      <c r="B410" s="32"/>
-      <c r="C410" s="32"/>
-      <c r="D410" s="32"/>
-      <c r="E410" s="32"/>
-      <c r="F410" s="32"/>
+      <c r="A410" s="40"/>
+      <c r="B410" s="40"/>
+      <c r="C410" s="40"/>
+      <c r="D410" s="40"/>
+      <c r="E410" s="40"/>
+      <c r="F410" s="40"/>
     </row>
     <row r="411" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A411" s="32"/>
-      <c r="B411" s="32"/>
-      <c r="C411" s="32"/>
-      <c r="D411" s="32"/>
-      <c r="E411" s="32"/>
-      <c r="F411" s="32"/>
+      <c r="A411" s="40"/>
+      <c r="B411" s="40"/>
+      <c r="C411" s="40"/>
+      <c r="D411" s="40"/>
+      <c r="E411" s="40"/>
+      <c r="F411" s="40"/>
     </row>
     <row r="412" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A412" s="32"/>
-      <c r="B412" s="32"/>
-      <c r="C412" s="32"/>
-      <c r="D412" s="32"/>
-      <c r="E412" s="32"/>
-      <c r="F412" s="32"/>
+      <c r="A412" s="40"/>
+      <c r="B412" s="40"/>
+      <c r="C412" s="40"/>
+      <c r="D412" s="40"/>
+      <c r="E412" s="40"/>
+      <c r="F412" s="40"/>
     </row>
     <row r="413" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A413" s="32"/>
-      <c r="B413" s="32"/>
-      <c r="C413" s="32"/>
-      <c r="D413" s="32"/>
-      <c r="E413" s="32"/>
-      <c r="F413" s="32"/>
+      <c r="A413" s="40"/>
+      <c r="B413" s="40"/>
+      <c r="C413" s="40"/>
+      <c r="D413" s="40"/>
+      <c r="E413" s="40"/>
+      <c r="F413" s="40"/>
     </row>
     <row r="414" spans="1:16136" customHeight="1" ht="15" s="6" customFormat="1">
-      <c r="A414" s="32"/>
-      <c r="B414" s="32"/>
-      <c r="C414" s="32"/>
-      <c r="D414" s="32"/>
-      <c r="E414" s="32"/>
-      <c r="F414" s="32"/>
+      <c r="A414" s="40"/>
+      <c r="B414" s="40"/>
+      <c r="C414" s="40"/>
+      <c r="D414" s="40"/>
+      <c r="E414" s="40"/>
+      <c r="F414" s="40"/>
     </row>
     <row r="415" spans="1:16136" s="6" customFormat="1"/>
     <row r="416" spans="1:16136" s="6" customFormat="1"/>
@@ -21706,9 +21162,9 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="B38:C38"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -186,23 +186,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>S978</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Bucket Hat with Attached Plastic PVC 
-Color: Black (102) and Red (102)</t>
-  </si>
-  <si>
-    <t>S979</t>
-  </si>
-  <si>
-    <t>Ballcap with Removable Plastic PVC
-Color: Blue</t>
   </si>
   <si>
     <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
@@ -737,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -987,7 +970,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1001,9 +984,6 @@
     </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -17700,82 +17680,60 @@
       </c>
     </row>
     <row r="16" spans="1:16136" customHeight="1" ht="30">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A17" s="28"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="103"/>
+    </row>
+    <row r="18" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A18" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="103"/>
+    </row>
+    <row r="19" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A19" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="86">
-        <v>204</v>
-      </c>
-      <c r="E16" s="87">
-        <v>130</v>
-      </c>
-      <c r="F16" s="87">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16136" customHeight="1" ht="30">
-      <c r="A17" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="86">
-        <v>196</v>
-      </c>
-      <c r="E17" s="87">
-        <v>150</v>
-      </c>
-      <c r="F17" s="87">
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16136" customHeight="1" ht="30">
-      <c r="A18" s="88"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="89">
-        <v>55920</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A19" s="28"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="104"/>
+      <c r="F19" s="103"/>
     </row>
     <row r="20" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A20" s="90" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="28"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="104"/>
+      <c r="F20" s="103"/>
     </row>
     <row r="21" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A21" s="90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="104"/>
+      <c r="F21" s="103"/>
     </row>
     <row r="22" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A22" s="28"/>
@@ -17783,51 +17741,47 @@
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="104"/>
+      <c r="F22" s="103"/>
     </row>
     <row r="23" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="104"/>
-    </row>
-    <row r="24" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="104"/>
+      <c r="F24" s="103"/>
     </row>
     <row r="25" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A25" s="28"/>
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="105"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="103"/>
     </row>
     <row r="26" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A26" s="28"/>
-      <c r="B26" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="104"/>
+      <c r="F26" s="103"/>
     </row>
     <row r="27" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A27" s="29"/>
@@ -17835,7 +17789,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="104"/>
+      <c r="F27" s="103"/>
     </row>
     <row r="28" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A28" s="29"/>
@@ -17843,31 +17797,31 @@
       <c r="C28" s="14"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
-      <c r="F28" s="106"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A29" s="29"/>
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95" t="s">
-        <v>42</v>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94" t="s">
+        <v>37</v>
       </c>
-      <c r="F29" s="107"/>
+      <c r="F29" s="106"/>
     </row>
     <row r="30" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A30" s="29"/>
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="96" t="s">
-        <v>44</v>
+      <c r="D30" s="95" t="s">
+        <v>39</v>
       </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="106"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A31" s="32"/>
@@ -17875,7 +17829,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="33"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="108"/>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A32" s="32"/>
@@ -17883,103 +17837,103 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="108"/>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A33" s="22"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="98"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="109"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="108"/>
     </row>
     <row r="34" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
-      <c r="C34" s="99"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="33"/>
       <c r="E34" s="35"/>
-      <c r="F34" s="108"/>
+      <c r="F34" s="107"/>
     </row>
     <row r="35" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A35" s="32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" s="33"/>
-      <c r="C35" s="99"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="108"/>
+      <c r="F35" s="107"/>
     </row>
     <row r="36" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A36" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="99"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E36" s="35"/>
-      <c r="F36" s="108"/>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A37" s="32"/>
       <c r="B37" s="33"/>
-      <c r="C37" s="99"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="33"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="108"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A38" s="32"/>
-      <c r="B38" s="111" t="s">
-        <v>49</v>
+      <c r="B38" s="110" t="s">
+        <v>44</v>
       </c>
-      <c r="C38" s="102"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E38" s="35"/>
-      <c r="F38" s="108"/>
+      <c r="F38" s="107"/>
     </row>
     <row r="39" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
-      <c r="C39" s="99"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="33"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="108"/>
+      <c r="F39" s="107"/>
     </row>
     <row r="40" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A40" s="32"/>
       <c r="B40" s="33"/>
-      <c r="C40" s="99" t="s">
-        <v>52</v>
+      <c r="C40" s="98" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="108"/>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A41" s="32"/>
       <c r="B41" s="33"/>
-      <c r="C41" s="99"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="33"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="108"/>
+      <c r="F41" s="107"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="110"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="109"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
       <c r="A43" s="33"/>
@@ -21189,9 +21143,9 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="B38:C38"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-05-065</t>
-  </si>
-  <si>
     <t>Address :</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>January 01, 1970</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -79,9 +76,6 @@
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
-  </si>
-  <si>
-    <t>Small Value Procurement</t>
   </si>
   <si>
     <t xml:space="preserve"> Gentlemen:</t>
@@ -389,8 +383,8 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -398,8 +392,8 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -577,6 +571,14 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <right style="thin">
@@ -587,30 +589,6 @@
       </top>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -619,7 +597,7 @@
       </bottom>
     </border>
     <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -630,7 +608,7 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -671,6 +649,14 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -690,9 +676,17 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <right style="medium">
         <color rgb="FF000000"/>
-      </left>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -832,16 +826,19 @@
     <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -853,7 +850,7 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -892,6 +889,30 @@
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="166" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="23" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -901,7 +922,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -910,10 +931,16 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -922,52 +949,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="166" fillId="2" borderId="23" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="25" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1006,7 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1024,7 +1018,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1033,22 +1027,22 @@
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="27" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -17504,105 +17498,101 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:16136" customHeight="1" ht="15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:16136" customHeight="1" ht="17.4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:16136" customHeight="1" ht="15.75">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:16136" customHeight="1" ht="15.6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:16136" customHeight="1" ht="13.8">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16136" customHeight="1" ht="28.2" s="12" customFormat="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:16136" customHeight="1" ht="38.4" s="12" customFormat="1">
+      <c r="A8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" spans="1:16136" customHeight="1" ht="38.4" s="12" customFormat="1">
-      <c r="A8" s="37" t="s">
+      <c r="B8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="F8" s="65"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="12" customFormat="1">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="12" customFormat="1">
-      <c r="A9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A10" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
@@ -17612,14 +17602,14 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A11" s="57" t="s">
-        <v>17</v>
+      <c r="A11" s="66" t="s">
+        <v>15</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A12" s="24"/>
@@ -17630,16 +17620,16 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:16136" customHeight="1" ht="15">
-      <c r="A13" s="63" t="s">
-        <v>18</v>
+      <c r="A13" s="74" t="s">
+        <v>16</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="60" t="s">
-        <v>19</v>
+      <c r="B13" s="70"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="69" t="s">
+        <v>17</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
       <c r="S13" s="7" t="str">
@@ -17648,35 +17638,35 @@
       </c>
     </row>
     <row r="14" spans="1:16136" customHeight="1" ht="21">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:16136" customHeight="1" ht="31.2" s="11" customFormat="1">
+      <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="40" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:16136" customHeight="1" ht="31.2" s="11" customFormat="1">
-      <c r="A15" s="26" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16136" customHeight="1" ht="30">
@@ -17697,7 +17687,7 @@
     </row>
     <row r="18" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A18" s="89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -17707,7 +17697,7 @@
     </row>
     <row r="19" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A19" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
@@ -17725,12 +17715,12 @@
     </row>
     <row r="21" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A21" s="90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="103"/>
@@ -17746,23 +17736,23 @@
     <row r="23" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A23" s="28"/>
       <c r="B23" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="91"/>
       <c r="E23" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="104"/>
     </row>
     <row r="24" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A24" s="28"/>
       <c r="B24" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="103"/>
@@ -17802,23 +17792,23 @@
     <row r="29" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A29" s="29"/>
       <c r="B29" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="93"/>
       <c r="E29" s="94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29" s="106"/>
     </row>
     <row r="30" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A30" s="29"/>
       <c r="B30" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="105"/>
@@ -17857,24 +17847,24 @@
     </row>
     <row r="35" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A35" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="98"/>
       <c r="D35" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="107"/>
     </row>
     <row r="36" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A36" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="98"/>
       <c r="D36" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="107"/>
@@ -17890,11 +17880,11 @@
     <row r="38" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A38" s="32"/>
       <c r="B38" s="110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="101"/>
       <c r="D38" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="107"/>
@@ -17902,7 +17892,7 @@
     <row r="39" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="98"/>
       <c r="D39" s="33"/>
@@ -17913,7 +17903,7 @@
       <c r="A40" s="32"/>
       <c r="B40" s="33"/>
       <c r="C40" s="98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="35"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -35,11 +35,13 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">Melcheshoe Trading
-</t>
+    <t>Melcheshoe Trading</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
+  </si>
+  <si>
+    <t>2020-05-066</t>
   </si>
   <si>
     <t>Address :</t>
@@ -52,7 +54,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>January 01, 1970</t>
+    <t>May 21, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -76,6 +78,9 @@
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
+  </si>
+  <si>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t xml:space="preserve"> Gentlemen:</t>
@@ -180,6 +185,104 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Safety Googles
+Plastic Frame, Non polarized, Lightweight and Durable fits over proscription glasses</t>
+  </si>
+  <si>
+    <t>S659</t>
+  </si>
+  <si>
+    <t>Safety Boots
+Dimension 26cm x 9.5cm x 33cm- Durable Lightweight, Water proof, Rubber</t>
+  </si>
+  <si>
+    <t>S661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Helmet with Rechargeable Light
+Color white- Class G Ansi Standard, Weight 700G, Rated Voltage: 33V, Rated Capacity: 3AH, Current for main light, Source 300mA, Current for Auxiliary, Light Source: 120MA, Light Times 15HRS </t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>N95 Mask
+(Filtration Effect 95%)
+(Nasal Clip: Adjustable)
+(Materials: Non Woven)</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>Bedding - Blankets
+Single Beds: 36" x 75" cotton</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>Beddings - Folding Beds
+(25" x 75") 
+High Density type 3 polyester double coated PVC 
+Rigid type
+Bed weight 7KGS</t>
+  </si>
+  <si>
+    <t>S664</t>
+  </si>
+  <si>
+    <t>Beddings - Pillows
+(20" x 30") 
+100% Cotton</t>
+  </si>
+  <si>
+    <t>S665</t>
+  </si>
+  <si>
+    <t>BP Monitor Apparatus
+(Power Supply: 4 pcs Batterry 1.5V AA 
+Ac Adapter Supply
+Input AC 100-240V 50/60Hz
+Measuring Method: oscillometric supply, Pressure 0-37.3kpa 0280mmhg
+Pulse 40-199 beats/min
+Accuracy: Static pressure +3mmhg 0.4kpa + 5% of the reading
+Category: Class</t>
+  </si>
+  <si>
+    <t>S666</t>
+  </si>
+  <si>
+    <t>Coffee Maker (8-10 cups)
+(8-10 cups) 
+Rated Voltage 220 x 240V
+Power 700W 
+gwt 2.63kg</t>
+  </si>
+  <si>
+    <t>S667</t>
+  </si>
+  <si>
+    <t>Emergency Light
+Voltage 220-240V  AC
+50/60 Hz 
+2 heads-24 pcs SMD LED 
+Battery 6  4.5Ah</t>
+  </si>
+  <si>
+    <t>S669</t>
+  </si>
+  <si>
+    <t>Raincoats
+Nylon Materials</t>
   </si>
   <si>
     <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
@@ -714,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="104">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -760,15 +863,6 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -797,9 +891,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -964,7 +1055,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="49" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -979,22 +1070,31 @@
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1012,37 +1112,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="27" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="27" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1350,17 +1432,17 @@
   <dimension ref="A1:WVP628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="true" style="20"/>
+    <col min="1" max="1" width="13.44140625" customWidth="true" style="17"/>
     <col min="2" max="2" width="13.88671875" customWidth="true" style="6"/>
     <col min="3" max="3" width="35" customWidth="true" style="6"/>
     <col min="4" max="4" width="8.88671875" customWidth="true" style="6"/>
     <col min="5" max="5" width="11.6640625" customWidth="true" style="6"/>
-    <col min="6" max="6" width="25.6640625" customWidth="true" style="21"/>
+    <col min="6" max="6" width="25.6640625" customWidth="true" style="18"/>
     <col min="7" max="7" width="2.6640625" customWidth="true" style="7"/>
     <col min="8" max="8" width="9.109375" customWidth="true" style="7"/>
     <col min="9" max="9" width="9.109375" customWidth="true" style="7"/>
@@ -17494,142 +17576,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16136" customHeight="1" ht="22.5">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="44" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:16136" customHeight="1" ht="15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:16136" customHeight="1" ht="17.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:16136" customHeight="1" ht="15.75">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:16136" customHeight="1" ht="15.6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:16136" customHeight="1" ht="13.8">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16136" customHeight="1" ht="28.2" s="12" customFormat="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="81" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:16136" customHeight="1" ht="38.4" s="12" customFormat="1">
-      <c r="A8" s="80" t="s">
+      <c r="E7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:16136" customHeight="1" ht="38.4" s="12" customFormat="1">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="82" t="s">
+      <c r="B8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="12" customFormat="1">
-      <c r="A9" s="37" t="s">
+      <c r="E8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="F8" s="61"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="12" customFormat="1">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A10" s="22" t="s">
-        <v>14</v>
+      <c r="A10" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="23"/>
+      <c r="F10" s="20"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A11" s="66" t="s">
-        <v>15</v>
+      <c r="A11" s="62" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:16136" customHeight="1" ht="15">
-      <c r="A13" s="74" t="s">
-        <v>16</v>
+      <c r="A13" s="70" t="s">
+        <v>18</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="69" t="s">
-        <v>17</v>
+      <c r="B13" s="66"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="65" t="s">
+        <v>19</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
       <c r="S13" s="7" t="str">
@@ -17638,3268 +17724,3402 @@
       </c>
     </row>
     <row r="14" spans="1:16136" customHeight="1" ht="21">
-      <c r="A14" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:16136" customHeight="1" ht="31.2" s="11" customFormat="1">
-      <c r="A15" s="26" t="s">
+      <c r="A14" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:16136" customHeight="1" ht="31.2" s="11" customFormat="1">
+      <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:16136" customHeight="1" ht="30">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-    </row>
-    <row r="17" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="103"/>
-    </row>
-    <row r="18" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A18" s="89" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="103"/>
-    </row>
-    <row r="19" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A19" s="89" t="s">
+      <c r="F15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="103"/>
-    </row>
-    <row r="20" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="103"/>
-    </row>
-    <row r="21" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A21" s="90" t="s">
+    </row>
+    <row r="16" spans="1:16136" customHeight="1" ht="30">
+      <c r="A16" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16" t="s">
+      <c r="B16" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="103"/>
-    </row>
-    <row r="22" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="103"/>
-    </row>
-    <row r="23" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="15" t="s">
+      <c r="C16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92" t="s">
+      <c r="D16" s="82">
+        <v>40</v>
+      </c>
+      <c r="E16" s="83">
+        <v>130</v>
+      </c>
+      <c r="F16" s="83">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16136" customHeight="1" ht="30">
+      <c r="A17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="104"/>
-    </row>
-    <row r="24" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="15" t="s">
+      <c r="B17" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16" t="s">
+      <c r="D17" s="82">
+        <v>15</v>
+      </c>
+      <c r="E17" s="83">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="83">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16136" customHeight="1" ht="30">
+      <c r="A18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="103"/>
-    </row>
-    <row r="25" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="103"/>
-    </row>
-    <row r="26" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="103"/>
-    </row>
-    <row r="27" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A27" s="29"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="103"/>
-    </row>
-    <row r="28" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="105"/>
-    </row>
-    <row r="29" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30" t="s">
+      <c r="B18" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94" t="s">
+      <c r="D18" s="82">
+        <v>5</v>
+      </c>
+      <c r="E18" s="83">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="83">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16136" customHeight="1" ht="30">
+      <c r="A19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="106"/>
-    </row>
-    <row r="30" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
+      <c r="B19" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="95" t="s">
+      <c r="D19" s="82">
+        <v>200</v>
+      </c>
+      <c r="E19" s="83">
+        <v>135</v>
+      </c>
+      <c r="F19" s="83">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16136" customHeight="1" ht="30">
+      <c r="A20" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="105"/>
-    </row>
-    <row r="31" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="107"/>
-    </row>
-    <row r="32" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="107"/>
-    </row>
-    <row r="33" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A33" s="22"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="108"/>
-    </row>
-    <row r="34" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="107"/>
-    </row>
-    <row r="35" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A35" s="32" t="s">
+      <c r="B20" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="33" t="s">
+      <c r="D20" s="82">
+        <v>6</v>
+      </c>
+      <c r="E20" s="83">
+        <v>650</v>
+      </c>
+      <c r="F20" s="83">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16136" customHeight="1" ht="30">
+      <c r="A21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="107"/>
-    </row>
-    <row r="36" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A36" s="32" t="s">
+      <c r="B21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="33" t="s">
+      <c r="D21" s="82">
+        <v>5</v>
+      </c>
+      <c r="E21" s="83">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="83">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16136" customHeight="1" ht="30">
+      <c r="A22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="107"/>
-    </row>
-    <row r="37" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="107"/>
-    </row>
-    <row r="38" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A38" s="32"/>
-      <c r="B38" s="110" t="s">
+      <c r="B22" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="33" t="s">
+      <c r="D22" s="82">
+        <v>5</v>
+      </c>
+      <c r="E22" s="83">
+        <v>375</v>
+      </c>
+      <c r="F22" s="83">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16136" customHeight="1" ht="30">
+      <c r="A23" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="107"/>
-    </row>
-    <row r="39" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33" t="s">
+      <c r="B23" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="107"/>
-    </row>
-    <row r="40" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="98" t="s">
+      <c r="D23" s="82">
+        <v>5</v>
+      </c>
+      <c r="E23" s="83">
+        <v>1650</v>
+      </c>
+      <c r="F23" s="83">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16136" customHeight="1" ht="30">
+      <c r="A24" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="107"/>
+      <c r="B24" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="82">
+        <v>3</v>
+      </c>
+      <c r="E24" s="83">
+        <v>1235</v>
+      </c>
+      <c r="F24" s="83">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16136" customHeight="1" ht="30">
+      <c r="A25" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="82">
+        <v>5</v>
+      </c>
+      <c r="E25" s="83">
+        <v>1900</v>
+      </c>
+      <c r="F25" s="83">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16136" customHeight="1" ht="30">
+      <c r="A26" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="82">
+        <v>5</v>
+      </c>
+      <c r="E26" s="83">
+        <v>300</v>
+      </c>
+      <c r="F26" s="83">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16136" customHeight="1" ht="30">
+      <c r="A27" s="84"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87">
+        <v>107930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="99"/>
+    </row>
+    <row r="29" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A29" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="99"/>
+    </row>
+    <row r="30" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A30" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="99"/>
+    </row>
+    <row r="31" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="100"/>
+    </row>
+    <row r="32" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A32" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="100"/>
+    </row>
+    <row r="33" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="100"/>
+    </row>
+    <row r="34" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="101"/>
+    </row>
+    <row r="35" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="100"/>
+    </row>
+    <row r="36" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="100"/>
+    </row>
+    <row r="37" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="100"/>
+    </row>
+    <row r="38" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="100"/>
+    </row>
+    <row r="39" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="100"/>
+    </row>
+    <row r="40" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="101"/>
     </row>
     <row r="41" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="100"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="109"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="100"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="100"/>
     </row>
     <row r="44" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="102"/>
     </row>
     <row r="45" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="100"/>
     </row>
     <row r="46" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
+      <c r="A46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="100"/>
     </row>
     <row r="47" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
+      <c r="A47" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="100"/>
     </row>
     <row r="48" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="100"/>
     </row>
     <row r="49" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="98"/>
+      <c r="D49" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="100"/>
     </row>
     <row r="50" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="97"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="100"/>
     </row>
     <row r="51" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="100"/>
     </row>
     <row r="52" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="100"/>
     </row>
     <row r="53" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="101"/>
     </row>
     <row r="54" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
     </row>
     <row r="72" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
     </row>
     <row r="74" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
     </row>
     <row r="77" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
     </row>
     <row r="78" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
     </row>
     <row r="79" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
     </row>
     <row r="81" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
     </row>
     <row r="83" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
     </row>
     <row r="84" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
     </row>
     <row r="87" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
     </row>
     <row r="88" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
     </row>
     <row r="99" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
     </row>
     <row r="100" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
     </row>
     <row r="102" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
     </row>
     <row r="104" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
     </row>
     <row r="107" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
     </row>
     <row r="109" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
     </row>
     <row r="110" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
     </row>
     <row r="111" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
     </row>
     <row r="113" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
     </row>
     <row r="114" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
     </row>
     <row r="115" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
     </row>
     <row r="116" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
     </row>
     <row r="118" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
     </row>
     <row r="119" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
     </row>
     <row r="120" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
     </row>
     <row r="122" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
     </row>
     <row r="123" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
     </row>
     <row r="124" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
     </row>
     <row r="125" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
     </row>
     <row r="126" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
     </row>
     <row r="127" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
     </row>
     <row r="128" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
     </row>
     <row r="129" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
     </row>
     <row r="130" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
     </row>
     <row r="131" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
     </row>
     <row r="132" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
     </row>
     <row r="133" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
     </row>
     <row r="134" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
     </row>
     <row r="135" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
     </row>
     <row r="136" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
     </row>
     <row r="137" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
     </row>
     <row r="138" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
     </row>
     <row r="139" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
     </row>
     <row r="140" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
     </row>
     <row r="141" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
     </row>
     <row r="142" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
     </row>
     <row r="143" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
     </row>
     <row r="145" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
     </row>
     <row r="146" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
     </row>
     <row r="147" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
     </row>
     <row r="148" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
     </row>
     <row r="149" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
     </row>
     <row r="150" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
     </row>
     <row r="151" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="35"/>
-      <c r="F151" s="35"/>
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
     </row>
     <row r="152" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
     </row>
     <row r="153" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
     </row>
     <row r="154" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
+      <c r="A154" s="29"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
     </row>
     <row r="155" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
     </row>
     <row r="156" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
+      <c r="A156" s="29"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
     </row>
     <row r="157" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
     </row>
     <row r="158" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
+      <c r="A158" s="29"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
     </row>
     <row r="159" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
+      <c r="A159" s="29"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
     </row>
     <row r="160" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="35"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
     </row>
     <row r="161" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
     </row>
     <row r="162" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
+      <c r="A162" s="29"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
     </row>
     <row r="163" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A163" s="33"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="35"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
     </row>
     <row r="164" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A164" s="33"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
     </row>
     <row r="165" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A165" s="33"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
     </row>
     <row r="166" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A166" s="33"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
     </row>
     <row r="167" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A167" s="33"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
     </row>
     <row r="168" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
+      <c r="A168" s="29"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
     </row>
     <row r="169" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A169" s="33"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
     </row>
     <row r="170" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
     </row>
     <row r="171" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
+      <c r="A171" s="29"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
     </row>
     <row r="172" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
     </row>
     <row r="173" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
+      <c r="A173" s="29"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
     </row>
     <row r="174" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
+      <c r="A174" s="29"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
     </row>
     <row r="175" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
     </row>
     <row r="176" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
+      <c r="A176" s="29"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
     </row>
     <row r="177" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="35"/>
+      <c r="A177" s="29"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
     </row>
     <row r="178" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="35"/>
+      <c r="A178" s="29"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
+      <c r="A179" s="29"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
     </row>
     <row r="180" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
+      <c r="A180" s="29"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
     </row>
     <row r="181" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="35"/>
+      <c r="A181" s="29"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
     </row>
     <row r="182" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
+      <c r="A182" s="29"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
     </row>
     <row r="183" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A183" s="33"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
+      <c r="A183" s="29"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
     </row>
     <row r="184" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="35"/>
+      <c r="A184" s="29"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
     </row>
     <row r="185" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
+      <c r="A185" s="29"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
     </row>
     <row r="186" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A186" s="33"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
+      <c r="A186" s="29"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
     </row>
     <row r="187" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A187" s="33"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
+      <c r="A187" s="29"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
     </row>
     <row r="188" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A188" s="33"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
+      <c r="A188" s="29"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
     </row>
     <row r="189" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
+      <c r="A189" s="29"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
     </row>
     <row r="190" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="35"/>
+      <c r="A190" s="29"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
     </row>
     <row r="191" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A191" s="33"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
     </row>
     <row r="192" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A192" s="33"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
     </row>
     <row r="193" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A193" s="33"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="35"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
     </row>
     <row r="194" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
     </row>
     <row r="195" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="35"/>
+      <c r="A195" s="29"/>
+      <c r="B195" s="29"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
     </row>
     <row r="196" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="35"/>
-      <c r="F196" s="35"/>
+      <c r="A196" s="29"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
     </row>
     <row r="197" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="35"/>
+      <c r="A197" s="29"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
     </row>
     <row r="198" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A198" s="33"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
+      <c r="A198" s="29"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
     </row>
     <row r="199" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A199" s="33"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="35"/>
-      <c r="F199" s="35"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
     </row>
     <row r="200" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A200" s="33"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="35"/>
-      <c r="F200" s="35"/>
+      <c r="A200" s="29"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
     </row>
     <row r="201" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A201" s="33"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="35"/>
+      <c r="A201" s="29"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
     </row>
     <row r="202" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A202" s="33"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="35"/>
-      <c r="F202" s="35"/>
+      <c r="A202" s="29"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="31"/>
     </row>
     <row r="203" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A203" s="33"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="35"/>
-      <c r="F203" s="35"/>
+      <c r="A203" s="29"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
     </row>
     <row r="204" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A204" s="33"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="35"/>
-      <c r="F204" s="35"/>
+      <c r="A204" s="29"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
     </row>
     <row r="205" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="35"/>
+      <c r="A205" s="29"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
     </row>
     <row r="206" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="35"/>
-      <c r="F206" s="35"/>
+      <c r="A206" s="29"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
     </row>
     <row r="207" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A207" s="33"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="35"/>
-      <c r="F207" s="35"/>
+      <c r="A207" s="29"/>
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="31"/>
     </row>
     <row r="208" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A208" s="33"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="35"/>
+      <c r="A208" s="29"/>
+      <c r="B208" s="29"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31"/>
     </row>
     <row r="209" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A209" s="33"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="35"/>
+      <c r="A209" s="29"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
     </row>
     <row r="210" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A210" s="33"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="35"/>
-      <c r="F210" s="35"/>
+      <c r="A210" s="29"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
     </row>
     <row r="211" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A211" s="33"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="35"/>
-      <c r="F211" s="35"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
     </row>
     <row r="212" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="35"/>
-      <c r="F212" s="35"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="31"/>
     </row>
     <row r="213" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="35"/>
-      <c r="F213" s="35"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
     </row>
     <row r="214" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A214" s="33"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="35"/>
-      <c r="F214" s="35"/>
+      <c r="A214" s="29"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
     </row>
     <row r="215" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A215" s="33"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="35"/>
-      <c r="F215" s="35"/>
+      <c r="A215" s="29"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="31"/>
     </row>
     <row r="216" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A216" s="33"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="35"/>
-      <c r="F216" s="35"/>
+      <c r="A216" s="29"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
     </row>
     <row r="217" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A217" s="33"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="36"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
     </row>
     <row r="218" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A218" s="33"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="36"/>
-      <c r="F218" s="36"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
     </row>
     <row r="219" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A219" s="33"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
     </row>
     <row r="220" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A220" s="33"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="36"/>
-      <c r="F220" s="36"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
     </row>
     <row r="221" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A221" s="33"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="33"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="36"/>
-      <c r="F221" s="36"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
     </row>
     <row r="222" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A222" s="33"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="36"/>
-      <c r="F222" s="36"/>
+      <c r="A222" s="29"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
     </row>
     <row r="223" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A223" s="33"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="36"/>
-      <c r="F223" s="36"/>
+      <c r="A223" s="29"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
     </row>
     <row r="224" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A224" s="33"/>
-      <c r="B224" s="33"/>
-      <c r="C224" s="33"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="36"/>
-      <c r="F224" s="36"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
     </row>
     <row r="225" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A225" s="33"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="36"/>
-      <c r="F225" s="36"/>
+      <c r="A225" s="29"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
     </row>
     <row r="226" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A226" s="33"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="33"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="36"/>
-      <c r="F226" s="36"/>
+      <c r="A226" s="29"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
     </row>
     <row r="227" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A227" s="33"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="36"/>
-      <c r="F227" s="36"/>
+      <c r="A227" s="29"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="32"/>
     </row>
     <row r="228" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A228" s="33"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="36"/>
-      <c r="F228" s="36"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
     </row>
     <row r="229" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A229" s="33"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="33"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="36"/>
-      <c r="F229" s="36"/>
+      <c r="A229" s="29"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
     </row>
     <row r="230" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="33"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="36"/>
-      <c r="F230" s="36"/>
+      <c r="A230" s="29"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="32"/>
     </row>
     <row r="231" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A231" s="33"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="33"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
+      <c r="A231" s="29"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="32"/>
     </row>
     <row r="232" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A232" s="33"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="33"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="36"/>
-      <c r="F232" s="36"/>
+      <c r="A232" s="29"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
     </row>
     <row r="233" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A233" s="33"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="33"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="36"/>
-      <c r="F233" s="36"/>
+      <c r="A233" s="29"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
     </row>
     <row r="234" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A234" s="33"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="33"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="36"/>
-      <c r="F234" s="36"/>
+      <c r="A234" s="29"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="32"/>
     </row>
     <row r="235" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A235" s="33"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="33"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="36"/>
-      <c r="F235" s="36"/>
+      <c r="A235" s="29"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
     </row>
     <row r="236" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A236" s="33"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="33"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="36"/>
-      <c r="F236" s="36"/>
+      <c r="A236" s="29"/>
+      <c r="B236" s="29"/>
+      <c r="C236" s="29"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
     </row>
     <row r="237" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A237" s="33"/>
-      <c r="B237" s="33"/>
-      <c r="C237" s="33"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="36"/>
-      <c r="F237" s="36"/>
+      <c r="A237" s="29"/>
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
     </row>
     <row r="238" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A238" s="33"/>
-      <c r="B238" s="33"/>
-      <c r="C238" s="33"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="36"/>
-      <c r="F238" s="36"/>
+      <c r="A238" s="29"/>
+      <c r="B238" s="29"/>
+      <c r="C238" s="29"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
     </row>
     <row r="239" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A239" s="33"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="33"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="36"/>
-      <c r="F239" s="36"/>
+      <c r="A239" s="29"/>
+      <c r="B239" s="29"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
     </row>
     <row r="240" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A240" s="33"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="36"/>
+      <c r="A240" s="29"/>
+      <c r="B240" s="29"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
     </row>
     <row r="241" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A241" s="33"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="33"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="36"/>
-      <c r="F241" s="36"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="32"/>
+      <c r="F241" s="32"/>
     </row>
     <row r="242" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A242" s="33"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="36"/>
-      <c r="F242" s="36"/>
+      <c r="A242" s="29"/>
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="32"/>
     </row>
     <row r="243" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A243" s="33"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="36"/>
-      <c r="F243" s="36"/>
+      <c r="A243" s="29"/>
+      <c r="B243" s="29"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
     </row>
     <row r="244" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A244" s="33"/>
-      <c r="B244" s="33"/>
-      <c r="C244" s="33"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="36"/>
-      <c r="F244" s="36"/>
+      <c r="A244" s="29"/>
+      <c r="B244" s="29"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
     </row>
     <row r="245" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A245" s="33"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="36"/>
-      <c r="F245" s="36"/>
+      <c r="A245" s="29"/>
+      <c r="B245" s="29"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
     </row>
     <row r="246" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A246" s="33"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="36"/>
-      <c r="F246" s="36"/>
+      <c r="A246" s="29"/>
+      <c r="B246" s="29"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="32"/>
+      <c r="F246" s="32"/>
     </row>
     <row r="247" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A247" s="33"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="33"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="36"/>
-      <c r="F247" s="36"/>
+      <c r="A247" s="29"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="32"/>
     </row>
     <row r="248" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A248" s="33"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="36"/>
-      <c r="F248" s="36"/>
+      <c r="A248" s="29"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="29"/>
+      <c r="D248" s="29"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="32"/>
     </row>
     <row r="249" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A249" s="33"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="33"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="36"/>
-      <c r="F249" s="36"/>
+      <c r="A249" s="29"/>
+      <c r="B249" s="29"/>
+      <c r="C249" s="29"/>
+      <c r="D249" s="29"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
     </row>
     <row r="250" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A250" s="33"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="33"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="36"/>
-      <c r="F250" s="36"/>
+      <c r="A250" s="29"/>
+      <c r="B250" s="29"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="29"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="32"/>
     </row>
     <row r="251" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A251" s="33"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="33"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="36"/>
-      <c r="F251" s="36"/>
+      <c r="A251" s="29"/>
+      <c r="B251" s="29"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="32"/>
     </row>
     <row r="252" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A252" s="33"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="33"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="36"/>
-      <c r="F252" s="36"/>
+      <c r="A252" s="29"/>
+      <c r="B252" s="29"/>
+      <c r="C252" s="29"/>
+      <c r="D252" s="29"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="32"/>
     </row>
     <row r="253" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A253" s="33"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="36"/>
-      <c r="F253" s="36"/>
+      <c r="A253" s="29"/>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="32"/>
+      <c r="F253" s="32"/>
     </row>
     <row r="254" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A254" s="33"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="33"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="36"/>
-      <c r="F254" s="36"/>
+      <c r="A254" s="29"/>
+      <c r="B254" s="29"/>
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="32"/>
     </row>
     <row r="255" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A255" s="33"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="33"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="36"/>
-      <c r="F255" s="36"/>
+      <c r="A255" s="29"/>
+      <c r="B255" s="29"/>
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="32"/>
+      <c r="F255" s="32"/>
     </row>
     <row r="256" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A256" s="33"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="33"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="36"/>
-      <c r="F256" s="36"/>
+      <c r="A256" s="29"/>
+      <c r="B256" s="29"/>
+      <c r="C256" s="29"/>
+      <c r="D256" s="29"/>
+      <c r="E256" s="32"/>
+      <c r="F256" s="32"/>
     </row>
     <row r="257" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A257" s="33"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="36"/>
-      <c r="F257" s="36"/>
+      <c r="A257" s="29"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="32"/>
+      <c r="F257" s="32"/>
     </row>
     <row r="258" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A258" s="33"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="33"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="36"/>
-      <c r="F258" s="36"/>
+      <c r="A258" s="29"/>
+      <c r="B258" s="29"/>
+      <c r="C258" s="29"/>
+      <c r="D258" s="29"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
     </row>
     <row r="259" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A259" s="33"/>
-      <c r="B259" s="33"/>
-      <c r="C259" s="33"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="36"/>
-      <c r="F259" s="36"/>
+      <c r="A259" s="29"/>
+      <c r="B259" s="29"/>
+      <c r="C259" s="29"/>
+      <c r="D259" s="29"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="32"/>
     </row>
     <row r="260" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A260" s="33"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="33"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="36"/>
-      <c r="F260" s="36"/>
+      <c r="A260" s="29"/>
+      <c r="B260" s="29"/>
+      <c r="C260" s="29"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
     </row>
     <row r="261" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A261" s="33"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="36"/>
-      <c r="F261" s="36"/>
+      <c r="A261" s="29"/>
+      <c r="B261" s="29"/>
+      <c r="C261" s="29"/>
+      <c r="D261" s="29"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
     </row>
     <row r="262" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A262" s="33"/>
-      <c r="B262" s="33"/>
-      <c r="C262" s="33"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="36"/>
-      <c r="F262" s="36"/>
+      <c r="A262" s="29"/>
+      <c r="B262" s="29"/>
+      <c r="C262" s="29"/>
+      <c r="D262" s="29"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="32"/>
     </row>
     <row r="263" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="36"/>
-      <c r="F263" s="36"/>
+      <c r="A263" s="29"/>
+      <c r="B263" s="29"/>
+      <c r="C263" s="29"/>
+      <c r="D263" s="29"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="32"/>
     </row>
     <row r="264" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A264" s="33"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="36"/>
-      <c r="F264" s="36"/>
+      <c r="A264" s="29"/>
+      <c r="B264" s="29"/>
+      <c r="C264" s="29"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="32"/>
     </row>
     <row r="265" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A265" s="33"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="36"/>
-      <c r="F265" s="36"/>
+      <c r="A265" s="29"/>
+      <c r="B265" s="29"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="32"/>
     </row>
     <row r="266" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A266" s="33"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="36"/>
-      <c r="F266" s="36"/>
+      <c r="A266" s="29"/>
+      <c r="B266" s="29"/>
+      <c r="C266" s="29"/>
+      <c r="D266" s="29"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="32"/>
     </row>
     <row r="267" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A267" s="33"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="33"/>
-      <c r="D267" s="33"/>
-      <c r="E267" s="36"/>
-      <c r="F267" s="36"/>
+      <c r="A267" s="29"/>
+      <c r="B267" s="29"/>
+      <c r="C267" s="29"/>
+      <c r="D267" s="29"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="32"/>
     </row>
     <row r="268" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A268" s="33"/>
-      <c r="B268" s="33"/>
-      <c r="C268" s="33"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="36"/>
-      <c r="F268" s="36"/>
+      <c r="A268" s="29"/>
+      <c r="B268" s="29"/>
+      <c r="C268" s="29"/>
+      <c r="D268" s="29"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="32"/>
     </row>
     <row r="269" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A269" s="33"/>
-      <c r="B269" s="33"/>
-      <c r="C269" s="33"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="36"/>
-      <c r="F269" s="36"/>
+      <c r="A269" s="29"/>
+      <c r="B269" s="29"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
     </row>
     <row r="270" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A270" s="33"/>
-      <c r="B270" s="33"/>
-      <c r="C270" s="33"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="36"/>
-      <c r="F270" s="36"/>
+      <c r="A270" s="29"/>
+      <c r="B270" s="29"/>
+      <c r="C270" s="29"/>
+      <c r="D270" s="29"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
     </row>
     <row r="271" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="36"/>
-      <c r="F271" s="36"/>
+      <c r="A271" s="29"/>
+      <c r="B271" s="29"/>
+      <c r="C271" s="29"/>
+      <c r="D271" s="29"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="32"/>
     </row>
     <row r="272" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A272" s="33"/>
-      <c r="B272" s="33"/>
-      <c r="C272" s="33"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="36"/>
-      <c r="F272" s="36"/>
+      <c r="A272" s="29"/>
+      <c r="B272" s="29"/>
+      <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="32"/>
     </row>
     <row r="273" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A273" s="33"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="33"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="36"/>
-      <c r="F273" s="36"/>
+      <c r="A273" s="29"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="29"/>
+      <c r="D273" s="29"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
     </row>
     <row r="274" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A274" s="33"/>
-      <c r="B274" s="33"/>
-      <c r="C274" s="33"/>
-      <c r="D274" s="33"/>
-      <c r="E274" s="36"/>
-      <c r="F274" s="36"/>
+      <c r="A274" s="29"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
+      <c r="D274" s="29"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="32"/>
     </row>
     <row r="275" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A275" s="33"/>
-      <c r="B275" s="33"/>
-      <c r="C275" s="33"/>
-      <c r="D275" s="33"/>
-      <c r="E275" s="36"/>
-      <c r="F275" s="36"/>
+      <c r="A275" s="29"/>
+      <c r="B275" s="29"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="29"/>
+      <c r="E275" s="32"/>
+      <c r="F275" s="32"/>
     </row>
     <row r="276" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A276" s="33"/>
-      <c r="B276" s="33"/>
-      <c r="C276" s="33"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="36"/>
-      <c r="F276" s="36"/>
+      <c r="A276" s="29"/>
+      <c r="B276" s="29"/>
+      <c r="C276" s="29"/>
+      <c r="D276" s="29"/>
+      <c r="E276" s="32"/>
+      <c r="F276" s="32"/>
     </row>
     <row r="277" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A277" s="33"/>
-      <c r="B277" s="33"/>
-      <c r="C277" s="33"/>
-      <c r="D277" s="33"/>
-      <c r="E277" s="36"/>
-      <c r="F277" s="36"/>
+      <c r="A277" s="29"/>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
+      <c r="D277" s="29"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
     </row>
     <row r="278" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A278" s="33"/>
-      <c r="B278" s="33"/>
-      <c r="C278" s="33"/>
-      <c r="D278" s="33"/>
-      <c r="E278" s="36"/>
-      <c r="F278" s="36"/>
+      <c r="A278" s="29"/>
+      <c r="B278" s="29"/>
+      <c r="C278" s="29"/>
+      <c r="D278" s="29"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="32"/>
     </row>
     <row r="279" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A279" s="33"/>
-      <c r="B279" s="33"/>
-      <c r="C279" s="33"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="36"/>
-      <c r="F279" s="36"/>
+      <c r="A279" s="29"/>
+      <c r="B279" s="29"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="29"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="32"/>
     </row>
     <row r="280" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A280" s="33"/>
-      <c r="B280" s="33"/>
-      <c r="C280" s="33"/>
-      <c r="D280" s="33"/>
-      <c r="E280" s="36"/>
-      <c r="F280" s="36"/>
+      <c r="A280" s="29"/>
+      <c r="B280" s="29"/>
+      <c r="C280" s="29"/>
+      <c r="D280" s="29"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="32"/>
     </row>
     <row r="281" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A281" s="33"/>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="36"/>
-      <c r="F281" s="36"/>
+      <c r="A281" s="29"/>
+      <c r="B281" s="29"/>
+      <c r="C281" s="29"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="32"/>
+      <c r="F281" s="32"/>
     </row>
     <row r="282" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A282" s="33"/>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="36"/>
-      <c r="F282" s="36"/>
+      <c r="A282" s="29"/>
+      <c r="B282" s="29"/>
+      <c r="C282" s="29"/>
+      <c r="D282" s="29"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="32"/>
     </row>
     <row r="283" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A283" s="33"/>
-      <c r="B283" s="33"/>
-      <c r="C283" s="33"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="36"/>
-      <c r="F283" s="36"/>
+      <c r="A283" s="29"/>
+      <c r="B283" s="29"/>
+      <c r="C283" s="29"/>
+      <c r="D283" s="29"/>
+      <c r="E283" s="32"/>
+      <c r="F283" s="32"/>
     </row>
     <row r="284" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A284" s="33"/>
-      <c r="B284" s="33"/>
-      <c r="C284" s="33"/>
-      <c r="D284" s="33"/>
-      <c r="E284" s="36"/>
-      <c r="F284" s="36"/>
+      <c r="A284" s="29"/>
+      <c r="B284" s="29"/>
+      <c r="C284" s="29"/>
+      <c r="D284" s="29"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="32"/>
     </row>
     <row r="285" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A285" s="33"/>
-      <c r="B285" s="33"/>
-      <c r="C285" s="33"/>
-      <c r="D285" s="33"/>
-      <c r="E285" s="36"/>
-      <c r="F285" s="36"/>
+      <c r="A285" s="29"/>
+      <c r="B285" s="29"/>
+      <c r="C285" s="29"/>
+      <c r="D285" s="29"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
     </row>
     <row r="286" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A286" s="33"/>
-      <c r="B286" s="33"/>
-      <c r="C286" s="33"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="36"/>
-      <c r="F286" s="36"/>
+      <c r="A286" s="29"/>
+      <c r="B286" s="29"/>
+      <c r="C286" s="29"/>
+      <c r="D286" s="29"/>
+      <c r="E286" s="32"/>
+      <c r="F286" s="32"/>
     </row>
     <row r="287" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A287" s="33"/>
-      <c r="B287" s="33"/>
-      <c r="C287" s="33"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="36"/>
-      <c r="F287" s="36"/>
+      <c r="A287" s="29"/>
+      <c r="B287" s="29"/>
+      <c r="C287" s="29"/>
+      <c r="D287" s="29"/>
+      <c r="E287" s="32"/>
+      <c r="F287" s="32"/>
     </row>
     <row r="288" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A288" s="33"/>
-      <c r="B288" s="33"/>
-      <c r="C288" s="33"/>
-      <c r="D288" s="33"/>
-      <c r="E288" s="36"/>
-      <c r="F288" s="36"/>
+      <c r="A288" s="29"/>
+      <c r="B288" s="29"/>
+      <c r="C288" s="29"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="32"/>
+      <c r="F288" s="32"/>
     </row>
     <row r="289" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A289" s="33"/>
-      <c r="B289" s="33"/>
-      <c r="C289" s="33"/>
-      <c r="D289" s="33"/>
-      <c r="E289" s="36"/>
-      <c r="F289" s="36"/>
+      <c r="A289" s="29"/>
+      <c r="B289" s="29"/>
+      <c r="C289" s="29"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="32"/>
+      <c r="F289" s="32"/>
     </row>
     <row r="290" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A290" s="33"/>
-      <c r="B290" s="33"/>
-      <c r="C290" s="33"/>
-      <c r="D290" s="33"/>
-      <c r="E290" s="36"/>
-      <c r="F290" s="36"/>
+      <c r="A290" s="29"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="29"/>
+      <c r="D290" s="29"/>
+      <c r="E290" s="32"/>
+      <c r="F290" s="32"/>
     </row>
     <row r="291" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A291" s="33"/>
-      <c r="B291" s="33"/>
-      <c r="C291" s="33"/>
-      <c r="D291" s="33"/>
-      <c r="E291" s="36"/>
-      <c r="F291" s="36"/>
+      <c r="A291" s="29"/>
+      <c r="B291" s="29"/>
+      <c r="C291" s="29"/>
+      <c r="D291" s="29"/>
+      <c r="E291" s="32"/>
+      <c r="F291" s="32"/>
     </row>
     <row r="292" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A292" s="33"/>
-      <c r="B292" s="33"/>
-      <c r="C292" s="33"/>
-      <c r="D292" s="33"/>
-      <c r="E292" s="36"/>
-      <c r="F292" s="36"/>
+      <c r="A292" s="29"/>
+      <c r="B292" s="29"/>
+      <c r="C292" s="29"/>
+      <c r="D292" s="29"/>
+      <c r="E292" s="32"/>
+      <c r="F292" s="32"/>
     </row>
     <row r="293" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A293" s="33"/>
-      <c r="B293" s="33"/>
-      <c r="C293" s="33"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="36"/>
-      <c r="F293" s="36"/>
+      <c r="A293" s="29"/>
+      <c r="B293" s="29"/>
+      <c r="C293" s="29"/>
+      <c r="D293" s="29"/>
+      <c r="E293" s="32"/>
+      <c r="F293" s="32"/>
     </row>
     <row r="294" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A294" s="33"/>
-      <c r="B294" s="33"/>
-      <c r="C294" s="33"/>
-      <c r="D294" s="33"/>
-      <c r="E294" s="36"/>
-      <c r="F294" s="36"/>
+      <c r="A294" s="29"/>
+      <c r="B294" s="29"/>
+      <c r="C294" s="29"/>
+      <c r="D294" s="29"/>
+      <c r="E294" s="32"/>
+      <c r="F294" s="32"/>
     </row>
     <row r="295" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A295" s="33"/>
-      <c r="B295" s="33"/>
-      <c r="C295" s="33"/>
-      <c r="D295" s="33"/>
-      <c r="E295" s="36"/>
-      <c r="F295" s="36"/>
+      <c r="A295" s="29"/>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="32"/>
+      <c r="F295" s="32"/>
     </row>
     <row r="296" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A296" s="33"/>
-      <c r="B296" s="33"/>
-      <c r="C296" s="33"/>
-      <c r="D296" s="33"/>
-      <c r="E296" s="36"/>
-      <c r="F296" s="36"/>
+      <c r="A296" s="29"/>
+      <c r="B296" s="29"/>
+      <c r="C296" s="29"/>
+      <c r="D296" s="29"/>
+      <c r="E296" s="32"/>
+      <c r="F296" s="32"/>
     </row>
     <row r="297" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A297" s="33"/>
-      <c r="B297" s="33"/>
-      <c r="C297" s="33"/>
-      <c r="D297" s="33"/>
-      <c r="E297" s="36"/>
-      <c r="F297" s="36"/>
+      <c r="A297" s="29"/>
+      <c r="B297" s="29"/>
+      <c r="C297" s="29"/>
+      <c r="D297" s="29"/>
+      <c r="E297" s="32"/>
+      <c r="F297" s="32"/>
     </row>
     <row r="298" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A298" s="33"/>
-      <c r="B298" s="33"/>
-      <c r="C298" s="33"/>
-      <c r="D298" s="33"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
+      <c r="A298" s="29"/>
+      <c r="B298" s="29"/>
+      <c r="C298" s="29"/>
+      <c r="D298" s="29"/>
+      <c r="E298" s="32"/>
+      <c r="F298" s="32"/>
     </row>
     <row r="299" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A299" s="33"/>
-      <c r="B299" s="33"/>
-      <c r="C299" s="33"/>
-      <c r="D299" s="33"/>
-      <c r="E299" s="36"/>
-      <c r="F299" s="36"/>
+      <c r="A299" s="29"/>
+      <c r="B299" s="29"/>
+      <c r="C299" s="29"/>
+      <c r="D299" s="29"/>
+      <c r="E299" s="32"/>
+      <c r="F299" s="32"/>
     </row>
     <row r="300" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A300" s="33"/>
-      <c r="B300" s="33"/>
-      <c r="C300" s="33"/>
-      <c r="D300" s="33"/>
-      <c r="E300" s="36"/>
-      <c r="F300" s="36"/>
+      <c r="A300" s="29"/>
+      <c r="B300" s="29"/>
+      <c r="C300" s="29"/>
+      <c r="D300" s="29"/>
+      <c r="E300" s="32"/>
+      <c r="F300" s="32"/>
     </row>
     <row r="301" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A301" s="33"/>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="36"/>
-      <c r="F301" s="36"/>
+      <c r="A301" s="29"/>
+      <c r="B301" s="29"/>
+      <c r="C301" s="29"/>
+      <c r="D301" s="29"/>
+      <c r="E301" s="32"/>
+      <c r="F301" s="32"/>
     </row>
     <row r="302" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A302" s="33"/>
-      <c r="B302" s="33"/>
-      <c r="C302" s="33"/>
-      <c r="D302" s="33"/>
-      <c r="E302" s="36"/>
-      <c r="F302" s="36"/>
+      <c r="A302" s="29"/>
+      <c r="B302" s="29"/>
+      <c r="C302" s="29"/>
+      <c r="D302" s="29"/>
+      <c r="E302" s="32"/>
+      <c r="F302" s="32"/>
     </row>
     <row r="303" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A303" s="33"/>
-      <c r="B303" s="33"/>
-      <c r="C303" s="33"/>
-      <c r="D303" s="33"/>
-      <c r="E303" s="36"/>
-      <c r="F303" s="36"/>
+      <c r="A303" s="29"/>
+      <c r="B303" s="29"/>
+      <c r="C303" s="29"/>
+      <c r="D303" s="29"/>
+      <c r="E303" s="32"/>
+      <c r="F303" s="32"/>
     </row>
     <row r="304" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A304" s="33"/>
-      <c r="B304" s="33"/>
-      <c r="C304" s="33"/>
-      <c r="D304" s="33"/>
-      <c r="E304" s="36"/>
-      <c r="F304" s="36"/>
+      <c r="A304" s="29"/>
+      <c r="B304" s="29"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="29"/>
+      <c r="E304" s="32"/>
+      <c r="F304" s="32"/>
     </row>
     <row r="305" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A305" s="33"/>
-      <c r="B305" s="33"/>
-      <c r="C305" s="33"/>
-      <c r="D305" s="33"/>
-      <c r="E305" s="36"/>
-      <c r="F305" s="36"/>
+      <c r="A305" s="29"/>
+      <c r="B305" s="29"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="32"/>
+      <c r="F305" s="32"/>
     </row>
     <row r="306" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A306" s="33"/>
-      <c r="B306" s="33"/>
-      <c r="C306" s="33"/>
-      <c r="D306" s="33"/>
-      <c r="E306" s="36"/>
-      <c r="F306" s="36"/>
+      <c r="A306" s="29"/>
+      <c r="B306" s="29"/>
+      <c r="C306" s="29"/>
+      <c r="D306" s="29"/>
+      <c r="E306" s="32"/>
+      <c r="F306" s="32"/>
     </row>
     <row r="307" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A307" s="33"/>
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="36"/>
-      <c r="F307" s="36"/>
+      <c r="A307" s="29"/>
+      <c r="B307" s="29"/>
+      <c r="C307" s="29"/>
+      <c r="D307" s="29"/>
+      <c r="E307" s="32"/>
+      <c r="F307" s="32"/>
     </row>
     <row r="308" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A308" s="33"/>
-      <c r="B308" s="33"/>
-      <c r="C308" s="33"/>
-      <c r="D308" s="33"/>
-      <c r="E308" s="36"/>
-      <c r="F308" s="36"/>
+      <c r="A308" s="29"/>
+      <c r="B308" s="29"/>
+      <c r="C308" s="29"/>
+      <c r="D308" s="29"/>
+      <c r="E308" s="32"/>
+      <c r="F308" s="32"/>
     </row>
     <row r="309" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A309" s="33"/>
-      <c r="B309" s="33"/>
-      <c r="C309" s="33"/>
-      <c r="D309" s="33"/>
-      <c r="E309" s="36"/>
-      <c r="F309" s="36"/>
+      <c r="A309" s="29"/>
+      <c r="B309" s="29"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="29"/>
+      <c r="E309" s="32"/>
+      <c r="F309" s="32"/>
     </row>
     <row r="310" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A310" s="33"/>
-      <c r="B310" s="33"/>
-      <c r="C310" s="33"/>
-      <c r="D310" s="33"/>
-      <c r="E310" s="36"/>
-      <c r="F310" s="36"/>
+      <c r="A310" s="29"/>
+      <c r="B310" s="29"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="32"/>
+      <c r="F310" s="32"/>
     </row>
     <row r="311" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A311" s="33"/>
-      <c r="B311" s="33"/>
-      <c r="C311" s="33"/>
-      <c r="D311" s="33"/>
-      <c r="E311" s="36"/>
-      <c r="F311" s="36"/>
+      <c r="A311" s="29"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="29"/>
+      <c r="E311" s="32"/>
+      <c r="F311" s="32"/>
     </row>
     <row r="312" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A312" s="33"/>
-      <c r="B312" s="33"/>
-      <c r="C312" s="33"/>
-      <c r="D312" s="33"/>
-      <c r="E312" s="36"/>
-      <c r="F312" s="36"/>
+      <c r="A312" s="29"/>
+      <c r="B312" s="29"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="29"/>
+      <c r="E312" s="32"/>
+      <c r="F312" s="32"/>
     </row>
     <row r="313" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A313" s="33"/>
-      <c r="B313" s="33"/>
-      <c r="C313" s="33"/>
-      <c r="D313" s="33"/>
-      <c r="E313" s="36"/>
-      <c r="F313" s="36"/>
+      <c r="A313" s="29"/>
+      <c r="B313" s="29"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="29"/>
+      <c r="E313" s="32"/>
+      <c r="F313" s="32"/>
     </row>
     <row r="314" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A314" s="33"/>
-      <c r="B314" s="33"/>
-      <c r="C314" s="33"/>
-      <c r="D314" s="33"/>
-      <c r="E314" s="36"/>
-      <c r="F314" s="36"/>
+      <c r="A314" s="29"/>
+      <c r="B314" s="29"/>
+      <c r="C314" s="29"/>
+      <c r="D314" s="29"/>
+      <c r="E314" s="32"/>
+      <c r="F314" s="32"/>
     </row>
     <row r="315" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A315" s="33"/>
-      <c r="B315" s="33"/>
-      <c r="C315" s="33"/>
-      <c r="D315" s="33"/>
-      <c r="E315" s="36"/>
-      <c r="F315" s="36"/>
+      <c r="A315" s="29"/>
+      <c r="B315" s="29"/>
+      <c r="C315" s="29"/>
+      <c r="D315" s="29"/>
+      <c r="E315" s="32"/>
+      <c r="F315" s="32"/>
     </row>
     <row r="316" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A316" s="33"/>
-      <c r="B316" s="33"/>
-      <c r="C316" s="33"/>
-      <c r="D316" s="33"/>
-      <c r="E316" s="36"/>
-      <c r="F316" s="36"/>
+      <c r="A316" s="29"/>
+      <c r="B316" s="29"/>
+      <c r="C316" s="29"/>
+      <c r="D316" s="29"/>
+      <c r="E316" s="32"/>
+      <c r="F316" s="32"/>
     </row>
     <row r="317" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A317" s="33"/>
-      <c r="B317" s="33"/>
-      <c r="C317" s="33"/>
-      <c r="D317" s="33"/>
-      <c r="E317" s="36"/>
-      <c r="F317" s="36"/>
+      <c r="A317" s="29"/>
+      <c r="B317" s="29"/>
+      <c r="C317" s="29"/>
+      <c r="D317" s="29"/>
+      <c r="E317" s="32"/>
+      <c r="F317" s="32"/>
     </row>
     <row r="318" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A318" s="33"/>
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="36"/>
-      <c r="F318" s="36"/>
+      <c r="A318" s="29"/>
+      <c r="B318" s="29"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="29"/>
+      <c r="E318" s="32"/>
+      <c r="F318" s="32"/>
     </row>
     <row r="319" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A319" s="33"/>
-      <c r="B319" s="33"/>
-      <c r="C319" s="33"/>
-      <c r="D319" s="33"/>
-      <c r="E319" s="36"/>
-      <c r="F319" s="36"/>
+      <c r="A319" s="29"/>
+      <c r="B319" s="29"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="29"/>
+      <c r="E319" s="32"/>
+      <c r="F319" s="32"/>
     </row>
     <row r="320" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A320" s="33"/>
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
-      <c r="D320" s="33"/>
-      <c r="E320" s="36"/>
-      <c r="F320" s="36"/>
+      <c r="A320" s="29"/>
+      <c r="B320" s="29"/>
+      <c r="C320" s="29"/>
+      <c r="D320" s="29"/>
+      <c r="E320" s="32"/>
+      <c r="F320" s="32"/>
     </row>
     <row r="321" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A321" s="33"/>
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
-      <c r="D321" s="33"/>
-      <c r="E321" s="36"/>
-      <c r="F321" s="36"/>
+      <c r="A321" s="29"/>
+      <c r="B321" s="29"/>
+      <c r="C321" s="29"/>
+      <c r="D321" s="29"/>
+      <c r="E321" s="32"/>
+      <c r="F321" s="32"/>
     </row>
     <row r="322" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A322" s="33"/>
-      <c r="B322" s="33"/>
-      <c r="C322" s="33"/>
-      <c r="D322" s="33"/>
-      <c r="E322" s="36"/>
-      <c r="F322" s="36"/>
+      <c r="A322" s="29"/>
+      <c r="B322" s="29"/>
+      <c r="C322" s="29"/>
+      <c r="D322" s="29"/>
+      <c r="E322" s="32"/>
+      <c r="F322" s="32"/>
     </row>
     <row r="323" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A323" s="33"/>
-      <c r="B323" s="33"/>
-      <c r="C323" s="33"/>
-      <c r="D323" s="33"/>
-      <c r="E323" s="36"/>
-      <c r="F323" s="36"/>
+      <c r="A323" s="29"/>
+      <c r="B323" s="29"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
+      <c r="E323" s="32"/>
+      <c r="F323" s="32"/>
     </row>
     <row r="324" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A324" s="33"/>
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
-      <c r="D324" s="33"/>
-      <c r="E324" s="36"/>
-      <c r="F324" s="36"/>
+      <c r="A324" s="29"/>
+      <c r="B324" s="29"/>
+      <c r="C324" s="29"/>
+      <c r="D324" s="29"/>
+      <c r="E324" s="32"/>
+      <c r="F324" s="32"/>
     </row>
     <row r="325" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A325" s="33"/>
-      <c r="B325" s="33"/>
-      <c r="C325" s="33"/>
-      <c r="D325" s="33"/>
-      <c r="E325" s="36"/>
-      <c r="F325" s="36"/>
+      <c r="A325" s="29"/>
+      <c r="B325" s="29"/>
+      <c r="C325" s="29"/>
+      <c r="D325" s="29"/>
+      <c r="E325" s="32"/>
+      <c r="F325" s="32"/>
     </row>
     <row r="326" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A326" s="33"/>
-      <c r="B326" s="33"/>
-      <c r="C326" s="33"/>
-      <c r="D326" s="33"/>
-      <c r="E326" s="36"/>
-      <c r="F326" s="36"/>
+      <c r="A326" s="29"/>
+      <c r="B326" s="29"/>
+      <c r="C326" s="29"/>
+      <c r="D326" s="29"/>
+      <c r="E326" s="32"/>
+      <c r="F326" s="32"/>
     </row>
     <row r="327" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A327" s="33"/>
-      <c r="B327" s="33"/>
-      <c r="C327" s="33"/>
-      <c r="D327" s="33"/>
-      <c r="E327" s="36"/>
-      <c r="F327" s="36"/>
+      <c r="A327" s="29"/>
+      <c r="B327" s="29"/>
+      <c r="C327" s="29"/>
+      <c r="D327" s="29"/>
+      <c r="E327" s="32"/>
+      <c r="F327" s="32"/>
     </row>
     <row r="328" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A328" s="33"/>
-      <c r="B328" s="33"/>
-      <c r="C328" s="33"/>
-      <c r="D328" s="33"/>
-      <c r="E328" s="36"/>
-      <c r="F328" s="36"/>
+      <c r="A328" s="29"/>
+      <c r="B328" s="29"/>
+      <c r="C328" s="29"/>
+      <c r="D328" s="29"/>
+      <c r="E328" s="32"/>
+      <c r="F328" s="32"/>
     </row>
     <row r="329" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A329" s="33"/>
-      <c r="B329" s="33"/>
-      <c r="C329" s="33"/>
-      <c r="D329" s="33"/>
-      <c r="E329" s="36"/>
-      <c r="F329" s="36"/>
+      <c r="A329" s="29"/>
+      <c r="B329" s="29"/>
+      <c r="C329" s="29"/>
+      <c r="D329" s="29"/>
+      <c r="E329" s="32"/>
+      <c r="F329" s="32"/>
     </row>
     <row r="330" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A330" s="33"/>
-      <c r="B330" s="33"/>
-      <c r="C330" s="33"/>
-      <c r="D330" s="33"/>
-      <c r="E330" s="36"/>
-      <c r="F330" s="36"/>
+      <c r="A330" s="29"/>
+      <c r="B330" s="29"/>
+      <c r="C330" s="29"/>
+      <c r="D330" s="29"/>
+      <c r="E330" s="32"/>
+      <c r="F330" s="32"/>
     </row>
     <row r="331" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A331" s="33"/>
-      <c r="B331" s="33"/>
-      <c r="C331" s="33"/>
-      <c r="D331" s="33"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
+      <c r="A331" s="29"/>
+      <c r="B331" s="29"/>
+      <c r="C331" s="29"/>
+      <c r="D331" s="29"/>
+      <c r="E331" s="32"/>
+      <c r="F331" s="32"/>
     </row>
     <row r="332" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A332" s="33"/>
-      <c r="B332" s="33"/>
-      <c r="C332" s="33"/>
-      <c r="D332" s="33"/>
-      <c r="E332" s="36"/>
-      <c r="F332" s="36"/>
+      <c r="A332" s="29"/>
+      <c r="B332" s="29"/>
+      <c r="C332" s="29"/>
+      <c r="D332" s="29"/>
+      <c r="E332" s="32"/>
+      <c r="F332" s="32"/>
     </row>
     <row r="333" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A333" s="33"/>
-      <c r="B333" s="33"/>
-      <c r="C333" s="33"/>
-      <c r="D333" s="33"/>
-      <c r="E333" s="36"/>
-      <c r="F333" s="36"/>
+      <c r="A333" s="29"/>
+      <c r="B333" s="29"/>
+      <c r="C333" s="29"/>
+      <c r="D333" s="29"/>
+      <c r="E333" s="32"/>
+      <c r="F333" s="32"/>
     </row>
     <row r="334" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A334" s="33"/>
-      <c r="B334" s="33"/>
-      <c r="C334" s="33"/>
-      <c r="D334" s="33"/>
-      <c r="E334" s="36"/>
-      <c r="F334" s="36"/>
+      <c r="A334" s="29"/>
+      <c r="B334" s="29"/>
+      <c r="C334" s="29"/>
+      <c r="D334" s="29"/>
+      <c r="E334" s="32"/>
+      <c r="F334" s="32"/>
     </row>
     <row r="335" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A335" s="33"/>
-      <c r="B335" s="33"/>
-      <c r="C335" s="33"/>
-      <c r="D335" s="33"/>
-      <c r="E335" s="36"/>
-      <c r="F335" s="36"/>
+      <c r="A335" s="29"/>
+      <c r="B335" s="29"/>
+      <c r="C335" s="29"/>
+      <c r="D335" s="29"/>
+      <c r="E335" s="32"/>
+      <c r="F335" s="32"/>
     </row>
     <row r="336" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A336" s="33"/>
-      <c r="B336" s="33"/>
-      <c r="C336" s="33"/>
-      <c r="D336" s="33"/>
-      <c r="E336" s="36"/>
-      <c r="F336" s="36"/>
+      <c r="A336" s="29"/>
+      <c r="B336" s="29"/>
+      <c r="C336" s="29"/>
+      <c r="D336" s="29"/>
+      <c r="E336" s="32"/>
+      <c r="F336" s="32"/>
     </row>
     <row r="337" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A337" s="33"/>
-      <c r="B337" s="33"/>
-      <c r="C337" s="33"/>
-      <c r="D337" s="33"/>
-      <c r="E337" s="36"/>
-      <c r="F337" s="36"/>
+      <c r="A337" s="29"/>
+      <c r="B337" s="29"/>
+      <c r="C337" s="29"/>
+      <c r="D337" s="29"/>
+      <c r="E337" s="32"/>
+      <c r="F337" s="32"/>
     </row>
     <row r="338" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A338" s="33"/>
-      <c r="B338" s="33"/>
-      <c r="C338" s="33"/>
-      <c r="D338" s="33"/>
-      <c r="E338" s="36"/>
-      <c r="F338" s="36"/>
+      <c r="A338" s="29"/>
+      <c r="B338" s="29"/>
+      <c r="C338" s="29"/>
+      <c r="D338" s="29"/>
+      <c r="E338" s="32"/>
+      <c r="F338" s="32"/>
     </row>
     <row r="339" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A339" s="33"/>
-      <c r="B339" s="33"/>
-      <c r="C339" s="33"/>
-      <c r="D339" s="33"/>
-      <c r="E339" s="36"/>
-      <c r="F339" s="36"/>
+      <c r="A339" s="29"/>
+      <c r="B339" s="29"/>
+      <c r="C339" s="29"/>
+      <c r="D339" s="29"/>
+      <c r="E339" s="32"/>
+      <c r="F339" s="32"/>
     </row>
     <row r="340" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A340" s="33"/>
-      <c r="B340" s="33"/>
-      <c r="C340" s="33"/>
-      <c r="D340" s="33"/>
-      <c r="E340" s="36"/>
-      <c r="F340" s="36"/>
+      <c r="A340" s="29"/>
+      <c r="B340" s="29"/>
+      <c r="C340" s="29"/>
+      <c r="D340" s="29"/>
+      <c r="E340" s="32"/>
+      <c r="F340" s="32"/>
     </row>
     <row r="341" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A341" s="33"/>
-      <c r="B341" s="33"/>
-      <c r="C341" s="33"/>
-      <c r="D341" s="33"/>
-      <c r="E341" s="36"/>
-      <c r="F341" s="36"/>
+      <c r="A341" s="29"/>
+      <c r="B341" s="29"/>
+      <c r="C341" s="29"/>
+      <c r="D341" s="29"/>
+      <c r="E341" s="32"/>
+      <c r="F341" s="32"/>
     </row>
     <row r="342" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A342" s="33"/>
-      <c r="B342" s="33"/>
-      <c r="C342" s="33"/>
-      <c r="D342" s="33"/>
-      <c r="E342" s="36"/>
-      <c r="F342" s="36"/>
+      <c r="A342" s="29"/>
+      <c r="B342" s="29"/>
+      <c r="C342" s="29"/>
+      <c r="D342" s="29"/>
+      <c r="E342" s="32"/>
+      <c r="F342" s="32"/>
     </row>
     <row r="343" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A343" s="33"/>
-      <c r="B343" s="33"/>
-      <c r="C343" s="33"/>
-      <c r="D343" s="33"/>
-      <c r="E343" s="36"/>
-      <c r="F343" s="36"/>
+      <c r="A343" s="29"/>
+      <c r="B343" s="29"/>
+      <c r="C343" s="29"/>
+      <c r="D343" s="29"/>
+      <c r="E343" s="32"/>
+      <c r="F343" s="32"/>
     </row>
     <row r="344" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A344" s="33"/>
-      <c r="B344" s="33"/>
-      <c r="C344" s="33"/>
-      <c r="D344" s="33"/>
-      <c r="E344" s="36"/>
-      <c r="F344" s="36"/>
+      <c r="A344" s="29"/>
+      <c r="B344" s="29"/>
+      <c r="C344" s="29"/>
+      <c r="D344" s="29"/>
+      <c r="E344" s="32"/>
+      <c r="F344" s="32"/>
     </row>
     <row r="345" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A345" s="33"/>
-      <c r="B345" s="33"/>
-      <c r="C345" s="33"/>
-      <c r="D345" s="33"/>
-      <c r="E345" s="36"/>
-      <c r="F345" s="36"/>
+      <c r="A345" s="29"/>
+      <c r="B345" s="29"/>
+      <c r="C345" s="29"/>
+      <c r="D345" s="29"/>
+      <c r="E345" s="32"/>
+      <c r="F345" s="32"/>
     </row>
     <row r="346" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A346" s="33"/>
-      <c r="B346" s="33"/>
-      <c r="C346" s="33"/>
-      <c r="D346" s="33"/>
-      <c r="E346" s="36"/>
-      <c r="F346" s="36"/>
+      <c r="A346" s="29"/>
+      <c r="B346" s="29"/>
+      <c r="C346" s="29"/>
+      <c r="D346" s="29"/>
+      <c r="E346" s="32"/>
+      <c r="F346" s="32"/>
     </row>
     <row r="347" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A347" s="33"/>
-      <c r="B347" s="33"/>
-      <c r="C347" s="33"/>
-      <c r="D347" s="33"/>
-      <c r="E347" s="36"/>
-      <c r="F347" s="36"/>
+      <c r="A347" s="29"/>
+      <c r="B347" s="29"/>
+      <c r="C347" s="29"/>
+      <c r="D347" s="29"/>
+      <c r="E347" s="32"/>
+      <c r="F347" s="32"/>
     </row>
     <row r="348" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A348" s="33"/>
-      <c r="B348" s="33"/>
-      <c r="C348" s="33"/>
-      <c r="D348" s="33"/>
-      <c r="E348" s="33"/>
-      <c r="F348" s="33"/>
+      <c r="A348" s="29"/>
+      <c r="B348" s="29"/>
+      <c r="C348" s="29"/>
+      <c r="D348" s="29"/>
+      <c r="E348" s="29"/>
+      <c r="F348" s="29"/>
     </row>
     <row r="349" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A349" s="33"/>
-      <c r="B349" s="33"/>
-      <c r="C349" s="33"/>
-      <c r="D349" s="33"/>
-      <c r="E349" s="33"/>
-      <c r="F349" s="33"/>
+      <c r="A349" s="29"/>
+      <c r="B349" s="29"/>
+      <c r="C349" s="29"/>
+      <c r="D349" s="29"/>
+      <c r="E349" s="29"/>
+      <c r="F349" s="29"/>
     </row>
     <row r="350" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A350" s="33"/>
-      <c r="B350" s="33"/>
-      <c r="C350" s="33"/>
-      <c r="D350" s="33"/>
-      <c r="E350" s="33"/>
-      <c r="F350" s="33"/>
+      <c r="A350" s="29"/>
+      <c r="B350" s="29"/>
+      <c r="C350" s="29"/>
+      <c r="D350" s="29"/>
+      <c r="E350" s="29"/>
+      <c r="F350" s="29"/>
     </row>
     <row r="351" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A351" s="33"/>
-      <c r="B351" s="33"/>
-      <c r="C351" s="33"/>
-      <c r="D351" s="33"/>
-      <c r="E351" s="33"/>
-      <c r="F351" s="33"/>
+      <c r="A351" s="29"/>
+      <c r="B351" s="29"/>
+      <c r="C351" s="29"/>
+      <c r="D351" s="29"/>
+      <c r="E351" s="29"/>
+      <c r="F351" s="29"/>
     </row>
     <row r="352" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A352" s="33"/>
-      <c r="B352" s="33"/>
-      <c r="C352" s="33"/>
-      <c r="D352" s="33"/>
-      <c r="E352" s="33"/>
-      <c r="F352" s="33"/>
+      <c r="A352" s="29"/>
+      <c r="B352" s="29"/>
+      <c r="C352" s="29"/>
+      <c r="D352" s="29"/>
+      <c r="E352" s="29"/>
+      <c r="F352" s="29"/>
     </row>
     <row r="353" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A353" s="33"/>
-      <c r="B353" s="33"/>
-      <c r="C353" s="33"/>
-      <c r="D353" s="33"/>
-      <c r="E353" s="33"/>
-      <c r="F353" s="33"/>
+      <c r="A353" s="29"/>
+      <c r="B353" s="29"/>
+      <c r="C353" s="29"/>
+      <c r="D353" s="29"/>
+      <c r="E353" s="29"/>
+      <c r="F353" s="29"/>
     </row>
     <row r="354" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A354" s="33"/>
-      <c r="B354" s="33"/>
-      <c r="C354" s="33"/>
-      <c r="D354" s="33"/>
-      <c r="E354" s="33"/>
-      <c r="F354" s="33"/>
+      <c r="A354" s="29"/>
+      <c r="B354" s="29"/>
+      <c r="C354" s="29"/>
+      <c r="D354" s="29"/>
+      <c r="E354" s="29"/>
+      <c r="F354" s="29"/>
     </row>
     <row r="355" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A355" s="33"/>
-      <c r="B355" s="33"/>
-      <c r="C355" s="33"/>
-      <c r="D355" s="33"/>
-      <c r="E355" s="33"/>
-      <c r="F355" s="33"/>
+      <c r="A355" s="29"/>
+      <c r="B355" s="29"/>
+      <c r="C355" s="29"/>
+      <c r="D355" s="29"/>
+      <c r="E355" s="29"/>
+      <c r="F355" s="29"/>
     </row>
     <row r="356" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A356" s="33"/>
-      <c r="B356" s="33"/>
-      <c r="C356" s="33"/>
-      <c r="D356" s="33"/>
-      <c r="E356" s="33"/>
-      <c r="F356" s="33"/>
+      <c r="A356" s="29"/>
+      <c r="B356" s="29"/>
+      <c r="C356" s="29"/>
+      <c r="D356" s="29"/>
+      <c r="E356" s="29"/>
+      <c r="F356" s="29"/>
     </row>
     <row r="357" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A357" s="33"/>
-      <c r="B357" s="33"/>
-      <c r="C357" s="33"/>
-      <c r="D357" s="33"/>
-      <c r="E357" s="33"/>
-      <c r="F357" s="33"/>
+      <c r="A357" s="29"/>
+      <c r="B357" s="29"/>
+      <c r="C357" s="29"/>
+      <c r="D357" s="29"/>
+      <c r="E357" s="29"/>
+      <c r="F357" s="29"/>
     </row>
     <row r="358" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A358" s="33"/>
-      <c r="B358" s="33"/>
-      <c r="C358" s="33"/>
-      <c r="D358" s="33"/>
-      <c r="E358" s="33"/>
-      <c r="F358" s="33"/>
+      <c r="A358" s="29"/>
+      <c r="B358" s="29"/>
+      <c r="C358" s="29"/>
+      <c r="D358" s="29"/>
+      <c r="E358" s="29"/>
+      <c r="F358" s="29"/>
     </row>
     <row r="359" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A359" s="33"/>
-      <c r="B359" s="33"/>
-      <c r="C359" s="33"/>
-      <c r="D359" s="33"/>
-      <c r="E359" s="33"/>
-      <c r="F359" s="33"/>
+      <c r="A359" s="29"/>
+      <c r="B359" s="29"/>
+      <c r="C359" s="29"/>
+      <c r="D359" s="29"/>
+      <c r="E359" s="29"/>
+      <c r="F359" s="29"/>
     </row>
     <row r="360" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A360" s="33"/>
-      <c r="B360" s="33"/>
-      <c r="C360" s="33"/>
-      <c r="D360" s="33"/>
-      <c r="E360" s="33"/>
-      <c r="F360" s="33"/>
+      <c r="A360" s="29"/>
+      <c r="B360" s="29"/>
+      <c r="C360" s="29"/>
+      <c r="D360" s="29"/>
+      <c r="E360" s="29"/>
+      <c r="F360" s="29"/>
     </row>
     <row r="361" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A361" s="33"/>
-      <c r="B361" s="33"/>
-      <c r="C361" s="33"/>
-      <c r="D361" s="33"/>
-      <c r="E361" s="33"/>
-      <c r="F361" s="33"/>
+      <c r="A361" s="29"/>
+      <c r="B361" s="29"/>
+      <c r="C361" s="29"/>
+      <c r="D361" s="29"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="29"/>
     </row>
     <row r="362" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A362" s="33"/>
-      <c r="B362" s="33"/>
-      <c r="C362" s="33"/>
-      <c r="D362" s="33"/>
-      <c r="E362" s="33"/>
-      <c r="F362" s="33"/>
+      <c r="A362" s="29"/>
+      <c r="B362" s="29"/>
+      <c r="C362" s="29"/>
+      <c r="D362" s="29"/>
+      <c r="E362" s="29"/>
+      <c r="F362" s="29"/>
     </row>
     <row r="363" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A363" s="33"/>
-      <c r="B363" s="33"/>
-      <c r="C363" s="33"/>
-      <c r="D363" s="33"/>
-      <c r="E363" s="33"/>
-      <c r="F363" s="33"/>
+      <c r="A363" s="29"/>
+      <c r="B363" s="29"/>
+      <c r="C363" s="29"/>
+      <c r="D363" s="29"/>
+      <c r="E363" s="29"/>
+      <c r="F363" s="29"/>
     </row>
     <row r="364" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A364" s="33"/>
-      <c r="B364" s="33"/>
-      <c r="C364" s="33"/>
-      <c r="D364" s="33"/>
-      <c r="E364" s="33"/>
-      <c r="F364" s="33"/>
+      <c r="A364" s="29"/>
+      <c r="B364" s="29"/>
+      <c r="C364" s="29"/>
+      <c r="D364" s="29"/>
+      <c r="E364" s="29"/>
+      <c r="F364" s="29"/>
     </row>
     <row r="365" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A365" s="33"/>
-      <c r="B365" s="33"/>
-      <c r="C365" s="33"/>
-      <c r="D365" s="33"/>
-      <c r="E365" s="33"/>
-      <c r="F365" s="33"/>
+      <c r="A365" s="29"/>
+      <c r="B365" s="29"/>
+      <c r="C365" s="29"/>
+      <c r="D365" s="29"/>
+      <c r="E365" s="29"/>
+      <c r="F365" s="29"/>
     </row>
     <row r="366" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A366" s="33"/>
-      <c r="B366" s="33"/>
-      <c r="C366" s="33"/>
-      <c r="D366" s="33"/>
-      <c r="E366" s="33"/>
-      <c r="F366" s="33"/>
+      <c r="A366" s="29"/>
+      <c r="B366" s="29"/>
+      <c r="C366" s="29"/>
+      <c r="D366" s="29"/>
+      <c r="E366" s="29"/>
+      <c r="F366" s="29"/>
     </row>
     <row r="367" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A367" s="33"/>
-      <c r="B367" s="33"/>
-      <c r="C367" s="33"/>
-      <c r="D367" s="33"/>
-      <c r="E367" s="33"/>
-      <c r="F367" s="33"/>
+      <c r="A367" s="29"/>
+      <c r="B367" s="29"/>
+      <c r="C367" s="29"/>
+      <c r="D367" s="29"/>
+      <c r="E367" s="29"/>
+      <c r="F367" s="29"/>
     </row>
     <row r="368" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A368" s="33"/>
-      <c r="B368" s="33"/>
-      <c r="C368" s="33"/>
-      <c r="D368" s="33"/>
-      <c r="E368" s="33"/>
-      <c r="F368" s="33"/>
+      <c r="A368" s="29"/>
+      <c r="B368" s="29"/>
+      <c r="C368" s="29"/>
+      <c r="D368" s="29"/>
+      <c r="E368" s="29"/>
+      <c r="F368" s="29"/>
     </row>
     <row r="369" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A369" s="33"/>
-      <c r="B369" s="33"/>
-      <c r="C369" s="33"/>
-      <c r="D369" s="33"/>
-      <c r="E369" s="33"/>
-      <c r="F369" s="33"/>
+      <c r="A369" s="29"/>
+      <c r="B369" s="29"/>
+      <c r="C369" s="29"/>
+      <c r="D369" s="29"/>
+      <c r="E369" s="29"/>
+      <c r="F369" s="29"/>
     </row>
     <row r="370" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A370" s="33"/>
-      <c r="B370" s="33"/>
-      <c r="C370" s="33"/>
-      <c r="D370" s="33"/>
-      <c r="E370" s="33"/>
-      <c r="F370" s="33"/>
+      <c r="A370" s="29"/>
+      <c r="B370" s="29"/>
+      <c r="C370" s="29"/>
+      <c r="D370" s="29"/>
+      <c r="E370" s="29"/>
+      <c r="F370" s="29"/>
     </row>
     <row r="371" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A371" s="33"/>
-      <c r="B371" s="33"/>
-      <c r="C371" s="33"/>
-      <c r="D371" s="33"/>
-      <c r="E371" s="33"/>
-      <c r="F371" s="33"/>
+      <c r="A371" s="29"/>
+      <c r="B371" s="29"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="29"/>
+      <c r="E371" s="29"/>
+      <c r="F371" s="29"/>
     </row>
     <row r="372" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A372" s="33"/>
-      <c r="B372" s="33"/>
-      <c r="C372" s="33"/>
-      <c r="D372" s="33"/>
-      <c r="E372" s="33"/>
-      <c r="F372" s="33"/>
+      <c r="A372" s="29"/>
+      <c r="B372" s="29"/>
+      <c r="C372" s="29"/>
+      <c r="D372" s="29"/>
+      <c r="E372" s="29"/>
+      <c r="F372" s="29"/>
     </row>
     <row r="373" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A373" s="33"/>
-      <c r="B373" s="33"/>
-      <c r="C373" s="33"/>
-      <c r="D373" s="33"/>
-      <c r="E373" s="33"/>
-      <c r="F373" s="33"/>
+      <c r="A373" s="29"/>
+      <c r="B373" s="29"/>
+      <c r="C373" s="29"/>
+      <c r="D373" s="29"/>
+      <c r="E373" s="29"/>
+      <c r="F373" s="29"/>
     </row>
     <row r="374" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A374" s="33"/>
-      <c r="B374" s="33"/>
-      <c r="C374" s="33"/>
-      <c r="D374" s="33"/>
-      <c r="E374" s="33"/>
-      <c r="F374" s="33"/>
+      <c r="A374" s="29"/>
+      <c r="B374" s="29"/>
+      <c r="C374" s="29"/>
+      <c r="D374" s="29"/>
+      <c r="E374" s="29"/>
+      <c r="F374" s="29"/>
     </row>
     <row r="375" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A375" s="33"/>
-      <c r="B375" s="33"/>
-      <c r="C375" s="33"/>
-      <c r="D375" s="33"/>
-      <c r="E375" s="33"/>
-      <c r="F375" s="33"/>
+      <c r="A375" s="29"/>
+      <c r="B375" s="29"/>
+      <c r="C375" s="29"/>
+      <c r="D375" s="29"/>
+      <c r="E375" s="29"/>
+      <c r="F375" s="29"/>
     </row>
     <row r="376" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A376" s="33"/>
-      <c r="B376" s="33"/>
-      <c r="C376" s="33"/>
-      <c r="D376" s="33"/>
-      <c r="E376" s="33"/>
-      <c r="F376" s="33"/>
+      <c r="A376" s="29"/>
+      <c r="B376" s="29"/>
+      <c r="C376" s="29"/>
+      <c r="D376" s="29"/>
+      <c r="E376" s="29"/>
+      <c r="F376" s="29"/>
     </row>
     <row r="377" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A377" s="33"/>
-      <c r="B377" s="33"/>
-      <c r="C377" s="33"/>
-      <c r="D377" s="33"/>
-      <c r="E377" s="33"/>
-      <c r="F377" s="33"/>
+      <c r="A377" s="29"/>
+      <c r="B377" s="29"/>
+      <c r="C377" s="29"/>
+      <c r="D377" s="29"/>
+      <c r="E377" s="29"/>
+      <c r="F377" s="29"/>
     </row>
     <row r="378" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A378" s="33"/>
-      <c r="B378" s="33"/>
-      <c r="C378" s="33"/>
-      <c r="D378" s="33"/>
-      <c r="E378" s="33"/>
-      <c r="F378" s="33"/>
+      <c r="A378" s="29"/>
+      <c r="B378" s="29"/>
+      <c r="C378" s="29"/>
+      <c r="D378" s="29"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="29"/>
     </row>
     <row r="379" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A379" s="33"/>
-      <c r="B379" s="33"/>
-      <c r="C379" s="33"/>
-      <c r="D379" s="33"/>
-      <c r="E379" s="33"/>
-      <c r="F379" s="33"/>
+      <c r="A379" s="29"/>
+      <c r="B379" s="29"/>
+      <c r="C379" s="29"/>
+      <c r="D379" s="29"/>
+      <c r="E379" s="29"/>
+      <c r="F379" s="29"/>
     </row>
     <row r="380" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A380" s="33"/>
-      <c r="B380" s="33"/>
-      <c r="C380" s="33"/>
-      <c r="D380" s="33"/>
-      <c r="E380" s="33"/>
-      <c r="F380" s="33"/>
+      <c r="A380" s="29"/>
+      <c r="B380" s="29"/>
+      <c r="C380" s="29"/>
+      <c r="D380" s="29"/>
+      <c r="E380" s="29"/>
+      <c r="F380" s="29"/>
     </row>
     <row r="381" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A381" s="33"/>
-      <c r="B381" s="33"/>
-      <c r="C381" s="33"/>
-      <c r="D381" s="33"/>
-      <c r="E381" s="33"/>
-      <c r="F381" s="33"/>
+      <c r="A381" s="29"/>
+      <c r="B381" s="29"/>
+      <c r="C381" s="29"/>
+      <c r="D381" s="29"/>
+      <c r="E381" s="29"/>
+      <c r="F381" s="29"/>
     </row>
     <row r="382" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A382" s="33"/>
-      <c r="B382" s="33"/>
-      <c r="C382" s="33"/>
-      <c r="D382" s="33"/>
-      <c r="E382" s="33"/>
-      <c r="F382" s="33"/>
+      <c r="A382" s="29"/>
+      <c r="B382" s="29"/>
+      <c r="C382" s="29"/>
+      <c r="D382" s="29"/>
+      <c r="E382" s="29"/>
+      <c r="F382" s="29"/>
     </row>
     <row r="383" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A383" s="33"/>
-      <c r="B383" s="33"/>
-      <c r="C383" s="33"/>
-      <c r="D383" s="33"/>
-      <c r="E383" s="33"/>
-      <c r="F383" s="33"/>
+      <c r="A383" s="29"/>
+      <c r="B383" s="29"/>
+      <c r="C383" s="29"/>
+      <c r="D383" s="29"/>
+      <c r="E383" s="29"/>
+      <c r="F383" s="29"/>
     </row>
     <row r="384" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A384" s="33"/>
-      <c r="B384" s="33"/>
-      <c r="C384" s="33"/>
-      <c r="D384" s="33"/>
-      <c r="E384" s="33"/>
-      <c r="F384" s="33"/>
+      <c r="A384" s="29"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
+      <c r="F384" s="29"/>
     </row>
     <row r="385" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A385" s="33"/>
-      <c r="B385" s="33"/>
-      <c r="C385" s="33"/>
-      <c r="D385" s="33"/>
-      <c r="E385" s="33"/>
-      <c r="F385" s="33"/>
+      <c r="A385" s="29"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="29"/>
+      <c r="D385" s="29"/>
+      <c r="E385" s="29"/>
+      <c r="F385" s="29"/>
     </row>
     <row r="386" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A386" s="33"/>
-      <c r="B386" s="33"/>
-      <c r="C386" s="33"/>
-      <c r="D386" s="33"/>
-      <c r="E386" s="33"/>
-      <c r="F386" s="33"/>
+      <c r="A386" s="29"/>
+      <c r="B386" s="29"/>
+      <c r="C386" s="29"/>
+      <c r="D386" s="29"/>
+      <c r="E386" s="29"/>
+      <c r="F386" s="29"/>
     </row>
     <row r="387" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A387" s="33"/>
-      <c r="B387" s="33"/>
-      <c r="C387" s="33"/>
-      <c r="D387" s="33"/>
-      <c r="E387" s="33"/>
-      <c r="F387" s="33"/>
+      <c r="A387" s="29"/>
+      <c r="B387" s="29"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="29"/>
+      <c r="E387" s="29"/>
+      <c r="F387" s="29"/>
     </row>
     <row r="388" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A388" s="33"/>
-      <c r="B388" s="33"/>
-      <c r="C388" s="33"/>
-      <c r="D388" s="33"/>
-      <c r="E388" s="33"/>
-      <c r="F388" s="33"/>
+      <c r="A388" s="29"/>
+      <c r="B388" s="29"/>
+      <c r="C388" s="29"/>
+      <c r="D388" s="29"/>
+      <c r="E388" s="29"/>
+      <c r="F388" s="29"/>
     </row>
     <row r="389" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A389" s="33"/>
-      <c r="B389" s="33"/>
-      <c r="C389" s="33"/>
-      <c r="D389" s="33"/>
-      <c r="E389" s="33"/>
-      <c r="F389" s="33"/>
+      <c r="A389" s="29"/>
+      <c r="B389" s="29"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="29"/>
+      <c r="E389" s="29"/>
+      <c r="F389" s="29"/>
     </row>
     <row r="390" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A390" s="33"/>
-      <c r="B390" s="33"/>
-      <c r="C390" s="33"/>
-      <c r="D390" s="33"/>
-      <c r="E390" s="33"/>
-      <c r="F390" s="33"/>
+      <c r="A390" s="29"/>
+      <c r="B390" s="29"/>
+      <c r="C390" s="29"/>
+      <c r="D390" s="29"/>
+      <c r="E390" s="29"/>
+      <c r="F390" s="29"/>
     </row>
     <row r="391" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A391" s="33"/>
-      <c r="B391" s="33"/>
-      <c r="C391" s="33"/>
-      <c r="D391" s="33"/>
-      <c r="E391" s="33"/>
-      <c r="F391" s="33"/>
+      <c r="A391" s="29"/>
+      <c r="B391" s="29"/>
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+      <c r="E391" s="29"/>
+      <c r="F391" s="29"/>
     </row>
     <row r="392" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A392" s="33"/>
-      <c r="B392" s="33"/>
-      <c r="C392" s="33"/>
-      <c r="D392" s="33"/>
-      <c r="E392" s="33"/>
-      <c r="F392" s="33"/>
+      <c r="A392" s="29"/>
+      <c r="B392" s="29"/>
+      <c r="C392" s="29"/>
+      <c r="D392" s="29"/>
+      <c r="E392" s="29"/>
+      <c r="F392" s="29"/>
     </row>
     <row r="393" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A393" s="33"/>
-      <c r="B393" s="33"/>
-      <c r="C393" s="33"/>
-      <c r="D393" s="33"/>
-      <c r="E393" s="33"/>
-      <c r="F393" s="33"/>
+      <c r="A393" s="29"/>
+      <c r="B393" s="29"/>
+      <c r="C393" s="29"/>
+      <c r="D393" s="29"/>
+      <c r="E393" s="29"/>
+      <c r="F393" s="29"/>
     </row>
     <row r="394" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A394" s="33"/>
-      <c r="B394" s="33"/>
-      <c r="C394" s="33"/>
-      <c r="D394" s="33"/>
-      <c r="E394" s="33"/>
-      <c r="F394" s="33"/>
+      <c r="A394" s="29"/>
+      <c r="B394" s="29"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="29"/>
+      <c r="E394" s="29"/>
+      <c r="F394" s="29"/>
     </row>
     <row r="395" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A395" s="33"/>
-      <c r="B395" s="33"/>
-      <c r="C395" s="33"/>
-      <c r="D395" s="33"/>
-      <c r="E395" s="33"/>
-      <c r="F395" s="33"/>
+      <c r="A395" s="29"/>
+      <c r="B395" s="29"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="29"/>
+      <c r="E395" s="29"/>
+      <c r="F395" s="29"/>
     </row>
     <row r="396" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A396" s="33"/>
-      <c r="B396" s="33"/>
-      <c r="C396" s="33"/>
-      <c r="D396" s="33"/>
-      <c r="E396" s="33"/>
-      <c r="F396" s="33"/>
+      <c r="A396" s="29"/>
+      <c r="B396" s="29"/>
+      <c r="C396" s="29"/>
+      <c r="D396" s="29"/>
+      <c r="E396" s="29"/>
+      <c r="F396" s="29"/>
     </row>
     <row r="397" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A397" s="33"/>
-      <c r="B397" s="33"/>
-      <c r="C397" s="33"/>
-      <c r="D397" s="33"/>
-      <c r="E397" s="33"/>
-      <c r="F397" s="33"/>
+      <c r="A397" s="29"/>
+      <c r="B397" s="29"/>
+      <c r="C397" s="29"/>
+      <c r="D397" s="29"/>
+      <c r="E397" s="29"/>
+      <c r="F397" s="29"/>
     </row>
     <row r="398" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A398" s="33"/>
-      <c r="B398" s="33"/>
-      <c r="C398" s="33"/>
-      <c r="D398" s="33"/>
-      <c r="E398" s="33"/>
-      <c r="F398" s="33"/>
+      <c r="A398" s="29"/>
+      <c r="B398" s="29"/>
+      <c r="C398" s="29"/>
+      <c r="D398" s="29"/>
+      <c r="E398" s="29"/>
+      <c r="F398" s="29"/>
     </row>
     <row r="399" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A399" s="33"/>
-      <c r="B399" s="33"/>
-      <c r="C399" s="33"/>
-      <c r="D399" s="33"/>
-      <c r="E399" s="33"/>
-      <c r="F399" s="33"/>
+      <c r="A399" s="29"/>
+      <c r="B399" s="29"/>
+      <c r="C399" s="29"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="29"/>
+      <c r="F399" s="29"/>
     </row>
     <row r="400" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A400" s="33"/>
-      <c r="B400" s="33"/>
-      <c r="C400" s="33"/>
-      <c r="D400" s="33"/>
-      <c r="E400" s="33"/>
-      <c r="F400" s="33"/>
+      <c r="A400" s="29"/>
+      <c r="B400" s="29"/>
+      <c r="C400" s="29"/>
+      <c r="D400" s="29"/>
+      <c r="E400" s="29"/>
+      <c r="F400" s="29"/>
     </row>
     <row r="401" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A401" s="33"/>
-      <c r="B401" s="33"/>
-      <c r="C401" s="33"/>
-      <c r="D401" s="33"/>
-      <c r="E401" s="33"/>
-      <c r="F401" s="33"/>
+      <c r="A401" s="29"/>
+      <c r="B401" s="29"/>
+      <c r="C401" s="29"/>
+      <c r="D401" s="29"/>
+      <c r="E401" s="29"/>
+      <c r="F401" s="29"/>
     </row>
     <row r="402" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A402" s="33"/>
-      <c r="B402" s="33"/>
-      <c r="C402" s="33"/>
-      <c r="D402" s="33"/>
-      <c r="E402" s="33"/>
-      <c r="F402" s="33"/>
+      <c r="A402" s="29"/>
+      <c r="B402" s="29"/>
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="29"/>
     </row>
     <row r="403" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A403" s="33"/>
-      <c r="B403" s="33"/>
-      <c r="C403" s="33"/>
-      <c r="D403" s="33"/>
-      <c r="E403" s="33"/>
-      <c r="F403" s="33"/>
+      <c r="A403" s="29"/>
+      <c r="B403" s="29"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+      <c r="E403" s="29"/>
+      <c r="F403" s="29"/>
     </row>
     <row r="404" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A404" s="33"/>
-      <c r="B404" s="33"/>
-      <c r="C404" s="33"/>
-      <c r="D404" s="33"/>
-      <c r="E404" s="33"/>
-      <c r="F404" s="33"/>
+      <c r="A404" s="29"/>
+      <c r="B404" s="29"/>
+      <c r="C404" s="29"/>
+      <c r="D404" s="29"/>
+      <c r="E404" s="29"/>
+      <c r="F404" s="29"/>
     </row>
     <row r="405" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A405" s="33"/>
-      <c r="B405" s="33"/>
-      <c r="C405" s="33"/>
-      <c r="D405" s="33"/>
-      <c r="E405" s="33"/>
-      <c r="F405" s="33"/>
+      <c r="A405" s="29"/>
+      <c r="B405" s="29"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29"/>
+      <c r="F405" s="29"/>
     </row>
     <row r="406" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A406" s="33"/>
-      <c r="B406" s="33"/>
-      <c r="C406" s="33"/>
-      <c r="D406" s="33"/>
-      <c r="E406" s="33"/>
-      <c r="F406" s="33"/>
+      <c r="A406" s="29"/>
+      <c r="B406" s="29"/>
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29"/>
+      <c r="F406" s="29"/>
     </row>
     <row r="407" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A407" s="33"/>
-      <c r="B407" s="33"/>
-      <c r="C407" s="33"/>
-      <c r="D407" s="33"/>
-      <c r="E407" s="33"/>
-      <c r="F407" s="33"/>
+      <c r="A407" s="29"/>
+      <c r="B407" s="29"/>
+      <c r="C407" s="29"/>
+      <c r="D407" s="29"/>
+      <c r="E407" s="29"/>
+      <c r="F407" s="29"/>
     </row>
     <row r="408" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A408" s="33"/>
-      <c r="B408" s="33"/>
-      <c r="C408" s="33"/>
-      <c r="D408" s="33"/>
-      <c r="E408" s="33"/>
-      <c r="F408" s="33"/>
+      <c r="A408" s="29"/>
+      <c r="B408" s="29"/>
+      <c r="C408" s="29"/>
+      <c r="D408" s="29"/>
+      <c r="E408" s="29"/>
+      <c r="F408" s="29"/>
     </row>
     <row r="409" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A409" s="33"/>
-      <c r="B409" s="33"/>
-      <c r="C409" s="33"/>
-      <c r="D409" s="33"/>
-      <c r="E409" s="33"/>
-      <c r="F409" s="33"/>
+      <c r="A409" s="29"/>
+      <c r="B409" s="29"/>
+      <c r="C409" s="29"/>
+      <c r="D409" s="29"/>
+      <c r="E409" s="29"/>
+      <c r="F409" s="29"/>
     </row>
     <row r="410" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A410" s="33"/>
-      <c r="B410" s="33"/>
-      <c r="C410" s="33"/>
-      <c r="D410" s="33"/>
-      <c r="E410" s="33"/>
-      <c r="F410" s="33"/>
+      <c r="A410" s="29"/>
+      <c r="B410" s="29"/>
+      <c r="C410" s="29"/>
+      <c r="D410" s="29"/>
+      <c r="E410" s="29"/>
+      <c r="F410" s="29"/>
     </row>
     <row r="411" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A411" s="33"/>
-      <c r="B411" s="33"/>
-      <c r="C411" s="33"/>
-      <c r="D411" s="33"/>
-      <c r="E411" s="33"/>
-      <c r="F411" s="33"/>
+      <c r="A411" s="29"/>
+      <c r="B411" s="29"/>
+      <c r="C411" s="29"/>
+      <c r="D411" s="29"/>
+      <c r="E411" s="29"/>
+      <c r="F411" s="29"/>
     </row>
     <row r="412" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A412" s="33"/>
-      <c r="B412" s="33"/>
-      <c r="C412" s="33"/>
-      <c r="D412" s="33"/>
-      <c r="E412" s="33"/>
-      <c r="F412" s="33"/>
+      <c r="A412" s="29"/>
+      <c r="B412" s="29"/>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+      <c r="E412" s="29"/>
+      <c r="F412" s="29"/>
     </row>
     <row r="413" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A413" s="33"/>
-      <c r="B413" s="33"/>
-      <c r="C413" s="33"/>
-      <c r="D413" s="33"/>
-      <c r="E413" s="33"/>
-      <c r="F413" s="33"/>
+      <c r="A413" s="29"/>
+      <c r="B413" s="29"/>
+      <c r="C413" s="29"/>
+      <c r="D413" s="29"/>
+      <c r="E413" s="29"/>
+      <c r="F413" s="29"/>
     </row>
     <row r="414" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A414" s="33"/>
-      <c r="B414" s="33"/>
-      <c r="C414" s="33"/>
-      <c r="D414" s="33"/>
-      <c r="E414" s="33"/>
-      <c r="F414" s="33"/>
+      <c r="A414" s="29"/>
+      <c r="B414" s="29"/>
+      <c r="C414" s="29"/>
+      <c r="D414" s="29"/>
+      <c r="E414" s="29"/>
+      <c r="F414" s="29"/>
     </row>
     <row r="415" spans="1:16136" s="6" customFormat="1"/>
     <row r="416" spans="1:16136" s="6" customFormat="1"/>
@@ -21133,12 +21353,12 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -35,26 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>Melcheshoe Trading</t>
+    <t>Twis Catering Services</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-05-066</t>
+    <t>2020-06-0068</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
-</t>
+    <t>257 Barangay Sala City of Cabuyao Laguna</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>May 21, 2020</t>
+    <t>June 03, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -187,102 +186,14 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S003</t>
+    <t>C001</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>pack</t>
   </si>
   <si>
-    <t>Safety Googles
-Plastic Frame, Non polarized, Lightweight and Durable fits over proscription glasses</t>
-  </si>
-  <si>
-    <t>S659</t>
-  </si>
-  <si>
-    <t>Safety Boots
-Dimension 26cm x 9.5cm x 33cm- Durable Lightweight, Water proof, Rubber</t>
-  </si>
-  <si>
-    <t>S661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety Helmet with Rechargeable Light
-Color white- Class G Ansi Standard, Weight 700G, Rated Voltage: 33V, Rated Capacity: 3AH, Current for main light, Source 300mA, Current for Auxiliary, Light Source: 120MA, Light Times 15HRS </t>
-  </si>
-  <si>
-    <t>N001</t>
-  </si>
-  <si>
-    <t>N95 Mask
-(Filtration Effect 95%)
-(Nasal Clip: Adjustable)
-(Materials: Non Woven)</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>Bedding - Blankets
-Single Beds: 36" x 75" cotton</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>Beddings - Folding Beds
-(25" x 75") 
-High Density type 3 polyester double coated PVC 
-Rigid type
-Bed weight 7KGS</t>
-  </si>
-  <si>
-    <t>S664</t>
-  </si>
-  <si>
-    <t>Beddings - Pillows
-(20" x 30") 
-100% Cotton</t>
-  </si>
-  <si>
-    <t>S665</t>
-  </si>
-  <si>
-    <t>BP Monitor Apparatus
-(Power Supply: 4 pcs Batterry 1.5V AA 
-Ac Adapter Supply
-Input AC 100-240V 50/60Hz
-Measuring Method: oscillometric supply, Pressure 0-37.3kpa 0280mmhg
-Pulse 40-199 beats/min
-Accuracy: Static pressure +3mmhg 0.4kpa + 5% of the reading
-Category: Class</t>
-  </si>
-  <si>
-    <t>S666</t>
-  </si>
-  <si>
-    <t>Coffee Maker (8-10 cups)
-(8-10 cups) 
-Rated Voltage 220 x 240V
-Power 700W 
-gwt 2.63kg</t>
-  </si>
-  <si>
-    <t>S667</t>
-  </si>
-  <si>
-    <t>Emergency Light
-Voltage 220-240V  AC
-50/60 Hz 
-2 heads-24 pcs SMD LED 
-Battery 6  4.5Ah</t>
-  </si>
-  <si>
-    <t>S669</t>
-  </si>
-  <si>
-    <t>Raincoats
-Nylon Materials</t>
+    <t xml:space="preserve">Meals And Snacks (AM PM Snacks Lunch)
+</t>
   </si>
   <si>
     <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
@@ -300,7 +211,7 @@
     <t xml:space="preserve">       ______________________________________</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
+    <t>ARIEL O. IGLESIA, CESO III</t>
   </si>
   <si>
     <t>Signature over Printed Name of Supplier</t>
@@ -817,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -863,6 +774,15 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -891,6 +811,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1070,31 +993,22 @@
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1112,19 +1026,34 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="30" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="27" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="27" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1432,17 +1361,17 @@
   <dimension ref="A1:WVP628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="true" style="17"/>
+    <col min="1" max="1" width="13.44140625" customWidth="true" style="20"/>
     <col min="2" max="2" width="13.88671875" customWidth="true" style="6"/>
     <col min="3" max="3" width="35" customWidth="true" style="6"/>
     <col min="4" max="4" width="8.88671875" customWidth="true" style="6"/>
     <col min="5" max="5" width="11.6640625" customWidth="true" style="6"/>
-    <col min="6" max="6" width="25.6640625" customWidth="true" style="18"/>
+    <col min="6" max="6" width="25.6640625" customWidth="true" style="21"/>
     <col min="7" max="7" width="2.6640625" customWidth="true" style="7"/>
     <col min="8" max="8" width="9.109375" customWidth="true" style="7"/>
     <col min="9" max="9" width="9.109375" customWidth="true" style="7"/>
@@ -17576,146 +17505,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16136" customHeight="1" ht="22.5">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="40" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:16136" customHeight="1" ht="15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:16136" customHeight="1" ht="17.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:16136" customHeight="1" ht="15.75">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:16136" customHeight="1" ht="15.6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:16136" customHeight="1" ht="13.8">
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16136" customHeight="1" ht="28.2" s="12" customFormat="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="77" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:16136" customHeight="1" ht="38.4" s="12" customFormat="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="65"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:16136" customHeight="1" ht="20.25" s="12" customFormat="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="23"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:16136" customHeight="1" ht="15">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="65" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
       <c r="K13" s="3"/>
       <c r="L13" s="8"/>
       <c r="S13" s="7" t="str">
@@ -17724,19 +17653,19 @@
       </c>
     </row>
     <row r="14" spans="1:16136" customHeight="1" ht="21">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:16136" customHeight="1" ht="31.2" s="11" customFormat="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17751,3375 +17680,3255 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:16136" customHeight="1" ht="30">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="86">
+        <v>18</v>
+      </c>
+      <c r="E16" s="87">
+        <v>490</v>
+      </c>
+      <c r="F16" s="87">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16136" customHeight="1" ht="30">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A18" s="28"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="102"/>
+    </row>
+    <row r="19" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A19" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="102"/>
+    </row>
+    <row r="20" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A20" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="102"/>
+    </row>
+    <row r="21" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A21" s="28"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="102"/>
+    </row>
+    <row r="22" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A22" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="102"/>
+    </row>
+    <row r="23" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A23" s="28"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="102"/>
+    </row>
+    <row r="24" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="103"/>
+    </row>
+    <row r="25" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A25" s="28"/>
+      <c r="B25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="102"/>
+    </row>
+    <row r="26" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A26" s="28"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="102"/>
+    </row>
+    <row r="27" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A27" s="29"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="102"/>
+    </row>
+    <row r="28" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="104"/>
+    </row>
+    <row r="29" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="104"/>
+    </row>
+    <row r="30" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="83">
-        <v>130</v>
-      </c>
-      <c r="F16" s="83">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16136" customHeight="1" ht="30">
-      <c r="A17" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="82">
-        <v>15</v>
-      </c>
-      <c r="E17" s="83">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="83">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16136" customHeight="1" ht="30">
-      <c r="A18" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="82">
-        <v>5</v>
-      </c>
-      <c r="E18" s="83">
-        <v>3000</v>
-      </c>
-      <c r="F18" s="83">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16136" customHeight="1" ht="30">
-      <c r="A19" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="82">
-        <v>200</v>
-      </c>
-      <c r="E19" s="83">
-        <v>135</v>
-      </c>
-      <c r="F19" s="83">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16136" customHeight="1" ht="30">
-      <c r="A20" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="82">
-        <v>6</v>
-      </c>
-      <c r="E20" s="83">
-        <v>650</v>
-      </c>
-      <c r="F20" s="83">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16136" customHeight="1" ht="30">
-      <c r="A21" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="82">
-        <v>5</v>
-      </c>
-      <c r="E21" s="83">
-        <v>2800</v>
-      </c>
-      <c r="F21" s="83">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16136" customHeight="1" ht="30">
-      <c r="A22" s="79" t="s">
+      <c r="F30" s="105"/>
+    </row>
+    <row r="31" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="81" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="82">
-        <v>5</v>
-      </c>
-      <c r="E22" s="83">
-        <v>375</v>
-      </c>
-      <c r="F22" s="83">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16136" customHeight="1" ht="30">
-      <c r="A23" s="79" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="106"/>
+    </row>
+    <row r="33" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="106"/>
+    </row>
+    <row r="34" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A34" s="22"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="107"/>
+    </row>
+    <row r="35" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="106"/>
+    </row>
+    <row r="36" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A36" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="81" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="82">
-        <v>5</v>
-      </c>
-      <c r="E23" s="83">
-        <v>1650</v>
-      </c>
-      <c r="F23" s="83">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16136" customHeight="1" ht="30">
-      <c r="A24" s="79" t="s">
+      <c r="E36" s="35"/>
+      <c r="F36" s="106"/>
+    </row>
+    <row r="37" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A37" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="81" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="82">
-        <v>3</v>
-      </c>
-      <c r="E24" s="83">
-        <v>1235</v>
-      </c>
-      <c r="F24" s="83">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16136" customHeight="1" ht="30">
-      <c r="A25" s="79" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="106"/>
+    </row>
+    <row r="38" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="106"/>
+    </row>
+    <row r="39" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A39" s="32"/>
+      <c r="B39" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="81" t="s">
+      <c r="C39" s="100"/>
+      <c r="D39" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="82">
-        <v>5</v>
-      </c>
-      <c r="E25" s="83">
-        <v>1900</v>
-      </c>
-      <c r="F25" s="83">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16136" customHeight="1" ht="30">
-      <c r="A26" s="79" t="s">
+      <c r="E39" s="35"/>
+      <c r="F39" s="106"/>
+    </row>
+    <row r="40" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="81" t="s">
+      <c r="C40" s="98"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="106"/>
+    </row>
+    <row r="41" spans="1:16136" customHeight="1" ht="13.8">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="82">
-        <v>5</v>
-      </c>
-      <c r="E26" s="83">
-        <v>300</v>
-      </c>
-      <c r="F26" s="83">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16136" customHeight="1" ht="30">
-      <c r="A27" s="84"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87">
-        <v>107930</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="99"/>
-    </row>
-    <row r="29" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A29" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="99"/>
-    </row>
-    <row r="30" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A30" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="99"/>
-    </row>
-    <row r="31" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="100"/>
-    </row>
-    <row r="32" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A32" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="100"/>
-    </row>
-    <row r="33" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="100"/>
-    </row>
-    <row r="34" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="101"/>
-    </row>
-    <row r="35" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="100"/>
-    </row>
-    <row r="36" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="100"/>
-    </row>
-    <row r="37" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="100"/>
-    </row>
-    <row r="38" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="100"/>
-    </row>
-    <row r="39" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="100"/>
-    </row>
-    <row r="40" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="101"/>
-    </row>
-    <row r="41" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="100"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="106"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="100"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="106"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="100"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="108"/>
     </row>
     <row r="44" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="102"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="100"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A46" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="100"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A47" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="100"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="100"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="100"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="100"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="100"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="100"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="101"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
     </row>
     <row r="59" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
     </row>
     <row r="73" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
     </row>
     <row r="75" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
     </row>
     <row r="77" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
     </row>
     <row r="82" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
     </row>
     <row r="83" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
     </row>
     <row r="89" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
     </row>
     <row r="90" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
     </row>
     <row r="92" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
     </row>
     <row r="93" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
     </row>
     <row r="94" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
     </row>
     <row r="95" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
     </row>
     <row r="96" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
     </row>
     <row r="97" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
     </row>
     <row r="98" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
     </row>
     <row r="99" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
     </row>
     <row r="100" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
     </row>
     <row r="101" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
     </row>
     <row r="102" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
     </row>
     <row r="103" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
     </row>
     <row r="104" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
     </row>
     <row r="105" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
     </row>
     <row r="107" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
     </row>
     <row r="108" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
     </row>
     <row r="109" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
     </row>
     <row r="110" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
     </row>
     <row r="111" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
     </row>
     <row r="112" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
     </row>
     <row r="113" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
     </row>
     <row r="117" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
     </row>
     <row r="118" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
     </row>
     <row r="119" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
     </row>
     <row r="120" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
     </row>
     <row r="121" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
     </row>
     <row r="122" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
     </row>
     <row r="123" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
     </row>
     <row r="124" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
     </row>
     <row r="125" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
     </row>
     <row r="126" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
     </row>
     <row r="127" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
     </row>
     <row r="128" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
     </row>
     <row r="129" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
     </row>
     <row r="130" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
     </row>
     <row r="131" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
     </row>
     <row r="132" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
     </row>
     <row r="133" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
     </row>
     <row r="135" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
     </row>
     <row r="136" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
     </row>
     <row r="137" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
     </row>
     <row r="138" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
     </row>
     <row r="139" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
     </row>
     <row r="140" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
     </row>
     <row r="141" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A141" s="29"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
     </row>
     <row r="142" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
     </row>
     <row r="143" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
     </row>
     <row r="144" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
     </row>
     <row r="145" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
     </row>
     <row r="146" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
     </row>
     <row r="147" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
     </row>
     <row r="148" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
     </row>
     <row r="149" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
     </row>
     <row r="150" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
     </row>
     <row r="151" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
     </row>
     <row r="152" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
     </row>
     <row r="153" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
     </row>
     <row r="155" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
     </row>
     <row r="156" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
     </row>
     <row r="157" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="31"/>
-      <c r="F157" s="31"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
     </row>
     <row r="158" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A158" s="29"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
     </row>
     <row r="159" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
     </row>
     <row r="160" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
     </row>
     <row r="161" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
     </row>
     <row r="162" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
     </row>
     <row r="163" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
     </row>
     <row r="164" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
+      <c r="A164" s="33"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
     </row>
     <row r="165" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
     </row>
     <row r="166" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
+      <c r="A166" s="33"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
     </row>
     <row r="167" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
+      <c r="A167" s="33"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
     </row>
     <row r="168" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
     </row>
     <row r="169" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="35"/>
     </row>
     <row r="170" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A170" s="29"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
+      <c r="A170" s="33"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
     </row>
     <row r="171" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A171" s="29"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="35"/>
+      <c r="F171" s="35"/>
     </row>
     <row r="172" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A172" s="29"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
+      <c r="A172" s="33"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="35"/>
+      <c r="F172" s="35"/>
     </row>
     <row r="173" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A173" s="29"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
     </row>
     <row r="174" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="35"/>
+      <c r="F174" s="35"/>
     </row>
     <row r="175" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A175" s="29"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A176" s="29"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A177" s="29"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
+      <c r="A177" s="33"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="35"/>
+      <c r="F177" s="35"/>
     </row>
     <row r="178" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A178" s="29"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
+      <c r="A178" s="33"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="35"/>
+      <c r="F178" s="35"/>
     </row>
     <row r="179" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A179" s="29"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
+      <c r="A179" s="33"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="35"/>
+      <c r="F179" s="35"/>
     </row>
     <row r="180" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A180" s="29"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
+      <c r="A180" s="33"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="35"/>
+      <c r="F180" s="35"/>
     </row>
     <row r="181" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A181" s="29"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="35"/>
+      <c r="F181" s="35"/>
     </row>
     <row r="182" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A182" s="29"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="31"/>
+      <c r="A182" s="33"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35"/>
     </row>
     <row r="183" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="31"/>
-      <c r="F183" s="31"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="35"/>
+      <c r="F183" s="35"/>
     </row>
     <row r="184" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A184" s="29"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="31"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="35"/>
+      <c r="F184" s="35"/>
     </row>
     <row r="185" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A185" s="29"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
     </row>
     <row r="186" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A186" s="29"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
+      <c r="A186" s="33"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
     </row>
     <row r="187" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A187" s="29"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="35"/>
     </row>
     <row r="188" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A188" s="29"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
+      <c r="A188" s="33"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="35"/>
     </row>
     <row r="189" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A189" s="29"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="31"/>
-      <c r="F189" s="31"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="35"/>
+      <c r="F189" s="35"/>
     </row>
     <row r="190" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A190" s="29"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
+      <c r="A190" s="33"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="35"/>
+      <c r="F190" s="35"/>
     </row>
     <row r="191" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
+      <c r="A191" s="33"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="35"/>
     </row>
     <row r="192" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
     </row>
     <row r="193" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="35"/>
     </row>
     <row r="194" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="35"/>
     </row>
     <row r="195" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A195" s="29"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="31"/>
-      <c r="F195" s="31"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
     </row>
     <row r="196" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A196" s="29"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="31"/>
-      <c r="F196" s="31"/>
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="35"/>
+      <c r="F196" s="35"/>
     </row>
     <row r="197" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A197" s="29"/>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
+      <c r="A197" s="33"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="35"/>
+      <c r="F197" s="35"/>
     </row>
     <row r="198" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A198" s="29"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="35"/>
+      <c r="F198" s="35"/>
     </row>
     <row r="199" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A199" s="29"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="35"/>
     </row>
     <row r="200" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A200" s="29"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="31"/>
-      <c r="F200" s="31"/>
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="35"/>
+      <c r="F200" s="35"/>
     </row>
     <row r="201" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A201" s="29"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="31"/>
-      <c r="F201" s="31"/>
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="35"/>
     </row>
     <row r="202" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A202" s="29"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="31"/>
-      <c r="F202" s="31"/>
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="35"/>
     </row>
     <row r="203" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A203" s="29"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="31"/>
-      <c r="F203" s="31"/>
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="35"/>
     </row>
     <row r="204" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A204" s="29"/>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="31"/>
-      <c r="F204" s="31"/>
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="35"/>
+      <c r="F204" s="35"/>
     </row>
     <row r="205" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A205" s="29"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="31"/>
-      <c r="F205" s="31"/>
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="35"/>
+      <c r="F205" s="35"/>
     </row>
     <row r="206" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="31"/>
-      <c r="F206" s="31"/>
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="35"/>
+      <c r="F206" s="35"/>
     </row>
     <row r="207" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A207" s="29"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="31"/>
-      <c r="F207" s="31"/>
+      <c r="A207" s="33"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
     </row>
     <row r="208" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A208" s="29"/>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="31"/>
-      <c r="F208" s="31"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="35"/>
     </row>
     <row r="209" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A209" s="29"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="31"/>
-      <c r="F209" s="31"/>
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="35"/>
     </row>
     <row r="210" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A210" s="29"/>
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="31"/>
-      <c r="F210" s="31"/>
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="35"/>
     </row>
     <row r="211" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="31"/>
-      <c r="F211" s="31"/>
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="35"/>
+      <c r="F211" s="35"/>
     </row>
     <row r="212" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="31"/>
-      <c r="F212" s="31"/>
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="35"/>
     </row>
     <row r="213" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="31"/>
-      <c r="F213" s="31"/>
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="35"/>
     </row>
     <row r="214" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A214" s="29"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="31"/>
-      <c r="F214" s="31"/>
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="35"/>
+      <c r="F214" s="35"/>
     </row>
     <row r="215" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A215" s="29"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="31"/>
-      <c r="F215" s="31"/>
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="35"/>
+      <c r="F215" s="35"/>
     </row>
     <row r="216" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A216" s="29"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31"/>
+      <c r="A216" s="33"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="35"/>
+      <c r="F216" s="35"/>
     </row>
     <row r="217" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
+      <c r="A217" s="33"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
     </row>
     <row r="218" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
     </row>
     <row r="219" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
     </row>
     <row r="220" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A220" s="29"/>
-      <c r="B220" s="29"/>
-      <c r="C220" s="29"/>
-      <c r="D220" s="29"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
     </row>
     <row r="221" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A221" s="29"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="32"/>
-      <c r="F221" s="32"/>
+      <c r="A221" s="33"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="36"/>
     </row>
     <row r="222" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A222" s="29"/>
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
+      <c r="A222" s="33"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="36"/>
+      <c r="F222" s="36"/>
     </row>
     <row r="223" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A223" s="29"/>
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
+      <c r="A223" s="33"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="36"/>
+      <c r="F223" s="36"/>
     </row>
     <row r="224" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A224" s="29"/>
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
+      <c r="A224" s="33"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="36"/>
+      <c r="F224" s="36"/>
     </row>
     <row r="225" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A225" s="29"/>
-      <c r="B225" s="29"/>
-      <c r="C225" s="29"/>
-      <c r="D225" s="29"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
+      <c r="A225" s="33"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="36"/>
+      <c r="F225" s="36"/>
     </row>
     <row r="226" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A226" s="29"/>
-      <c r="B226" s="29"/>
-      <c r="C226" s="29"/>
-      <c r="D226" s="29"/>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="36"/>
+      <c r="F226" s="36"/>
     </row>
     <row r="227" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A227" s="29"/>
-      <c r="B227" s="29"/>
-      <c r="C227" s="29"/>
-      <c r="D227" s="29"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
+      <c r="A227" s="33"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="36"/>
+      <c r="F227" s="36"/>
     </row>
     <row r="228" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A228" s="29"/>
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="29"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
+      <c r="A228" s="33"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="36"/>
+      <c r="F228" s="36"/>
     </row>
     <row r="229" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A229" s="29"/>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
+      <c r="A229" s="33"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="36"/>
+      <c r="F229" s="36"/>
     </row>
     <row r="230" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A230" s="29"/>
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
+      <c r="A230" s="33"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
     </row>
     <row r="231" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A231" s="29"/>
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
+      <c r="A231" s="33"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="36"/>
+      <c r="F231" s="36"/>
     </row>
     <row r="232" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A232" s="29"/>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="36"/>
+      <c r="F232" s="36"/>
     </row>
     <row r="233" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A233" s="29"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
+      <c r="A233" s="33"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="36"/>
+      <c r="F233" s="36"/>
     </row>
     <row r="234" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A234" s="29"/>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
+      <c r="A234" s="33"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="36"/>
+      <c r="F234" s="36"/>
     </row>
     <row r="235" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A235" s="29"/>
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
+      <c r="A235" s="33"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="36"/>
+      <c r="F235" s="36"/>
     </row>
     <row r="236" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A236" s="29"/>
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
+      <c r="A236" s="33"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="36"/>
+      <c r="F236" s="36"/>
     </row>
     <row r="237" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A237" s="29"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
+      <c r="A237" s="33"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="36"/>
+      <c r="F237" s="36"/>
     </row>
     <row r="238" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A238" s="29"/>
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
-      <c r="D238" s="29"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
+      <c r="A238" s="33"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="36"/>
+      <c r="F238" s="36"/>
     </row>
     <row r="239" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A239" s="29"/>
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
+      <c r="A239" s="33"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="36"/>
+      <c r="F239" s="36"/>
     </row>
     <row r="240" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A240" s="29"/>
-      <c r="B240" s="29"/>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
+      <c r="A240" s="33"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="36"/>
     </row>
     <row r="241" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A241" s="29"/>
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="29"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
+      <c r="A241" s="33"/>
+      <c r="B241" s="33"/>
+      <c r="C241" s="33"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="36"/>
+      <c r="F241" s="36"/>
     </row>
     <row r="242" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A242" s="29"/>
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
+      <c r="A242" s="33"/>
+      <c r="B242" s="33"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="36"/>
+      <c r="F242" s="36"/>
     </row>
     <row r="243" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A243" s="29"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
+      <c r="A243" s="33"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="36"/>
+      <c r="F243" s="36"/>
     </row>
     <row r="244" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A244" s="29"/>
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
+      <c r="A244" s="33"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="36"/>
+      <c r="F244" s="36"/>
     </row>
     <row r="245" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A245" s="29"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="32"/>
-      <c r="F245" s="32"/>
+      <c r="A245" s="33"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="36"/>
+      <c r="F245" s="36"/>
     </row>
     <row r="246" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A246" s="29"/>
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="32"/>
-      <c r="F246" s="32"/>
+      <c r="A246" s="33"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="36"/>
+      <c r="F246" s="36"/>
     </row>
     <row r="247" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A247" s="29"/>
-      <c r="B247" s="29"/>
-      <c r="C247" s="29"/>
-      <c r="D247" s="29"/>
-      <c r="E247" s="32"/>
-      <c r="F247" s="32"/>
+      <c r="A247" s="33"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="36"/>
+      <c r="F247" s="36"/>
     </row>
     <row r="248" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A248" s="29"/>
-      <c r="B248" s="29"/>
-      <c r="C248" s="29"/>
-      <c r="D248" s="29"/>
-      <c r="E248" s="32"/>
-      <c r="F248" s="32"/>
+      <c r="A248" s="33"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="36"/>
+      <c r="F248" s="36"/>
     </row>
     <row r="249" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A249" s="29"/>
-      <c r="B249" s="29"/>
-      <c r="C249" s="29"/>
-      <c r="D249" s="29"/>
-      <c r="E249" s="32"/>
-      <c r="F249" s="32"/>
+      <c r="A249" s="33"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="36"/>
+      <c r="F249" s="36"/>
     </row>
     <row r="250" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A250" s="29"/>
-      <c r="B250" s="29"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="29"/>
-      <c r="E250" s="32"/>
-      <c r="F250" s="32"/>
+      <c r="A250" s="33"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="33"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="36"/>
+      <c r="F250" s="36"/>
     </row>
     <row r="251" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A251" s="29"/>
-      <c r="B251" s="29"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32"/>
+      <c r="A251" s="33"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="33"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="36"/>
     </row>
     <row r="252" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A252" s="29"/>
-      <c r="B252" s="29"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="29"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="32"/>
+      <c r="A252" s="33"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="36"/>
+      <c r="F252" s="36"/>
     </row>
     <row r="253" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A253" s="29"/>
-      <c r="B253" s="29"/>
-      <c r="C253" s="29"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="32"/>
-      <c r="F253" s="32"/>
+      <c r="A253" s="33"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="36"/>
+      <c r="F253" s="36"/>
     </row>
     <row r="254" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A254" s="29"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="29"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="32"/>
-      <c r="F254" s="32"/>
+      <c r="A254" s="33"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="36"/>
+      <c r="F254" s="36"/>
     </row>
     <row r="255" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A255" s="29"/>
-      <c r="B255" s="29"/>
-      <c r="C255" s="29"/>
-      <c r="D255" s="29"/>
-      <c r="E255" s="32"/>
-      <c r="F255" s="32"/>
+      <c r="A255" s="33"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="33"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="36"/>
     </row>
     <row r="256" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A256" s="29"/>
-      <c r="B256" s="29"/>
-      <c r="C256" s="29"/>
-      <c r="D256" s="29"/>
-      <c r="E256" s="32"/>
-      <c r="F256" s="32"/>
+      <c r="A256" s="33"/>
+      <c r="B256" s="33"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="36"/>
+      <c r="F256" s="36"/>
     </row>
     <row r="257" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A257" s="29"/>
-      <c r="B257" s="29"/>
-      <c r="C257" s="29"/>
-      <c r="D257" s="29"/>
-      <c r="E257" s="32"/>
-      <c r="F257" s="32"/>
+      <c r="A257" s="33"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="36"/>
+      <c r="F257" s="36"/>
     </row>
     <row r="258" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A258" s="29"/>
-      <c r="B258" s="29"/>
-      <c r="C258" s="29"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
+      <c r="A258" s="33"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="36"/>
     </row>
     <row r="259" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A259" s="29"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="29"/>
-      <c r="D259" s="29"/>
-      <c r="E259" s="32"/>
-      <c r="F259" s="32"/>
+      <c r="A259" s="33"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="36"/>
+      <c r="F259" s="36"/>
     </row>
     <row r="260" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A260" s="29"/>
-      <c r="B260" s="29"/>
-      <c r="C260" s="29"/>
-      <c r="D260" s="29"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="32"/>
+      <c r="A260" s="33"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="36"/>
+      <c r="F260" s="36"/>
     </row>
     <row r="261" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="29"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="32"/>
+      <c r="A261" s="33"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="36"/>
+      <c r="F261" s="36"/>
     </row>
     <row r="262" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A262" s="29"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="32"/>
+      <c r="A262" s="33"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="36"/>
+      <c r="F262" s="36"/>
     </row>
     <row r="263" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A263" s="29"/>
-      <c r="B263" s="29"/>
-      <c r="C263" s="29"/>
-      <c r="D263" s="29"/>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="36"/>
+      <c r="F263" s="36"/>
     </row>
     <row r="264" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A264" s="29"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="32"/>
-      <c r="F264" s="32"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="33"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="36"/>
+      <c r="F264" s="36"/>
     </row>
     <row r="265" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A265" s="29"/>
-      <c r="B265" s="29"/>
-      <c r="C265" s="29"/>
-      <c r="D265" s="29"/>
-      <c r="E265" s="32"/>
-      <c r="F265" s="32"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="36"/>
+      <c r="F265" s="36"/>
     </row>
     <row r="266" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A266" s="29"/>
-      <c r="B266" s="29"/>
-      <c r="C266" s="29"/>
-      <c r="D266" s="29"/>
-      <c r="E266" s="32"/>
-      <c r="F266" s="32"/>
+      <c r="A266" s="33"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="36"/>
+      <c r="F266" s="36"/>
     </row>
     <row r="267" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A267" s="29"/>
-      <c r="B267" s="29"/>
-      <c r="C267" s="29"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
+      <c r="A267" s="33"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="36"/>
+      <c r="F267" s="36"/>
     </row>
     <row r="268" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A268" s="29"/>
-      <c r="B268" s="29"/>
-      <c r="C268" s="29"/>
-      <c r="D268" s="29"/>
-      <c r="E268" s="32"/>
-      <c r="F268" s="32"/>
+      <c r="A268" s="33"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="36"/>
+      <c r="F268" s="36"/>
     </row>
     <row r="269" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A269" s="29"/>
-      <c r="B269" s="29"/>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32"/>
+      <c r="A269" s="33"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="36"/>
+      <c r="F269" s="36"/>
     </row>
     <row r="270" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A270" s="29"/>
-      <c r="B270" s="29"/>
-      <c r="C270" s="29"/>
-      <c r="D270" s="29"/>
-      <c r="E270" s="32"/>
-      <c r="F270" s="32"/>
+      <c r="A270" s="33"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="33"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="36"/>
+      <c r="F270" s="36"/>
     </row>
     <row r="271" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A271" s="29"/>
-      <c r="B271" s="29"/>
-      <c r="C271" s="29"/>
-      <c r="D271" s="29"/>
-      <c r="E271" s="32"/>
-      <c r="F271" s="32"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="36"/>
+      <c r="F271" s="36"/>
     </row>
     <row r="272" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A272" s="29"/>
-      <c r="B272" s="29"/>
-      <c r="C272" s="29"/>
-      <c r="D272" s="29"/>
-      <c r="E272" s="32"/>
-      <c r="F272" s="32"/>
+      <c r="A272" s="33"/>
+      <c r="B272" s="33"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="36"/>
+      <c r="F272" s="36"/>
     </row>
     <row r="273" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A273" s="29"/>
-      <c r="B273" s="29"/>
-      <c r="C273" s="29"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="32"/>
+      <c r="A273" s="33"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="36"/>
     </row>
     <row r="274" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A274" s="29"/>
-      <c r="B274" s="29"/>
-      <c r="C274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="32"/>
-      <c r="F274" s="32"/>
+      <c r="A274" s="33"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="33"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="36"/>
     </row>
     <row r="275" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A275" s="29"/>
-      <c r="B275" s="29"/>
-      <c r="C275" s="29"/>
-      <c r="D275" s="29"/>
-      <c r="E275" s="32"/>
-      <c r="F275" s="32"/>
+      <c r="A275" s="33"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
     </row>
     <row r="276" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A276" s="29"/>
-      <c r="B276" s="29"/>
-      <c r="C276" s="29"/>
-      <c r="D276" s="29"/>
-      <c r="E276" s="32"/>
-      <c r="F276" s="32"/>
+      <c r="A276" s="33"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="36"/>
+      <c r="F276" s="36"/>
     </row>
     <row r="277" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A277" s="29"/>
-      <c r="B277" s="29"/>
-      <c r="C277" s="29"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="32"/>
-      <c r="F277" s="32"/>
+      <c r="A277" s="33"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="33"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="36"/>
+      <c r="F277" s="36"/>
     </row>
     <row r="278" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A278" s="29"/>
-      <c r="B278" s="29"/>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="32"/>
-      <c r="F278" s="32"/>
+      <c r="A278" s="33"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="36"/>
+      <c r="F278" s="36"/>
     </row>
     <row r="279" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A279" s="29"/>
-      <c r="B279" s="29"/>
-      <c r="C279" s="29"/>
-      <c r="D279" s="29"/>
-      <c r="E279" s="32"/>
-      <c r="F279" s="32"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="36"/>
+      <c r="F279" s="36"/>
     </row>
     <row r="280" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A280" s="29"/>
-      <c r="B280" s="29"/>
-      <c r="C280" s="29"/>
-      <c r="D280" s="29"/>
-      <c r="E280" s="32"/>
-      <c r="F280" s="32"/>
+      <c r="A280" s="33"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="36"/>
+      <c r="F280" s="36"/>
     </row>
     <row r="281" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A281" s="29"/>
-      <c r="B281" s="29"/>
-      <c r="C281" s="29"/>
-      <c r="D281" s="29"/>
-      <c r="E281" s="32"/>
-      <c r="F281" s="32"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="36"/>
     </row>
     <row r="282" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A282" s="29"/>
-      <c r="B282" s="29"/>
-      <c r="C282" s="29"/>
-      <c r="D282" s="29"/>
-      <c r="E282" s="32"/>
-      <c r="F282" s="32"/>
+      <c r="A282" s="33"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="36"/>
+      <c r="F282" s="36"/>
     </row>
     <row r="283" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A283" s="29"/>
-      <c r="B283" s="29"/>
-      <c r="C283" s="29"/>
-      <c r="D283" s="29"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="32"/>
+      <c r="A283" s="33"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="33"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="36"/>
+      <c r="F283" s="36"/>
     </row>
     <row r="284" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A284" s="29"/>
-      <c r="B284" s="29"/>
-      <c r="C284" s="29"/>
-      <c r="D284" s="29"/>
-      <c r="E284" s="32"/>
-      <c r="F284" s="32"/>
+      <c r="A284" s="33"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="36"/>
+      <c r="F284" s="36"/>
     </row>
     <row r="285" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A285" s="29"/>
-      <c r="B285" s="29"/>
-      <c r="C285" s="29"/>
-      <c r="D285" s="29"/>
-      <c r="E285" s="32"/>
-      <c r="F285" s="32"/>
+      <c r="A285" s="33"/>
+      <c r="B285" s="33"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="36"/>
+      <c r="F285" s="36"/>
     </row>
     <row r="286" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A286" s="29"/>
-      <c r="B286" s="29"/>
-      <c r="C286" s="29"/>
-      <c r="D286" s="29"/>
-      <c r="E286" s="32"/>
-      <c r="F286" s="32"/>
+      <c r="A286" s="33"/>
+      <c r="B286" s="33"/>
+      <c r="C286" s="33"/>
+      <c r="D286" s="33"/>
+      <c r="E286" s="36"/>
+      <c r="F286" s="36"/>
     </row>
     <row r="287" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A287" s="29"/>
-      <c r="B287" s="29"/>
-      <c r="C287" s="29"/>
-      <c r="D287" s="29"/>
-      <c r="E287" s="32"/>
-      <c r="F287" s="32"/>
+      <c r="A287" s="33"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="33"/>
+      <c r="D287" s="33"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
     </row>
     <row r="288" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A288" s="29"/>
-      <c r="B288" s="29"/>
-      <c r="C288" s="29"/>
-      <c r="D288" s="29"/>
-      <c r="E288" s="32"/>
-      <c r="F288" s="32"/>
+      <c r="A288" s="33"/>
+      <c r="B288" s="33"/>
+      <c r="C288" s="33"/>
+      <c r="D288" s="33"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="36"/>
     </row>
     <row r="289" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A289" s="29"/>
-      <c r="B289" s="29"/>
-      <c r="C289" s="29"/>
-      <c r="D289" s="29"/>
-      <c r="E289" s="32"/>
-      <c r="F289" s="32"/>
+      <c r="A289" s="33"/>
+      <c r="B289" s="33"/>
+      <c r="C289" s="33"/>
+      <c r="D289" s="33"/>
+      <c r="E289" s="36"/>
+      <c r="F289" s="36"/>
     </row>
     <row r="290" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A290" s="29"/>
-      <c r="B290" s="29"/>
-      <c r="C290" s="29"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="32"/>
-      <c r="F290" s="32"/>
+      <c r="A290" s="33"/>
+      <c r="B290" s="33"/>
+      <c r="C290" s="33"/>
+      <c r="D290" s="33"/>
+      <c r="E290" s="36"/>
+      <c r="F290" s="36"/>
     </row>
     <row r="291" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A291" s="29"/>
-      <c r="B291" s="29"/>
-      <c r="C291" s="29"/>
-      <c r="D291" s="29"/>
-      <c r="E291" s="32"/>
-      <c r="F291" s="32"/>
+      <c r="A291" s="33"/>
+      <c r="B291" s="33"/>
+      <c r="C291" s="33"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="36"/>
+      <c r="F291" s="36"/>
     </row>
     <row r="292" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A292" s="29"/>
-      <c r="B292" s="29"/>
-      <c r="C292" s="29"/>
-      <c r="D292" s="29"/>
-      <c r="E292" s="32"/>
-      <c r="F292" s="32"/>
+      <c r="A292" s="33"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="33"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="36"/>
+      <c r="F292" s="36"/>
     </row>
     <row r="293" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A293" s="29"/>
-      <c r="B293" s="29"/>
-      <c r="C293" s="29"/>
-      <c r="D293" s="29"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="32"/>
+      <c r="A293" s="33"/>
+      <c r="B293" s="33"/>
+      <c r="C293" s="33"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="36"/>
+      <c r="F293" s="36"/>
     </row>
     <row r="294" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A294" s="29"/>
-      <c r="B294" s="29"/>
-      <c r="C294" s="29"/>
-      <c r="D294" s="29"/>
-      <c r="E294" s="32"/>
-      <c r="F294" s="32"/>
+      <c r="A294" s="33"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="33"/>
+      <c r="D294" s="33"/>
+      <c r="E294" s="36"/>
+      <c r="F294" s="36"/>
     </row>
     <row r="295" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A295" s="29"/>
-      <c r="B295" s="29"/>
-      <c r="C295" s="29"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="32"/>
-      <c r="F295" s="32"/>
+      <c r="A295" s="33"/>
+      <c r="B295" s="33"/>
+      <c r="C295" s="33"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="36"/>
     </row>
     <row r="296" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A296" s="29"/>
-      <c r="B296" s="29"/>
-      <c r="C296" s="29"/>
-      <c r="D296" s="29"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="32"/>
+      <c r="A296" s="33"/>
+      <c r="B296" s="33"/>
+      <c r="C296" s="33"/>
+      <c r="D296" s="33"/>
+      <c r="E296" s="36"/>
+      <c r="F296" s="36"/>
     </row>
     <row r="297" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A297" s="29"/>
-      <c r="B297" s="29"/>
-      <c r="C297" s="29"/>
-      <c r="D297" s="29"/>
-      <c r="E297" s="32"/>
-      <c r="F297" s="32"/>
+      <c r="A297" s="33"/>
+      <c r="B297" s="33"/>
+      <c r="C297" s="33"/>
+      <c r="D297" s="33"/>
+      <c r="E297" s="36"/>
+      <c r="F297" s="36"/>
     </row>
     <row r="298" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A298" s="29"/>
-      <c r="B298" s="29"/>
-      <c r="C298" s="29"/>
-      <c r="D298" s="29"/>
-      <c r="E298" s="32"/>
-      <c r="F298" s="32"/>
+      <c r="A298" s="33"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="33"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="36"/>
+      <c r="F298" s="36"/>
     </row>
     <row r="299" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A299" s="29"/>
-      <c r="B299" s="29"/>
-      <c r="C299" s="29"/>
-      <c r="D299" s="29"/>
-      <c r="E299" s="32"/>
-      <c r="F299" s="32"/>
+      <c r="A299" s="33"/>
+      <c r="B299" s="33"/>
+      <c r="C299" s="33"/>
+      <c r="D299" s="33"/>
+      <c r="E299" s="36"/>
+      <c r="F299" s="36"/>
     </row>
     <row r="300" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A300" s="29"/>
-      <c r="B300" s="29"/>
-      <c r="C300" s="29"/>
-      <c r="D300" s="29"/>
-      <c r="E300" s="32"/>
-      <c r="F300" s="32"/>
+      <c r="A300" s="33"/>
+      <c r="B300" s="33"/>
+      <c r="C300" s="33"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="36"/>
+      <c r="F300" s="36"/>
     </row>
     <row r="301" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A301" s="29"/>
-      <c r="B301" s="29"/>
-      <c r="C301" s="29"/>
-      <c r="D301" s="29"/>
-      <c r="E301" s="32"/>
-      <c r="F301" s="32"/>
+      <c r="A301" s="33"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="33"/>
+      <c r="D301" s="33"/>
+      <c r="E301" s="36"/>
+      <c r="F301" s="36"/>
     </row>
     <row r="302" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A302" s="29"/>
-      <c r="B302" s="29"/>
-      <c r="C302" s="29"/>
-      <c r="D302" s="29"/>
-      <c r="E302" s="32"/>
-      <c r="F302" s="32"/>
+      <c r="A302" s="33"/>
+      <c r="B302" s="33"/>
+      <c r="C302" s="33"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="36"/>
+      <c r="F302" s="36"/>
     </row>
     <row r="303" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A303" s="29"/>
-      <c r="B303" s="29"/>
-      <c r="C303" s="29"/>
-      <c r="D303" s="29"/>
-      <c r="E303" s="32"/>
-      <c r="F303" s="32"/>
+      <c r="A303" s="33"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="33"/>
+      <c r="D303" s="33"/>
+      <c r="E303" s="36"/>
+      <c r="F303" s="36"/>
     </row>
     <row r="304" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A304" s="29"/>
-      <c r="B304" s="29"/>
-      <c r="C304" s="29"/>
-      <c r="D304" s="29"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="32"/>
+      <c r="A304" s="33"/>
+      <c r="B304" s="33"/>
+      <c r="C304" s="33"/>
+      <c r="D304" s="33"/>
+      <c r="E304" s="36"/>
+      <c r="F304" s="36"/>
     </row>
     <row r="305" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A305" s="29"/>
-      <c r="B305" s="29"/>
-      <c r="C305" s="29"/>
-      <c r="D305" s="29"/>
-      <c r="E305" s="32"/>
-      <c r="F305" s="32"/>
+      <c r="A305" s="33"/>
+      <c r="B305" s="33"/>
+      <c r="C305" s="33"/>
+      <c r="D305" s="33"/>
+      <c r="E305" s="36"/>
+      <c r="F305" s="36"/>
     </row>
     <row r="306" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A306" s="29"/>
-      <c r="B306" s="29"/>
-      <c r="C306" s="29"/>
-      <c r="D306" s="29"/>
-      <c r="E306" s="32"/>
-      <c r="F306" s="32"/>
+      <c r="A306" s="33"/>
+      <c r="B306" s="33"/>
+      <c r="C306" s="33"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="36"/>
+      <c r="F306" s="36"/>
     </row>
     <row r="307" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A307" s="29"/>
-      <c r="B307" s="29"/>
-      <c r="C307" s="29"/>
-      <c r="D307" s="29"/>
-      <c r="E307" s="32"/>
-      <c r="F307" s="32"/>
+      <c r="A307" s="33"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="33"/>
+      <c r="D307" s="33"/>
+      <c r="E307" s="36"/>
+      <c r="F307" s="36"/>
     </row>
     <row r="308" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A308" s="29"/>
-      <c r="B308" s="29"/>
-      <c r="C308" s="29"/>
-      <c r="D308" s="29"/>
-      <c r="E308" s="32"/>
-      <c r="F308" s="32"/>
+      <c r="A308" s="33"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="33"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="36"/>
+      <c r="F308" s="36"/>
     </row>
     <row r="309" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A309" s="29"/>
-      <c r="B309" s="29"/>
-      <c r="C309" s="29"/>
-      <c r="D309" s="29"/>
-      <c r="E309" s="32"/>
-      <c r="F309" s="32"/>
+      <c r="A309" s="33"/>
+      <c r="B309" s="33"/>
+      <c r="C309" s="33"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="36"/>
+      <c r="F309" s="36"/>
     </row>
     <row r="310" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A310" s="29"/>
-      <c r="B310" s="29"/>
-      <c r="C310" s="29"/>
-      <c r="D310" s="29"/>
-      <c r="E310" s="32"/>
-      <c r="F310" s="32"/>
+      <c r="A310" s="33"/>
+      <c r="B310" s="33"/>
+      <c r="C310" s="33"/>
+      <c r="D310" s="33"/>
+      <c r="E310" s="36"/>
+      <c r="F310" s="36"/>
     </row>
     <row r="311" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A311" s="29"/>
-      <c r="B311" s="29"/>
-      <c r="C311" s="29"/>
-      <c r="D311" s="29"/>
-      <c r="E311" s="32"/>
-      <c r="F311" s="32"/>
+      <c r="A311" s="33"/>
+      <c r="B311" s="33"/>
+      <c r="C311" s="33"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="36"/>
+      <c r="F311" s="36"/>
     </row>
     <row r="312" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A312" s="29"/>
-      <c r="B312" s="29"/>
-      <c r="C312" s="29"/>
-      <c r="D312" s="29"/>
-      <c r="E312" s="32"/>
-      <c r="F312" s="32"/>
+      <c r="A312" s="33"/>
+      <c r="B312" s="33"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="36"/>
+      <c r="F312" s="36"/>
     </row>
     <row r="313" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A313" s="29"/>
-      <c r="B313" s="29"/>
-      <c r="C313" s="29"/>
-      <c r="D313" s="29"/>
-      <c r="E313" s="32"/>
-      <c r="F313" s="32"/>
+      <c r="A313" s="33"/>
+      <c r="B313" s="33"/>
+      <c r="C313" s="33"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="36"/>
+      <c r="F313" s="36"/>
     </row>
     <row r="314" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A314" s="29"/>
-      <c r="B314" s="29"/>
-      <c r="C314" s="29"/>
-      <c r="D314" s="29"/>
-      <c r="E314" s="32"/>
-      <c r="F314" s="32"/>
+      <c r="A314" s="33"/>
+      <c r="B314" s="33"/>
+      <c r="C314" s="33"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="36"/>
+      <c r="F314" s="36"/>
     </row>
     <row r="315" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A315" s="29"/>
-      <c r="B315" s="29"/>
-      <c r="C315" s="29"/>
-      <c r="D315" s="29"/>
-      <c r="E315" s="32"/>
-      <c r="F315" s="32"/>
+      <c r="A315" s="33"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="33"/>
+      <c r="D315" s="33"/>
+      <c r="E315" s="36"/>
+      <c r="F315" s="36"/>
     </row>
     <row r="316" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A316" s="29"/>
-      <c r="B316" s="29"/>
-      <c r="C316" s="29"/>
-      <c r="D316" s="29"/>
-      <c r="E316" s="32"/>
-      <c r="F316" s="32"/>
+      <c r="A316" s="33"/>
+      <c r="B316" s="33"/>
+      <c r="C316" s="33"/>
+      <c r="D316" s="33"/>
+      <c r="E316" s="36"/>
+      <c r="F316" s="36"/>
     </row>
     <row r="317" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A317" s="29"/>
-      <c r="B317" s="29"/>
-      <c r="C317" s="29"/>
-      <c r="D317" s="29"/>
-      <c r="E317" s="32"/>
-      <c r="F317" s="32"/>
+      <c r="A317" s="33"/>
+      <c r="B317" s="33"/>
+      <c r="C317" s="33"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="36"/>
+      <c r="F317" s="36"/>
     </row>
     <row r="318" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A318" s="29"/>
-      <c r="B318" s="29"/>
-      <c r="C318" s="29"/>
-      <c r="D318" s="29"/>
-      <c r="E318" s="32"/>
-      <c r="F318" s="32"/>
+      <c r="A318" s="33"/>
+      <c r="B318" s="33"/>
+      <c r="C318" s="33"/>
+      <c r="D318" s="33"/>
+      <c r="E318" s="36"/>
+      <c r="F318" s="36"/>
     </row>
     <row r="319" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A319" s="29"/>
-      <c r="B319" s="29"/>
-      <c r="C319" s="29"/>
-      <c r="D319" s="29"/>
-      <c r="E319" s="32"/>
-      <c r="F319" s="32"/>
+      <c r="A319" s="33"/>
+      <c r="B319" s="33"/>
+      <c r="C319" s="33"/>
+      <c r="D319" s="33"/>
+      <c r="E319" s="36"/>
+      <c r="F319" s="36"/>
     </row>
     <row r="320" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A320" s="29"/>
-      <c r="B320" s="29"/>
-      <c r="C320" s="29"/>
-      <c r="D320" s="29"/>
-      <c r="E320" s="32"/>
-      <c r="F320" s="32"/>
+      <c r="A320" s="33"/>
+      <c r="B320" s="33"/>
+      <c r="C320" s="33"/>
+      <c r="D320" s="33"/>
+      <c r="E320" s="36"/>
+      <c r="F320" s="36"/>
     </row>
     <row r="321" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A321" s="29"/>
-      <c r="B321" s="29"/>
-      <c r="C321" s="29"/>
-      <c r="D321" s="29"/>
-      <c r="E321" s="32"/>
-      <c r="F321" s="32"/>
+      <c r="A321" s="33"/>
+      <c r="B321" s="33"/>
+      <c r="C321" s="33"/>
+      <c r="D321" s="33"/>
+      <c r="E321" s="36"/>
+      <c r="F321" s="36"/>
     </row>
     <row r="322" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A322" s="29"/>
-      <c r="B322" s="29"/>
-      <c r="C322" s="29"/>
-      <c r="D322" s="29"/>
-      <c r="E322" s="32"/>
-      <c r="F322" s="32"/>
+      <c r="A322" s="33"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="33"/>
+      <c r="D322" s="33"/>
+      <c r="E322" s="36"/>
+      <c r="F322" s="36"/>
     </row>
     <row r="323" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A323" s="29"/>
-      <c r="B323" s="29"/>
-      <c r="C323" s="29"/>
-      <c r="D323" s="29"/>
-      <c r="E323" s="32"/>
-      <c r="F323" s="32"/>
+      <c r="A323" s="33"/>
+      <c r="B323" s="33"/>
+      <c r="C323" s="33"/>
+      <c r="D323" s="33"/>
+      <c r="E323" s="36"/>
+      <c r="F323" s="36"/>
     </row>
     <row r="324" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A324" s="29"/>
-      <c r="B324" s="29"/>
-      <c r="C324" s="29"/>
-      <c r="D324" s="29"/>
-      <c r="E324" s="32"/>
-      <c r="F324" s="32"/>
+      <c r="A324" s="33"/>
+      <c r="B324" s="33"/>
+      <c r="C324" s="33"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="36"/>
+      <c r="F324" s="36"/>
     </row>
     <row r="325" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A325" s="29"/>
-      <c r="B325" s="29"/>
-      <c r="C325" s="29"/>
-      <c r="D325" s="29"/>
-      <c r="E325" s="32"/>
-      <c r="F325" s="32"/>
+      <c r="A325" s="33"/>
+      <c r="B325" s="33"/>
+      <c r="C325" s="33"/>
+      <c r="D325" s="33"/>
+      <c r="E325" s="36"/>
+      <c r="F325" s="36"/>
     </row>
     <row r="326" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A326" s="29"/>
-      <c r="B326" s="29"/>
-      <c r="C326" s="29"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="32"/>
-      <c r="F326" s="32"/>
+      <c r="A326" s="33"/>
+      <c r="B326" s="33"/>
+      <c r="C326" s="33"/>
+      <c r="D326" s="33"/>
+      <c r="E326" s="36"/>
+      <c r="F326" s="36"/>
     </row>
     <row r="327" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A327" s="29"/>
-      <c r="B327" s="29"/>
-      <c r="C327" s="29"/>
-      <c r="D327" s="29"/>
-      <c r="E327" s="32"/>
-      <c r="F327" s="32"/>
+      <c r="A327" s="33"/>
+      <c r="B327" s="33"/>
+      <c r="C327" s="33"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="36"/>
+      <c r="F327" s="36"/>
     </row>
     <row r="328" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A328" s="29"/>
-      <c r="B328" s="29"/>
-      <c r="C328" s="29"/>
-      <c r="D328" s="29"/>
-      <c r="E328" s="32"/>
-      <c r="F328" s="32"/>
+      <c r="A328" s="33"/>
+      <c r="B328" s="33"/>
+      <c r="C328" s="33"/>
+      <c r="D328" s="33"/>
+      <c r="E328" s="36"/>
+      <c r="F328" s="36"/>
     </row>
     <row r="329" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A329" s="29"/>
-      <c r="B329" s="29"/>
-      <c r="C329" s="29"/>
-      <c r="D329" s="29"/>
-      <c r="E329" s="32"/>
-      <c r="F329" s="32"/>
+      <c r="A329" s="33"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="33"/>
+      <c r="D329" s="33"/>
+      <c r="E329" s="36"/>
+      <c r="F329" s="36"/>
     </row>
     <row r="330" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A330" s="29"/>
-      <c r="B330" s="29"/>
-      <c r="C330" s="29"/>
-      <c r="D330" s="29"/>
-      <c r="E330" s="32"/>
-      <c r="F330" s="32"/>
+      <c r="A330" s="33"/>
+      <c r="B330" s="33"/>
+      <c r="C330" s="33"/>
+      <c r="D330" s="33"/>
+      <c r="E330" s="36"/>
+      <c r="F330" s="36"/>
     </row>
     <row r="331" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A331" s="29"/>
-      <c r="B331" s="29"/>
-      <c r="C331" s="29"/>
-      <c r="D331" s="29"/>
-      <c r="E331" s="32"/>
-      <c r="F331" s="32"/>
+      <c r="A331" s="33"/>
+      <c r="B331" s="33"/>
+      <c r="C331" s="33"/>
+      <c r="D331" s="33"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
     </row>
     <row r="332" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A332" s="29"/>
-      <c r="B332" s="29"/>
-      <c r="C332" s="29"/>
-      <c r="D332" s="29"/>
-      <c r="E332" s="32"/>
-      <c r="F332" s="32"/>
+      <c r="A332" s="33"/>
+      <c r="B332" s="33"/>
+      <c r="C332" s="33"/>
+      <c r="D332" s="33"/>
+      <c r="E332" s="36"/>
+      <c r="F332" s="36"/>
     </row>
     <row r="333" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A333" s="29"/>
-      <c r="B333" s="29"/>
-      <c r="C333" s="29"/>
-      <c r="D333" s="29"/>
-      <c r="E333" s="32"/>
-      <c r="F333" s="32"/>
+      <c r="A333" s="33"/>
+      <c r="B333" s="33"/>
+      <c r="C333" s="33"/>
+      <c r="D333" s="33"/>
+      <c r="E333" s="36"/>
+      <c r="F333" s="36"/>
     </row>
     <row r="334" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A334" s="29"/>
-      <c r="B334" s="29"/>
-      <c r="C334" s="29"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="32"/>
-      <c r="F334" s="32"/>
+      <c r="A334" s="33"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="33"/>
+      <c r="D334" s="33"/>
+      <c r="E334" s="36"/>
+      <c r="F334" s="36"/>
     </row>
     <row r="335" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A335" s="29"/>
-      <c r="B335" s="29"/>
-      <c r="C335" s="29"/>
-      <c r="D335" s="29"/>
-      <c r="E335" s="32"/>
-      <c r="F335" s="32"/>
+      <c r="A335" s="33"/>
+      <c r="B335" s="33"/>
+      <c r="C335" s="33"/>
+      <c r="D335" s="33"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="36"/>
     </row>
     <row r="336" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A336" s="29"/>
-      <c r="B336" s="29"/>
-      <c r="C336" s="29"/>
-      <c r="D336" s="29"/>
-      <c r="E336" s="32"/>
-      <c r="F336" s="32"/>
+      <c r="A336" s="33"/>
+      <c r="B336" s="33"/>
+      <c r="C336" s="33"/>
+      <c r="D336" s="33"/>
+      <c r="E336" s="36"/>
+      <c r="F336" s="36"/>
     </row>
     <row r="337" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A337" s="29"/>
-      <c r="B337" s="29"/>
-      <c r="C337" s="29"/>
-      <c r="D337" s="29"/>
-      <c r="E337" s="32"/>
-      <c r="F337" s="32"/>
+      <c r="A337" s="33"/>
+      <c r="B337" s="33"/>
+      <c r="C337" s="33"/>
+      <c r="D337" s="33"/>
+      <c r="E337" s="36"/>
+      <c r="F337" s="36"/>
     </row>
     <row r="338" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A338" s="29"/>
-      <c r="B338" s="29"/>
-      <c r="C338" s="29"/>
-      <c r="D338" s="29"/>
-      <c r="E338" s="32"/>
-      <c r="F338" s="32"/>
+      <c r="A338" s="33"/>
+      <c r="B338" s="33"/>
+      <c r="C338" s="33"/>
+      <c r="D338" s="33"/>
+      <c r="E338" s="36"/>
+      <c r="F338" s="36"/>
     </row>
     <row r="339" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A339" s="29"/>
-      <c r="B339" s="29"/>
-      <c r="C339" s="29"/>
-      <c r="D339" s="29"/>
-      <c r="E339" s="32"/>
-      <c r="F339" s="32"/>
+      <c r="A339" s="33"/>
+      <c r="B339" s="33"/>
+      <c r="C339" s="33"/>
+      <c r="D339" s="33"/>
+      <c r="E339" s="36"/>
+      <c r="F339" s="36"/>
     </row>
     <row r="340" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A340" s="29"/>
-      <c r="B340" s="29"/>
-      <c r="C340" s="29"/>
-      <c r="D340" s="29"/>
-      <c r="E340" s="32"/>
-      <c r="F340" s="32"/>
+      <c r="A340" s="33"/>
+      <c r="B340" s="33"/>
+      <c r="C340" s="33"/>
+      <c r="D340" s="33"/>
+      <c r="E340" s="36"/>
+      <c r="F340" s="36"/>
     </row>
     <row r="341" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A341" s="29"/>
-      <c r="B341" s="29"/>
-      <c r="C341" s="29"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="32"/>
-      <c r="F341" s="32"/>
+      <c r="A341" s="33"/>
+      <c r="B341" s="33"/>
+      <c r="C341" s="33"/>
+      <c r="D341" s="33"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="36"/>
     </row>
     <row r="342" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A342" s="29"/>
-      <c r="B342" s="29"/>
-      <c r="C342" s="29"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="32"/>
-      <c r="F342" s="32"/>
+      <c r="A342" s="33"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="33"/>
+      <c r="D342" s="33"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="36"/>
     </row>
     <row r="343" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A343" s="29"/>
-      <c r="B343" s="29"/>
-      <c r="C343" s="29"/>
-      <c r="D343" s="29"/>
-      <c r="E343" s="32"/>
-      <c r="F343" s="32"/>
+      <c r="A343" s="33"/>
+      <c r="B343" s="33"/>
+      <c r="C343" s="33"/>
+      <c r="D343" s="33"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="36"/>
     </row>
     <row r="344" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A344" s="29"/>
-      <c r="B344" s="29"/>
-      <c r="C344" s="29"/>
-      <c r="D344" s="29"/>
-      <c r="E344" s="32"/>
-      <c r="F344" s="32"/>
+      <c r="A344" s="33"/>
+      <c r="B344" s="33"/>
+      <c r="C344" s="33"/>
+      <c r="D344" s="33"/>
+      <c r="E344" s="36"/>
+      <c r="F344" s="36"/>
     </row>
     <row r="345" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A345" s="29"/>
-      <c r="B345" s="29"/>
-      <c r="C345" s="29"/>
-      <c r="D345" s="29"/>
-      <c r="E345" s="32"/>
-      <c r="F345" s="32"/>
+      <c r="A345" s="33"/>
+      <c r="B345" s="33"/>
+      <c r="C345" s="33"/>
+      <c r="D345" s="33"/>
+      <c r="E345" s="36"/>
+      <c r="F345" s="36"/>
     </row>
     <row r="346" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A346" s="29"/>
-      <c r="B346" s="29"/>
-      <c r="C346" s="29"/>
-      <c r="D346" s="29"/>
-      <c r="E346" s="32"/>
-      <c r="F346" s="32"/>
+      <c r="A346" s="33"/>
+      <c r="B346" s="33"/>
+      <c r="C346" s="33"/>
+      <c r="D346" s="33"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="36"/>
     </row>
     <row r="347" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A347" s="29"/>
-      <c r="B347" s="29"/>
-      <c r="C347" s="29"/>
-      <c r="D347" s="29"/>
-      <c r="E347" s="32"/>
-      <c r="F347" s="32"/>
+      <c r="A347" s="33"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="33"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="36"/>
+      <c r="F347" s="36"/>
     </row>
     <row r="348" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A348" s="29"/>
-      <c r="B348" s="29"/>
-      <c r="C348" s="29"/>
-      <c r="D348" s="29"/>
-      <c r="E348" s="29"/>
-      <c r="F348" s="29"/>
+      <c r="A348" s="33"/>
+      <c r="B348" s="33"/>
+      <c r="C348" s="33"/>
+      <c r="D348" s="33"/>
+      <c r="E348" s="33"/>
+      <c r="F348" s="33"/>
     </row>
     <row r="349" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A349" s="29"/>
-      <c r="B349" s="29"/>
-      <c r="C349" s="29"/>
-      <c r="D349" s="29"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="29"/>
+      <c r="A349" s="33"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="33"/>
+      <c r="D349" s="33"/>
+      <c r="E349" s="33"/>
+      <c r="F349" s="33"/>
     </row>
     <row r="350" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A350" s="29"/>
-      <c r="B350" s="29"/>
-      <c r="C350" s="29"/>
-      <c r="D350" s="29"/>
-      <c r="E350" s="29"/>
-      <c r="F350" s="29"/>
+      <c r="A350" s="33"/>
+      <c r="B350" s="33"/>
+      <c r="C350" s="33"/>
+      <c r="D350" s="33"/>
+      <c r="E350" s="33"/>
+      <c r="F350" s="33"/>
     </row>
     <row r="351" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A351" s="29"/>
-      <c r="B351" s="29"/>
-      <c r="C351" s="29"/>
-      <c r="D351" s="29"/>
-      <c r="E351" s="29"/>
-      <c r="F351" s="29"/>
+      <c r="A351" s="33"/>
+      <c r="B351" s="33"/>
+      <c r="C351" s="33"/>
+      <c r="D351" s="33"/>
+      <c r="E351" s="33"/>
+      <c r="F351" s="33"/>
     </row>
     <row r="352" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A352" s="29"/>
-      <c r="B352" s="29"/>
-      <c r="C352" s="29"/>
-      <c r="D352" s="29"/>
-      <c r="E352" s="29"/>
-      <c r="F352" s="29"/>
+      <c r="A352" s="33"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="33"/>
+      <c r="D352" s="33"/>
+      <c r="E352" s="33"/>
+      <c r="F352" s="33"/>
     </row>
     <row r="353" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A353" s="29"/>
-      <c r="B353" s="29"/>
-      <c r="C353" s="29"/>
-      <c r="D353" s="29"/>
-      <c r="E353" s="29"/>
-      <c r="F353" s="29"/>
+      <c r="A353" s="33"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="33"/>
+      <c r="D353" s="33"/>
+      <c r="E353" s="33"/>
+      <c r="F353" s="33"/>
     </row>
     <row r="354" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A354" s="29"/>
-      <c r="B354" s="29"/>
-      <c r="C354" s="29"/>
-      <c r="D354" s="29"/>
-      <c r="E354" s="29"/>
-      <c r="F354" s="29"/>
+      <c r="A354" s="33"/>
+      <c r="B354" s="33"/>
+      <c r="C354" s="33"/>
+      <c r="D354" s="33"/>
+      <c r="E354" s="33"/>
+      <c r="F354" s="33"/>
     </row>
     <row r="355" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A355" s="29"/>
-      <c r="B355" s="29"/>
-      <c r="C355" s="29"/>
-      <c r="D355" s="29"/>
-      <c r="E355" s="29"/>
-      <c r="F355" s="29"/>
+      <c r="A355" s="33"/>
+      <c r="B355" s="33"/>
+      <c r="C355" s="33"/>
+      <c r="D355" s="33"/>
+      <c r="E355" s="33"/>
+      <c r="F355" s="33"/>
     </row>
     <row r="356" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A356" s="29"/>
-      <c r="B356" s="29"/>
-      <c r="C356" s="29"/>
-      <c r="D356" s="29"/>
-      <c r="E356" s="29"/>
-      <c r="F356" s="29"/>
+      <c r="A356" s="33"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="33"/>
+      <c r="D356" s="33"/>
+      <c r="E356" s="33"/>
+      <c r="F356" s="33"/>
     </row>
     <row r="357" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A357" s="29"/>
-      <c r="B357" s="29"/>
-      <c r="C357" s="29"/>
-      <c r="D357" s="29"/>
-      <c r="E357" s="29"/>
-      <c r="F357" s="29"/>
+      <c r="A357" s="33"/>
+      <c r="B357" s="33"/>
+      <c r="C357" s="33"/>
+      <c r="D357" s="33"/>
+      <c r="E357" s="33"/>
+      <c r="F357" s="33"/>
     </row>
     <row r="358" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A358" s="29"/>
-      <c r="B358" s="29"/>
-      <c r="C358" s="29"/>
-      <c r="D358" s="29"/>
-      <c r="E358" s="29"/>
-      <c r="F358" s="29"/>
+      <c r="A358" s="33"/>
+      <c r="B358" s="33"/>
+      <c r="C358" s="33"/>
+      <c r="D358" s="33"/>
+      <c r="E358" s="33"/>
+      <c r="F358" s="33"/>
     </row>
     <row r="359" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A359" s="29"/>
-      <c r="B359" s="29"/>
-      <c r="C359" s="29"/>
-      <c r="D359" s="29"/>
-      <c r="E359" s="29"/>
-      <c r="F359" s="29"/>
+      <c r="A359" s="33"/>
+      <c r="B359" s="33"/>
+      <c r="C359" s="33"/>
+      <c r="D359" s="33"/>
+      <c r="E359" s="33"/>
+      <c r="F359" s="33"/>
     </row>
     <row r="360" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A360" s="29"/>
-      <c r="B360" s="29"/>
-      <c r="C360" s="29"/>
-      <c r="D360" s="29"/>
-      <c r="E360" s="29"/>
-      <c r="F360" s="29"/>
+      <c r="A360" s="33"/>
+      <c r="B360" s="33"/>
+      <c r="C360" s="33"/>
+      <c r="D360" s="33"/>
+      <c r="E360" s="33"/>
+      <c r="F360" s="33"/>
     </row>
     <row r="361" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A361" s="29"/>
-      <c r="B361" s="29"/>
-      <c r="C361" s="29"/>
-      <c r="D361" s="29"/>
-      <c r="E361" s="29"/>
-      <c r="F361" s="29"/>
+      <c r="A361" s="33"/>
+      <c r="B361" s="33"/>
+      <c r="C361" s="33"/>
+      <c r="D361" s="33"/>
+      <c r="E361" s="33"/>
+      <c r="F361" s="33"/>
     </row>
     <row r="362" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A362" s="29"/>
-      <c r="B362" s="29"/>
-      <c r="C362" s="29"/>
-      <c r="D362" s="29"/>
-      <c r="E362" s="29"/>
-      <c r="F362" s="29"/>
+      <c r="A362" s="33"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="33"/>
+      <c r="D362" s="33"/>
+      <c r="E362" s="33"/>
+      <c r="F362" s="33"/>
     </row>
     <row r="363" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A363" s="29"/>
-      <c r="B363" s="29"/>
-      <c r="C363" s="29"/>
-      <c r="D363" s="29"/>
-      <c r="E363" s="29"/>
-      <c r="F363" s="29"/>
+      <c r="A363" s="33"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="33"/>
+      <c r="D363" s="33"/>
+      <c r="E363" s="33"/>
+      <c r="F363" s="33"/>
     </row>
     <row r="364" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A364" s="29"/>
-      <c r="B364" s="29"/>
-      <c r="C364" s="29"/>
-      <c r="D364" s="29"/>
-      <c r="E364" s="29"/>
-      <c r="F364" s="29"/>
+      <c r="A364" s="33"/>
+      <c r="B364" s="33"/>
+      <c r="C364" s="33"/>
+      <c r="D364" s="33"/>
+      <c r="E364" s="33"/>
+      <c r="F364" s="33"/>
     </row>
     <row r="365" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A365" s="29"/>
-      <c r="B365" s="29"/>
-      <c r="C365" s="29"/>
-      <c r="D365" s="29"/>
-      <c r="E365" s="29"/>
-      <c r="F365" s="29"/>
+      <c r="A365" s="33"/>
+      <c r="B365" s="33"/>
+      <c r="C365" s="33"/>
+      <c r="D365" s="33"/>
+      <c r="E365" s="33"/>
+      <c r="F365" s="33"/>
     </row>
     <row r="366" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A366" s="29"/>
-      <c r="B366" s="29"/>
-      <c r="C366" s="29"/>
-      <c r="D366" s="29"/>
-      <c r="E366" s="29"/>
-      <c r="F366" s="29"/>
+      <c r="A366" s="33"/>
+      <c r="B366" s="33"/>
+      <c r="C366" s="33"/>
+      <c r="D366" s="33"/>
+      <c r="E366" s="33"/>
+      <c r="F366" s="33"/>
     </row>
     <row r="367" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A367" s="29"/>
-      <c r="B367" s="29"/>
-      <c r="C367" s="29"/>
-      <c r="D367" s="29"/>
-      <c r="E367" s="29"/>
-      <c r="F367" s="29"/>
+      <c r="A367" s="33"/>
+      <c r="B367" s="33"/>
+      <c r="C367" s="33"/>
+      <c r="D367" s="33"/>
+      <c r="E367" s="33"/>
+      <c r="F367" s="33"/>
     </row>
     <row r="368" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A368" s="29"/>
-      <c r="B368" s="29"/>
-      <c r="C368" s="29"/>
-      <c r="D368" s="29"/>
-      <c r="E368" s="29"/>
-      <c r="F368" s="29"/>
+      <c r="A368" s="33"/>
+      <c r="B368" s="33"/>
+      <c r="C368" s="33"/>
+      <c r="D368" s="33"/>
+      <c r="E368" s="33"/>
+      <c r="F368" s="33"/>
     </row>
     <row r="369" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A369" s="29"/>
-      <c r="B369" s="29"/>
-      <c r="C369" s="29"/>
-      <c r="D369" s="29"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="29"/>
+      <c r="A369" s="33"/>
+      <c r="B369" s="33"/>
+      <c r="C369" s="33"/>
+      <c r="D369" s="33"/>
+      <c r="E369" s="33"/>
+      <c r="F369" s="33"/>
     </row>
     <row r="370" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A370" s="29"/>
-      <c r="B370" s="29"/>
-      <c r="C370" s="29"/>
-      <c r="D370" s="29"/>
-      <c r="E370" s="29"/>
-      <c r="F370" s="29"/>
+      <c r="A370" s="33"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="33"/>
+      <c r="D370" s="33"/>
+      <c r="E370" s="33"/>
+      <c r="F370" s="33"/>
     </row>
     <row r="371" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A371" s="29"/>
-      <c r="B371" s="29"/>
-      <c r="C371" s="29"/>
-      <c r="D371" s="29"/>
-      <c r="E371" s="29"/>
-      <c r="F371" s="29"/>
+      <c r="A371" s="33"/>
+      <c r="B371" s="33"/>
+      <c r="C371" s="33"/>
+      <c r="D371" s="33"/>
+      <c r="E371" s="33"/>
+      <c r="F371" s="33"/>
     </row>
     <row r="372" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A372" s="29"/>
-      <c r="B372" s="29"/>
-      <c r="C372" s="29"/>
-      <c r="D372" s="29"/>
-      <c r="E372" s="29"/>
-      <c r="F372" s="29"/>
+      <c r="A372" s="33"/>
+      <c r="B372" s="33"/>
+      <c r="C372" s="33"/>
+      <c r="D372" s="33"/>
+      <c r="E372" s="33"/>
+      <c r="F372" s="33"/>
     </row>
     <row r="373" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A373" s="29"/>
-      <c r="B373" s="29"/>
-      <c r="C373" s="29"/>
-      <c r="D373" s="29"/>
-      <c r="E373" s="29"/>
-      <c r="F373" s="29"/>
+      <c r="A373" s="33"/>
+      <c r="B373" s="33"/>
+      <c r="C373" s="33"/>
+      <c r="D373" s="33"/>
+      <c r="E373" s="33"/>
+      <c r="F373" s="33"/>
     </row>
     <row r="374" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A374" s="29"/>
-      <c r="B374" s="29"/>
-      <c r="C374" s="29"/>
-      <c r="D374" s="29"/>
-      <c r="E374" s="29"/>
-      <c r="F374" s="29"/>
+      <c r="A374" s="33"/>
+      <c r="B374" s="33"/>
+      <c r="C374" s="33"/>
+      <c r="D374" s="33"/>
+      <c r="E374" s="33"/>
+      <c r="F374" s="33"/>
     </row>
     <row r="375" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A375" s="29"/>
-      <c r="B375" s="29"/>
-      <c r="C375" s="29"/>
-      <c r="D375" s="29"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="29"/>
+      <c r="A375" s="33"/>
+      <c r="B375" s="33"/>
+      <c r="C375" s="33"/>
+      <c r="D375" s="33"/>
+      <c r="E375" s="33"/>
+      <c r="F375" s="33"/>
     </row>
     <row r="376" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A376" s="29"/>
-      <c r="B376" s="29"/>
-      <c r="C376" s="29"/>
-      <c r="D376" s="29"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="29"/>
+      <c r="A376" s="33"/>
+      <c r="B376" s="33"/>
+      <c r="C376" s="33"/>
+      <c r="D376" s="33"/>
+      <c r="E376" s="33"/>
+      <c r="F376" s="33"/>
     </row>
     <row r="377" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A377" s="29"/>
-      <c r="B377" s="29"/>
-      <c r="C377" s="29"/>
-      <c r="D377" s="29"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="29"/>
+      <c r="A377" s="33"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="33"/>
+      <c r="D377" s="33"/>
+      <c r="E377" s="33"/>
+      <c r="F377" s="33"/>
     </row>
     <row r="378" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A378" s="29"/>
-      <c r="B378" s="29"/>
-      <c r="C378" s="29"/>
-      <c r="D378" s="29"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="29"/>
+      <c r="A378" s="33"/>
+      <c r="B378" s="33"/>
+      <c r="C378" s="33"/>
+      <c r="D378" s="33"/>
+      <c r="E378" s="33"/>
+      <c r="F378" s="33"/>
     </row>
     <row r="379" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A379" s="29"/>
-      <c r="B379" s="29"/>
-      <c r="C379" s="29"/>
-      <c r="D379" s="29"/>
-      <c r="E379" s="29"/>
-      <c r="F379" s="29"/>
+      <c r="A379" s="33"/>
+      <c r="B379" s="33"/>
+      <c r="C379" s="33"/>
+      <c r="D379" s="33"/>
+      <c r="E379" s="33"/>
+      <c r="F379" s="33"/>
     </row>
     <row r="380" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A380" s="29"/>
-      <c r="B380" s="29"/>
-      <c r="C380" s="29"/>
-      <c r="D380" s="29"/>
-      <c r="E380" s="29"/>
-      <c r="F380" s="29"/>
+      <c r="A380" s="33"/>
+      <c r="B380" s="33"/>
+      <c r="C380" s="33"/>
+      <c r="D380" s="33"/>
+      <c r="E380" s="33"/>
+      <c r="F380" s="33"/>
     </row>
     <row r="381" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A381" s="29"/>
-      <c r="B381" s="29"/>
-      <c r="C381" s="29"/>
-      <c r="D381" s="29"/>
-      <c r="E381" s="29"/>
-      <c r="F381" s="29"/>
+      <c r="A381" s="33"/>
+      <c r="B381" s="33"/>
+      <c r="C381" s="33"/>
+      <c r="D381" s="33"/>
+      <c r="E381" s="33"/>
+      <c r="F381" s="33"/>
     </row>
     <row r="382" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A382" s="29"/>
-      <c r="B382" s="29"/>
-      <c r="C382" s="29"/>
-      <c r="D382" s="29"/>
-      <c r="E382" s="29"/>
-      <c r="F382" s="29"/>
+      <c r="A382" s="33"/>
+      <c r="B382" s="33"/>
+      <c r="C382" s="33"/>
+      <c r="D382" s="33"/>
+      <c r="E382" s="33"/>
+      <c r="F382" s="33"/>
     </row>
     <row r="383" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A383" s="29"/>
-      <c r="B383" s="29"/>
-      <c r="C383" s="29"/>
-      <c r="D383" s="29"/>
-      <c r="E383" s="29"/>
-      <c r="F383" s="29"/>
+      <c r="A383" s="33"/>
+      <c r="B383" s="33"/>
+      <c r="C383" s="33"/>
+      <c r="D383" s="33"/>
+      <c r="E383" s="33"/>
+      <c r="F383" s="33"/>
     </row>
     <row r="384" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A384" s="29"/>
-      <c r="B384" s="29"/>
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="29"/>
+      <c r="A384" s="33"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="33"/>
+      <c r="D384" s="33"/>
+      <c r="E384" s="33"/>
+      <c r="F384" s="33"/>
     </row>
     <row r="385" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A385" s="29"/>
-      <c r="B385" s="29"/>
-      <c r="C385" s="29"/>
-      <c r="D385" s="29"/>
-      <c r="E385" s="29"/>
-      <c r="F385" s="29"/>
+      <c r="A385" s="33"/>
+      <c r="B385" s="33"/>
+      <c r="C385" s="33"/>
+      <c r="D385" s="33"/>
+      <c r="E385" s="33"/>
+      <c r="F385" s="33"/>
     </row>
     <row r="386" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A386" s="29"/>
-      <c r="B386" s="29"/>
-      <c r="C386" s="29"/>
-      <c r="D386" s="29"/>
-      <c r="E386" s="29"/>
-      <c r="F386" s="29"/>
+      <c r="A386" s="33"/>
+      <c r="B386" s="33"/>
+      <c r="C386" s="33"/>
+      <c r="D386" s="33"/>
+      <c r="E386" s="33"/>
+      <c r="F386" s="33"/>
     </row>
     <row r="387" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A387" s="29"/>
-      <c r="B387" s="29"/>
-      <c r="C387" s="29"/>
-      <c r="D387" s="29"/>
-      <c r="E387" s="29"/>
-      <c r="F387" s="29"/>
+      <c r="A387" s="33"/>
+      <c r="B387" s="33"/>
+      <c r="C387" s="33"/>
+      <c r="D387" s="33"/>
+      <c r="E387" s="33"/>
+      <c r="F387" s="33"/>
     </row>
     <row r="388" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A388" s="29"/>
-      <c r="B388" s="29"/>
-      <c r="C388" s="29"/>
-      <c r="D388" s="29"/>
-      <c r="E388" s="29"/>
-      <c r="F388" s="29"/>
+      <c r="A388" s="33"/>
+      <c r="B388" s="33"/>
+      <c r="C388" s="33"/>
+      <c r="D388" s="33"/>
+      <c r="E388" s="33"/>
+      <c r="F388" s="33"/>
     </row>
     <row r="389" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A389" s="29"/>
-      <c r="B389" s="29"/>
-      <c r="C389" s="29"/>
-      <c r="D389" s="29"/>
-      <c r="E389" s="29"/>
-      <c r="F389" s="29"/>
+      <c r="A389" s="33"/>
+      <c r="B389" s="33"/>
+      <c r="C389" s="33"/>
+      <c r="D389" s="33"/>
+      <c r="E389" s="33"/>
+      <c r="F389" s="33"/>
     </row>
     <row r="390" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A390" s="29"/>
-      <c r="B390" s="29"/>
-      <c r="C390" s="29"/>
-      <c r="D390" s="29"/>
-      <c r="E390" s="29"/>
-      <c r="F390" s="29"/>
+      <c r="A390" s="33"/>
+      <c r="B390" s="33"/>
+      <c r="C390" s="33"/>
+      <c r="D390" s="33"/>
+      <c r="E390" s="33"/>
+      <c r="F390" s="33"/>
     </row>
     <row r="391" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A391" s="29"/>
-      <c r="B391" s="29"/>
-      <c r="C391" s="29"/>
-      <c r="D391" s="29"/>
-      <c r="E391" s="29"/>
-      <c r="F391" s="29"/>
+      <c r="A391" s="33"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="33"/>
+      <c r="D391" s="33"/>
+      <c r="E391" s="33"/>
+      <c r="F391" s="33"/>
     </row>
     <row r="392" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A392" s="29"/>
-      <c r="B392" s="29"/>
-      <c r="C392" s="29"/>
-      <c r="D392" s="29"/>
-      <c r="E392" s="29"/>
-      <c r="F392" s="29"/>
+      <c r="A392" s="33"/>
+      <c r="B392" s="33"/>
+      <c r="C392" s="33"/>
+      <c r="D392" s="33"/>
+      <c r="E392" s="33"/>
+      <c r="F392" s="33"/>
     </row>
     <row r="393" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A393" s="29"/>
-      <c r="B393" s="29"/>
-      <c r="C393" s="29"/>
-      <c r="D393" s="29"/>
-      <c r="E393" s="29"/>
-      <c r="F393" s="29"/>
+      <c r="A393" s="33"/>
+      <c r="B393" s="33"/>
+      <c r="C393" s="33"/>
+      <c r="D393" s="33"/>
+      <c r="E393" s="33"/>
+      <c r="F393" s="33"/>
     </row>
     <row r="394" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A394" s="29"/>
-      <c r="B394" s="29"/>
-      <c r="C394" s="29"/>
-      <c r="D394" s="29"/>
-      <c r="E394" s="29"/>
-      <c r="F394" s="29"/>
+      <c r="A394" s="33"/>
+      <c r="B394" s="33"/>
+      <c r="C394" s="33"/>
+      <c r="D394" s="33"/>
+      <c r="E394" s="33"/>
+      <c r="F394" s="33"/>
     </row>
     <row r="395" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A395" s="29"/>
-      <c r="B395" s="29"/>
-      <c r="C395" s="29"/>
-      <c r="D395" s="29"/>
-      <c r="E395" s="29"/>
-      <c r="F395" s="29"/>
+      <c r="A395" s="33"/>
+      <c r="B395" s="33"/>
+      <c r="C395" s="33"/>
+      <c r="D395" s="33"/>
+      <c r="E395" s="33"/>
+      <c r="F395" s="33"/>
     </row>
     <row r="396" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A396" s="29"/>
-      <c r="B396" s="29"/>
-      <c r="C396" s="29"/>
-      <c r="D396" s="29"/>
-      <c r="E396" s="29"/>
-      <c r="F396" s="29"/>
+      <c r="A396" s="33"/>
+      <c r="B396" s="33"/>
+      <c r="C396" s="33"/>
+      <c r="D396" s="33"/>
+      <c r="E396" s="33"/>
+      <c r="F396" s="33"/>
     </row>
     <row r="397" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A397" s="29"/>
-      <c r="B397" s="29"/>
-      <c r="C397" s="29"/>
-      <c r="D397" s="29"/>
-      <c r="E397" s="29"/>
-      <c r="F397" s="29"/>
+      <c r="A397" s="33"/>
+      <c r="B397" s="33"/>
+      <c r="C397" s="33"/>
+      <c r="D397" s="33"/>
+      <c r="E397" s="33"/>
+      <c r="F397" s="33"/>
     </row>
     <row r="398" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A398" s="29"/>
-      <c r="B398" s="29"/>
-      <c r="C398" s="29"/>
-      <c r="D398" s="29"/>
-      <c r="E398" s="29"/>
-      <c r="F398" s="29"/>
+      <c r="A398" s="33"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="33"/>
+      <c r="D398" s="33"/>
+      <c r="E398" s="33"/>
+      <c r="F398" s="33"/>
     </row>
     <row r="399" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A399" s="29"/>
-      <c r="B399" s="29"/>
-      <c r="C399" s="29"/>
-      <c r="D399" s="29"/>
-      <c r="E399" s="29"/>
-      <c r="F399" s="29"/>
+      <c r="A399" s="33"/>
+      <c r="B399" s="33"/>
+      <c r="C399" s="33"/>
+      <c r="D399" s="33"/>
+      <c r="E399" s="33"/>
+      <c r="F399" s="33"/>
     </row>
     <row r="400" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A400" s="29"/>
-      <c r="B400" s="29"/>
-      <c r="C400" s="29"/>
-      <c r="D400" s="29"/>
-      <c r="E400" s="29"/>
-      <c r="F400" s="29"/>
+      <c r="A400" s="33"/>
+      <c r="B400" s="33"/>
+      <c r="C400" s="33"/>
+      <c r="D400" s="33"/>
+      <c r="E400" s="33"/>
+      <c r="F400" s="33"/>
     </row>
     <row r="401" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A401" s="29"/>
-      <c r="B401" s="29"/>
-      <c r="C401" s="29"/>
-      <c r="D401" s="29"/>
-      <c r="E401" s="29"/>
-      <c r="F401" s="29"/>
+      <c r="A401" s="33"/>
+      <c r="B401" s="33"/>
+      <c r="C401" s="33"/>
+      <c r="D401" s="33"/>
+      <c r="E401" s="33"/>
+      <c r="F401" s="33"/>
     </row>
     <row r="402" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A402" s="29"/>
-      <c r="B402" s="29"/>
-      <c r="C402" s="29"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="29"/>
-      <c r="F402" s="29"/>
+      <c r="A402" s="33"/>
+      <c r="B402" s="33"/>
+      <c r="C402" s="33"/>
+      <c r="D402" s="33"/>
+      <c r="E402" s="33"/>
+      <c r="F402" s="33"/>
     </row>
     <row r="403" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A403" s="29"/>
-      <c r="B403" s="29"/>
-      <c r="C403" s="29"/>
-      <c r="D403" s="29"/>
-      <c r="E403" s="29"/>
-      <c r="F403" s="29"/>
+      <c r="A403" s="33"/>
+      <c r="B403" s="33"/>
+      <c r="C403" s="33"/>
+      <c r="D403" s="33"/>
+      <c r="E403" s="33"/>
+      <c r="F403" s="33"/>
     </row>
     <row r="404" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A404" s="29"/>
-      <c r="B404" s="29"/>
-      <c r="C404" s="29"/>
-      <c r="D404" s="29"/>
-      <c r="E404" s="29"/>
-      <c r="F404" s="29"/>
+      <c r="A404" s="33"/>
+      <c r="B404" s="33"/>
+      <c r="C404" s="33"/>
+      <c r="D404" s="33"/>
+      <c r="E404" s="33"/>
+      <c r="F404" s="33"/>
     </row>
     <row r="405" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A405" s="29"/>
-      <c r="B405" s="29"/>
-      <c r="C405" s="29"/>
-      <c r="D405" s="29"/>
-      <c r="E405" s="29"/>
-      <c r="F405" s="29"/>
+      <c r="A405" s="33"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="33"/>
+      <c r="D405" s="33"/>
+      <c r="E405" s="33"/>
+      <c r="F405" s="33"/>
     </row>
     <row r="406" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A406" s="29"/>
-      <c r="B406" s="29"/>
-      <c r="C406" s="29"/>
-      <c r="D406" s="29"/>
-      <c r="E406" s="29"/>
-      <c r="F406" s="29"/>
+      <c r="A406" s="33"/>
+      <c r="B406" s="33"/>
+      <c r="C406" s="33"/>
+      <c r="D406" s="33"/>
+      <c r="E406" s="33"/>
+      <c r="F406" s="33"/>
     </row>
     <row r="407" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A407" s="29"/>
-      <c r="B407" s="29"/>
-      <c r="C407" s="29"/>
-      <c r="D407" s="29"/>
-      <c r="E407" s="29"/>
-      <c r="F407" s="29"/>
+      <c r="A407" s="33"/>
+      <c r="B407" s="33"/>
+      <c r="C407" s="33"/>
+      <c r="D407" s="33"/>
+      <c r="E407" s="33"/>
+      <c r="F407" s="33"/>
     </row>
     <row r="408" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A408" s="29"/>
-      <c r="B408" s="29"/>
-      <c r="C408" s="29"/>
-      <c r="D408" s="29"/>
-      <c r="E408" s="29"/>
-      <c r="F408" s="29"/>
+      <c r="A408" s="33"/>
+      <c r="B408" s="33"/>
+      <c r="C408" s="33"/>
+      <c r="D408" s="33"/>
+      <c r="E408" s="33"/>
+      <c r="F408" s="33"/>
     </row>
     <row r="409" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A409" s="29"/>
-      <c r="B409" s="29"/>
-      <c r="C409" s="29"/>
-      <c r="D409" s="29"/>
-      <c r="E409" s="29"/>
-      <c r="F409" s="29"/>
+      <c r="A409" s="33"/>
+      <c r="B409" s="33"/>
+      <c r="C409" s="33"/>
+      <c r="D409" s="33"/>
+      <c r="E409" s="33"/>
+      <c r="F409" s="33"/>
     </row>
     <row r="410" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A410" s="29"/>
-      <c r="B410" s="29"/>
-      <c r="C410" s="29"/>
-      <c r="D410" s="29"/>
-      <c r="E410" s="29"/>
-      <c r="F410" s="29"/>
+      <c r="A410" s="33"/>
+      <c r="B410" s="33"/>
+      <c r="C410" s="33"/>
+      <c r="D410" s="33"/>
+      <c r="E410" s="33"/>
+      <c r="F410" s="33"/>
     </row>
     <row r="411" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A411" s="29"/>
-      <c r="B411" s="29"/>
-      <c r="C411" s="29"/>
-      <c r="D411" s="29"/>
-      <c r="E411" s="29"/>
-      <c r="F411" s="29"/>
+      <c r="A411" s="33"/>
+      <c r="B411" s="33"/>
+      <c r="C411" s="33"/>
+      <c r="D411" s="33"/>
+      <c r="E411" s="33"/>
+      <c r="F411" s="33"/>
     </row>
     <row r="412" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A412" s="29"/>
-      <c r="B412" s="29"/>
-      <c r="C412" s="29"/>
-      <c r="D412" s="29"/>
-      <c r="E412" s="29"/>
-      <c r="F412" s="29"/>
+      <c r="A412" s="33"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="33"/>
+      <c r="D412" s="33"/>
+      <c r="E412" s="33"/>
+      <c r="F412" s="33"/>
     </row>
     <row r="413" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A413" s="29"/>
-      <c r="B413" s="29"/>
-      <c r="C413" s="29"/>
-      <c r="D413" s="29"/>
-      <c r="E413" s="29"/>
-      <c r="F413" s="29"/>
+      <c r="A413" s="33"/>
+      <c r="B413" s="33"/>
+      <c r="C413" s="33"/>
+      <c r="D413" s="33"/>
+      <c r="E413" s="33"/>
+      <c r="F413" s="33"/>
     </row>
     <row r="414" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A414" s="29"/>
-      <c r="B414" s="29"/>
-      <c r="C414" s="29"/>
-      <c r="D414" s="29"/>
-      <c r="E414" s="29"/>
-      <c r="F414" s="29"/>
+      <c r="A414" s="33"/>
+      <c r="B414" s="33"/>
+      <c r="C414" s="33"/>
+      <c r="D414" s="33"/>
+      <c r="E414" s="33"/>
+      <c r="F414" s="33"/>
     </row>
     <row r="415" spans="1:16136" s="6" customFormat="1"/>
     <row r="416" spans="1:16136" s="6" customFormat="1"/>
@@ -21353,12 +21162,12 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -35,25 +35,27 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>Twis Catering Services</t>
+    <t xml:space="preserve">7-08 Auto Shop
+</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-06-0068</t>
+    <t>2020-06-0071</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t>257 Barangay Sala City of Cabuyao Laguna</t>
+    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
+</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>June 03, 2020</t>
+    <t>June 24, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -186,13 +188,13 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>C001</t>
+    <t>F014</t>
   </si>
   <si>
-    <t>pack</t>
+    <t>lot</t>
   </si>
   <si>
-    <t xml:space="preserve">Meals And Snacks (AM PM Snacks Lunch)
+    <t xml:space="preserve">Fuel and Lubricants
 </t>
   </si>
   <si>
@@ -211,7 +213,7 @@
     <t xml:space="preserve">       ______________________________________</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
   <si>
     <t>Signature over Printed Name of Supplier</t>
@@ -223,7 +225,7 @@
     <t xml:space="preserve">               __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">              Officer-in-Charge</t>
+    <t xml:space="preserve">              Regional Director</t>
   </si>
   <si>
     <t xml:space="preserve">                               Date</t>
@@ -17695,13 +17697,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="86">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="E16" s="87">
-        <v>490</v>
+        <v>2</v>
       </c>
       <c r="F16" s="87">
-        <v>8820</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
@@ -17711,7 +17713,7 @@
       <c r="D17" s="86"/>
       <c r="E17" s="87"/>
       <c r="F17" s="88">
-        <v>8820</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:16136" customHeight="1" ht="13.8">

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t xml:space="preserve">Appendix 61
 </t>
@@ -35,27 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">7-08 Auto Shop
-</t>
+    <t>ASR Computer Trading and Services</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-06-0071</t>
+    <t>2020-06-0080</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
-</t>
+    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>June 24, 2020</t>
+    <t>June 25, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -188,14 +186,17 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>F014</t>
+    <t>M005</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel and Lubricants
-</t>
+    <t>Repair and Maintenance of ICT Equipment
+16 Laptops, as listed on the attached memo brief</t>
+  </si>
+  <si>
+    <t>(Total Amount in Words)   Fifty Thousand pesos only</t>
   </si>
   <si>
     <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
@@ -213,7 +214,7 @@
     <t xml:space="preserve">       ______________________________________</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t xml:space="preserve">      ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>Signature over Printed Name of Supplier</t>
@@ -267,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -427,6 +428,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -730,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -995,19 +1005,22 @@
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="164" fillId="2" borderId="29" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -1058,7 +1071,7 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -17697,23 +17710,25 @@
         <v>30</v>
       </c>
       <c r="D16" s="86">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="E16" s="87">
-        <v>2</v>
+        <v>50000</v>
       </c>
       <c r="F16" s="87">
-        <v>580</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
-      <c r="A17" s="83"/>
+      <c r="A17" s="88" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="84"/>
       <c r="C17" s="85"/>
       <c r="D17" s="86"/>
       <c r="E17" s="87"/>
-      <c r="F17" s="88">
-        <v>580</v>
+      <c r="F17" s="89">
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:16136" customHeight="1" ht="13.8">
@@ -17722,27 +17737,27 @@
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="102"/>
+      <c r="F18" s="103"/>
     </row>
     <row r="19" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A19" s="89" t="s">
-        <v>31</v>
+      <c r="A19" s="90" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="102"/>
+      <c r="F19" s="103"/>
     </row>
     <row r="20" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A20" s="89" t="s">
-        <v>32</v>
+      <c r="A20" s="90" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="102"/>
+      <c r="F20" s="103"/>
     </row>
     <row r="21" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A21" s="28"/>
@@ -17750,19 +17765,19 @@
       <c r="C21" s="14"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="102"/>
+      <c r="F21" s="103"/>
     </row>
     <row r="22" spans="1:16136" customHeight="1" ht="13.8">
-      <c r="A22" s="90" t="s">
-        <v>33</v>
+      <c r="A22" s="91" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="102"/>
+      <c r="F22" s="103"/>
     </row>
     <row r="23" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A23" s="28"/>
@@ -17770,31 +17785,31 @@
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="102"/>
+      <c r="F23" s="103"/>
     </row>
     <row r="24" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A24" s="28"/>
       <c r="B24" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92" t="s">
-        <v>36</v>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93" t="s">
+        <v>37</v>
       </c>
-      <c r="F24" s="103"/>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A25" s="28"/>
       <c r="B25" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="102"/>
+      <c r="F25" s="103"/>
     </row>
     <row r="26" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A26" s="28"/>
@@ -17802,7 +17817,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="102"/>
+      <c r="F26" s="103"/>
     </row>
     <row r="27" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A27" s="29"/>
@@ -17810,7 +17825,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="102"/>
+      <c r="F27" s="103"/>
     </row>
     <row r="28" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A28" s="29"/>
@@ -17818,7 +17833,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
-      <c r="F28" s="104"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A29" s="29"/>
@@ -17826,31 +17841,31 @@
       <c r="C29" s="14"/>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="104"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A30" s="29"/>
       <c r="B30" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94" t="s">
-        <v>40</v>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95" t="s">
+        <v>41</v>
       </c>
-      <c r="F30" s="105"/>
+      <c r="F30" s="106"/>
     </row>
     <row r="31" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="95" t="s">
-        <v>42</v>
+      <c r="D31" s="96" t="s">
+        <v>43</v>
       </c>
       <c r="E31" s="35"/>
-      <c r="F31" s="106"/>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A32" s="32"/>
@@ -17858,7 +17873,7 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="106"/>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A33" s="32"/>
@@ -17866,103 +17881,103 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="106"/>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A34" s="22"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="97"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="107"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="108"/>
     </row>
     <row r="35" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A35" s="32"/>
       <c r="B35" s="33"/>
-      <c r="C35" s="98"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="33"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="106"/>
+      <c r="F35" s="107"/>
     </row>
     <row r="36" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A36" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="98"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="35"/>
-      <c r="F36" s="106"/>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A37" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="98"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="35"/>
-      <c r="F37" s="106"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A38" s="32"/>
       <c r="B38" s="33"/>
-      <c r="C38" s="98"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="33"/>
       <c r="E38" s="35"/>
-      <c r="F38" s="106"/>
+      <c r="F38" s="107"/>
     </row>
     <row r="39" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A39" s="32"/>
-      <c r="B39" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="33" t="s">
+      <c r="B39" s="110" t="s">
         <v>48</v>
       </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="E39" s="35"/>
-      <c r="F39" s="106"/>
+      <c r="F39" s="107"/>
     </row>
     <row r="40" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A40" s="32"/>
       <c r="B40" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
-      <c r="C40" s="98"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="33"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="106"/>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A41" s="32"/>
       <c r="B41" s="33"/>
-      <c r="C41" s="98" t="s">
-        <v>50</v>
+      <c r="C41" s="99" t="s">
+        <v>51</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="106"/>
+      <c r="F41" s="107"/>
     </row>
     <row r="42" spans="1:16136" customHeight="1" ht="13.8">
       <c r="A42" s="32"/>
       <c r="B42" s="33"/>
-      <c r="C42" s="98"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="33"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="106"/>
+      <c r="F42" s="107"/>
     </row>
     <row r="43" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="108"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="109"/>
     </row>
     <row r="44" spans="1:16136" customHeight="1" ht="13.8" s="6" customFormat="1">
       <c r="A44" s="33"/>

--- a/export_po.xlsx
+++ b/export_po.xlsx
@@ -35,25 +35,25 @@
     <t xml:space="preserve">Supplier : </t>
   </si>
   <si>
-    <t>ASR Computer Trading and Services</t>
+    <t>Marinold Grill Co.</t>
   </si>
   <si>
     <t xml:space="preserve">P.O. No. : </t>
   </si>
   <si>
-    <t>2020-06-0080</t>
+    <t>2020-035</t>
   </si>
   <si>
     <t>Address :</t>
   </si>
   <si>
-    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
+    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>June 25, 2020</t>
+    <t>February 27, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TIN : </t>
@@ -186,17 +186,17 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>M005</t>
+    <t>V002</t>
   </si>
   <si>
-    <t>lot</t>
+    <t>pax</t>
   </si>
   <si>
-    <t>Repair and Maintenance of ICT Equipment
-16 Laptops, as listed on the attached memo brief</t>
+    <t>Meals: Breakfast, AM and PM Snacks, Lunch Dinner for 7 Days
+Meals (Breakfast, AM and PM Snacks, Lunch Dinner) for the conduct  of General Orientation Program (GOP) for 53rd Batch LGOOs II</t>
   </si>
   <si>
-    <t>(Total Amount in Words)   Fifty Thousand pesos only</t>
+    <t>(Total Amount in Words)   Two Hundred Sixty Eight Thousand Eight Hundred pesos only</t>
   </si>
   <si>
     <t>In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for</t>
@@ -17710,13 +17710,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="86">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E16" s="87">
-        <v>50000</v>
+        <v>5600</v>
       </c>
       <c r="F16" s="87">
-        <v>50000</v>
+        <v>268800</v>
       </c>
     </row>
     <row r="17" spans="1:16136" customHeight="1" ht="30">
@@ -17728,7 +17728,7 @@
       <c r="D17" s="86"/>
       <c r="E17" s="87"/>
       <c r="F17" s="89">
-        <v>50000</v>
+        <v>268800</v>
       </c>
     </row>
     <row r="18" spans="1:16136" customHeight="1" ht="13.8">
